--- a/summaries/highQualGenomes/variantSummary.xlsx
+++ b/summaries/highQualGenomes/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -92,16 +92,34 @@
     <t xml:space="preserve">T265I</t>
   </si>
   <si>
+    <t xml:space="preserve">C28854T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S194L</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20268G</t>
   </si>
   <si>
-    <t xml:space="preserve">C28854T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S194L</t>
+    <t xml:space="preserve">C23604A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6618A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2118D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7833C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2523T</t>
   </si>
   <si>
     <t xml:space="preserve">C10319T</t>
@@ -110,60 +128,69 @@
     <t xml:space="preserve">L3352F</t>
   </si>
   <si>
+    <t xml:space="preserve">C10741T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24076C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25907T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G172V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27964T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1578C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V438A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A18424G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1653D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28472T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P67S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29266A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21304T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2613C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28869T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P199L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T29710C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G18255T</t>
   </si>
   <si>
     <t xml:space="preserve">M1596I</t>
   </si>
   <si>
-    <t xml:space="preserve">C23604A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P681H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G25907T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G172V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27964T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1578C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V438A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G6618A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2118D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7833C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2523T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10741T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16260T</t>
   </si>
   <si>
-    <t xml:space="preserve">A18424G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1653D</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18877T</t>
   </si>
   <si>
@@ -173,34 +200,25 @@
     <t xml:space="preserve">G142S</t>
   </si>
   <si>
-    <t xml:space="preserve">T24076C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28472T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P67S</t>
-  </si>
-  <si>
     <t xml:space="preserve">C11916T</t>
   </si>
   <si>
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">C21304T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2613C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28869T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P199L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G29266A</t>
+    <t xml:space="preserve">G28881A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28882A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28883C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G204R</t>
   </si>
   <si>
     <t xml:space="preserve">T2698C</t>
@@ -218,9 +236,6 @@
     <t xml:space="preserve">S183Y</t>
   </si>
   <si>
-    <t xml:space="preserve">T29710C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C3099T</t>
   </si>
   <si>
@@ -245,21 +260,6 @@
     <t xml:space="preserve">A25369G</t>
   </si>
   <si>
-    <t xml:space="preserve">G28881A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28882A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28883C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G204R</t>
-  </si>
-  <si>
     <t xml:space="preserve">G29540A</t>
   </si>
   <si>
@@ -287,6 +287,18 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">C936T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T224I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4113T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1283V</t>
+  </si>
+  <si>
     <t xml:space="preserve">T7386C</t>
   </si>
   <si>
@@ -305,22 +317,76 @@
     <t xml:space="preserve">K811T</t>
   </si>
   <si>
+    <t xml:space="preserve">C28677T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T135I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T692C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F143L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1500A</t>
   </si>
   <si>
     <t xml:space="preserve">S412Y</t>
   </si>
   <si>
+    <t xml:space="preserve">A2342G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I693V</t>
+  </si>
+  <si>
     <t xml:space="preserve">A3090G</t>
   </si>
   <si>
     <t xml:space="preserve">E942G</t>
   </si>
   <si>
-    <t xml:space="preserve">C4113T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1283V</t>
+    <t xml:space="preserve">G3259T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q998H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5011C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1582H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5497T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7168C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8083A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2606I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11591T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3776F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12525T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4087I</t>
   </si>
   <si>
     <t xml:space="preserve">C13501T</t>
@@ -329,33 +395,75 @@
     <t xml:space="preserve">P12S</t>
   </si>
   <si>
+    <t xml:space="preserve">C14805T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17010T</t>
   </si>
   <si>
+    <t xml:space="preserve">G17122T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1219S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G18028T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1521S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18348T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G19180T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20371T</t>
   </si>
   <si>
+    <t xml:space="preserve">G24095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A845S</t>
+  </si>
+  <si>
     <t xml:space="preserve">G24197T</t>
   </si>
   <si>
     <t xml:space="preserve">A879S</t>
   </si>
   <si>
+    <t xml:space="preserve">A26069G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E226G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27920T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28109T</t>
   </si>
   <si>
     <t xml:space="preserve">Q72H</t>
   </si>
   <si>
+    <t xml:space="preserve">C28893T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P207L</t>
+  </si>
+  <si>
     <t xml:space="preserve">T29344C</t>
   </si>
   <si>
-    <t xml:space="preserve">C936T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T224I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C2485T</t>
   </si>
   <si>
@@ -386,6 +494,12 @@
     <t xml:space="preserve">E1728V</t>
   </si>
   <si>
+    <t xml:space="preserve">G28300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28609T</t>
   </si>
   <si>
@@ -395,82 +509,58 @@
     <t xml:space="preserve">T325I</t>
   </si>
   <si>
-    <t xml:space="preserve">C29445T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T391I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C29614T</t>
   </si>
   <si>
     <t xml:space="preserve">orf10</t>
   </si>
   <si>
+    <t xml:space="preserve">G29747T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C157T</t>
   </si>
   <si>
-    <t xml:space="preserve">T692C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F143L</t>
-  </si>
-  <si>
     <t xml:space="preserve">A2219G</t>
   </si>
   <si>
     <t xml:space="preserve">I652V</t>
   </si>
   <si>
+    <t xml:space="preserve">G2258A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V665I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2262T</t>
   </si>
   <si>
     <t xml:space="preserve">T666I</t>
   </si>
   <si>
-    <t xml:space="preserve">A2342G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I693V</t>
-  </si>
-  <si>
     <t xml:space="preserve">C2416T</t>
   </si>
   <si>
-    <t xml:space="preserve">G3259T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q998H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5011C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1582H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5497T</t>
-  </si>
-  <si>
     <t xml:space="preserve">A5570G</t>
   </si>
   <si>
     <t xml:space="preserve">M1769V</t>
   </si>
   <si>
-    <t xml:space="preserve">T7168C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11591T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3776F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12525T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4087I</t>
+    <t xml:space="preserve">A6441G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2059R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8140T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8841T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2859I</t>
   </si>
   <si>
     <t xml:space="preserve">G13975T</t>
@@ -479,19 +569,22 @@
     <t xml:space="preserve">G170C</t>
   </si>
   <si>
-    <t xml:space="preserve">G17122T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1219S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G18028T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1521S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18348T</t>
+    <t xml:space="preserve">T14988C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G16647T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17336T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1290I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17678T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1404M</t>
   </si>
   <si>
     <t xml:space="preserve">C18512T</t>
@@ -500,18 +593,24 @@
     <t xml:space="preserve">P1682L</t>
   </si>
   <si>
-    <t xml:space="preserve">G19180T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1905L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C19524T</t>
   </si>
   <si>
     <t xml:space="preserve">T19839C</t>
   </si>
   <si>
+    <t xml:space="preserve">C19862T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2132V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21145T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2560F</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATACATGT21765delTACATG</t>
   </si>
   <si>
@@ -530,28 +629,25 @@
     <t xml:space="preserve">G252D</t>
   </si>
   <si>
+    <t xml:space="preserve">T23905C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23987T</t>
   </si>
   <si>
     <t xml:space="preserve">P809S</t>
   </si>
   <si>
-    <t xml:space="preserve">G24095T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A845S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A26069G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E226G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27920T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27923T</t>
+    <t xml:space="preserve">G24368T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D936Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTTA26158delGTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 4</t>
   </si>
   <si>
     <t xml:space="preserve">G28068T</t>
@@ -560,21 +656,6 @@
     <t xml:space="preserve">E59*</t>
   </si>
   <si>
-    <t xml:space="preserve">C28677T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T135I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28893T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P207L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G29747T</t>
-  </si>
-  <si>
     <t xml:space="preserve">A79G</t>
   </si>
   <si>
@@ -611,9 +692,27 @@
     <t xml:space="preserve">P380S</t>
   </si>
   <si>
+    <t xml:space="preserve">T1416G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L384R</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1594T</t>
   </si>
   <si>
+    <t xml:space="preserve">AATGA1605delATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1623C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I453T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G1736A</t>
   </si>
   <si>
@@ -638,21 +737,30 @@
     <t xml:space="preserve">T592I</t>
   </si>
   <si>
+    <t xml:space="preserve">A2071G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2110T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2113T</t>
   </si>
   <si>
-    <t xml:space="preserve">G2258A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V665I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C2334T</t>
   </si>
   <si>
     <t xml:space="preserve">A690V</t>
   </si>
   <si>
+    <t xml:space="preserve">C2488T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2508T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P748L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2644T</t>
   </si>
   <si>
@@ -662,6 +770,15 @@
     <t xml:space="preserve">C2788T</t>
   </si>
   <si>
+    <t xml:space="preserve">C2836T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3140T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P959S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3176T</t>
   </si>
   <si>
@@ -674,6 +791,12 @@
     <t xml:space="preserve">T1001I</t>
   </si>
   <si>
+    <t xml:space="preserve">A3278C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1005L</t>
+  </si>
+  <si>
     <t xml:space="preserve">T3312C</t>
   </si>
   <si>
@@ -695,6 +818,15 @@
     <t xml:space="preserve">C3736T</t>
   </si>
   <si>
+    <t xml:space="preserve">T3766C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3840G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1192G</t>
+  </si>
+  <si>
     <t xml:space="preserve">T3960C</t>
   </si>
   <si>
@@ -707,6 +839,9 @@
     <t xml:space="preserve">C4084T</t>
   </si>
   <si>
+    <t xml:space="preserve">T4156G</t>
+  </si>
+  <si>
     <t xml:space="preserve">G4201T</t>
   </si>
   <si>
@@ -758,6 +893,15 @@
     <t xml:space="preserve">E1826A</t>
   </si>
   <si>
+    <t xml:space="preserve">C5907T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1881I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5956T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C5986T</t>
   </si>
   <si>
@@ -782,12 +926,6 @@
     <t xml:space="preserve">V2019F</t>
   </si>
   <si>
-    <t xml:space="preserve">A6441G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K2059R</t>
-  </si>
-  <si>
     <t xml:space="preserve">A6505G</t>
   </si>
   <si>
@@ -803,6 +941,9 @@
     <t xml:space="preserve">T2093I</t>
   </si>
   <si>
+    <t xml:space="preserve">C6730T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T6754C</t>
   </si>
   <si>
@@ -818,6 +959,12 @@
     <t xml:space="preserve">I2230T</t>
   </si>
   <si>
+    <t xml:space="preserve">C7056A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2264N</t>
+  </si>
+  <si>
     <t xml:space="preserve">G7253T</t>
   </si>
   <si>
@@ -827,6 +974,12 @@
     <t xml:space="preserve">G7393T</t>
   </si>
   <si>
+    <t xml:space="preserve">A7710C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2482T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G7798T</t>
   </si>
   <si>
@@ -836,21 +989,18 @@
     <t xml:space="preserve">C7834T</t>
   </si>
   <si>
+    <t xml:space="preserve">C7869T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2535L</t>
+  </si>
+  <si>
     <t xml:space="preserve">G7975A</t>
   </si>
   <si>
     <t xml:space="preserve">C8047T</t>
   </si>
   <si>
-    <t xml:space="preserve">G8083A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2606I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8140T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C8344T</t>
   </si>
   <si>
@@ -893,12 +1043,21 @@
     <t xml:space="preserve">T3117I</t>
   </si>
   <si>
+    <t xml:space="preserve">T9875C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y3204H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C9996T</t>
   </si>
   <si>
     <t xml:space="preserve">S3244L</t>
   </si>
   <si>
+    <t xml:space="preserve">C10165T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T10665C</t>
   </si>
   <si>
@@ -926,6 +1085,9 @@
     <t xml:space="preserve">del 9</t>
   </si>
   <si>
+    <t xml:space="preserve">C11416T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11518T</t>
   </si>
   <si>
@@ -953,12 +1115,21 @@
     <t xml:space="preserve">C12784T</t>
   </si>
   <si>
+    <t xml:space="preserve">C12786T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4174I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12789T</t>
   </si>
   <si>
     <t xml:space="preserve">T4175I</t>
   </si>
   <si>
+    <t xml:space="preserve">C12880T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13274T</t>
   </si>
   <si>
@@ -1001,9 +1172,6 @@
     <t xml:space="preserve">C14790T</t>
   </si>
   <si>
-    <t xml:space="preserve">C14805T</t>
-  </si>
-  <si>
     <t xml:space="preserve">T14817C</t>
   </si>
   <si>
@@ -1034,15 +1202,36 @@
     <t xml:space="preserve">C15450T</t>
   </si>
   <si>
+    <t xml:space="preserve">A15677G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y737C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G15766T</t>
   </si>
   <si>
     <t xml:space="preserve">V767L</t>
   </si>
   <si>
+    <t xml:space="preserve">C15960T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16111T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T16176C</t>
   </si>
   <si>
+    <t xml:space="preserve">C16308T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16376T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P970L</t>
+  </si>
+  <si>
     <t xml:space="preserve">G16396A</t>
   </si>
   <si>
@@ -1064,10 +1253,10 @@
     <t xml:space="preserve">H1213Y</t>
   </si>
   <si>
-    <t xml:space="preserve">C17336T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1290I</t>
+    <t xml:space="preserve">C17372T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1302V</t>
   </si>
   <si>
     <t xml:space="preserve">C17436T</t>
@@ -1085,10 +1274,13 @@
     <t xml:space="preserve">K1383R</t>
   </si>
   <si>
-    <t xml:space="preserve">C17678T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1404M</t>
+    <t xml:space="preserve">G17814T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1449F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A17889G</t>
   </si>
   <si>
     <t xml:space="preserve">G18106C</t>
@@ -1097,6 +1289,12 @@
     <t xml:space="preserve">A1547P</t>
   </si>
   <si>
+    <t xml:space="preserve">C18131T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1555I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18252T</t>
   </si>
   <si>
@@ -1121,6 +1319,12 @@
     <t xml:space="preserve">V1706I</t>
   </si>
   <si>
+    <t xml:space="preserve">G18803T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1779I</t>
+  </si>
+  <si>
     <t xml:space="preserve">G18898T</t>
   </si>
   <si>
@@ -1145,6 +1349,24 @@
     <t xml:space="preserve">G20580T</t>
   </si>
   <si>
+    <t xml:space="preserve">C20987T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2507I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G20995T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2510C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21191T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2575V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21216T</t>
   </si>
   <si>
@@ -1181,6 +1403,9 @@
     <t xml:space="preserve">G21793T</t>
   </si>
   <si>
+    <t xml:space="preserve">T21823C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21846A</t>
   </si>
   <si>
@@ -1190,9 +1415,6 @@
     <t xml:space="preserve">TTTATTA21991delTTA</t>
   </si>
   <si>
-    <t xml:space="preserve">del 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">T22078G</t>
   </si>
   <si>
@@ -1244,6 +1466,12 @@
     <t xml:space="preserve">G23611T</t>
   </si>
   <si>
+    <t xml:space="preserve">A23688G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N709S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23709T</t>
   </si>
   <si>
@@ -1271,12 +1499,6 @@
     <t xml:space="preserve">T24364A</t>
   </si>
   <si>
-    <t xml:space="preserve">G24368T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D936Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">T24506G</t>
   </si>
   <si>
@@ -1328,12 +1550,27 @@
     <t xml:space="preserve">GTATA25743delTA</t>
   </si>
   <si>
+    <t xml:space="preserve">T25818C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25819A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A143T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A25897T</t>
   </si>
   <si>
     <t xml:space="preserve">I169F</t>
   </si>
   <si>
+    <t xml:space="preserve">C25904T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S171L</t>
+  </si>
+  <si>
     <t xml:space="preserve">G25913A</t>
   </si>
   <si>
@@ -1346,12 +1583,6 @@
     <t xml:space="preserve">S180P</t>
   </si>
   <si>
-    <t xml:space="preserve">TGTTA26158delGTTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">G26233T</t>
   </si>
   <si>
@@ -1385,6 +1616,9 @@
     <t xml:space="preserve">L73F</t>
   </si>
   <si>
+    <t xml:space="preserve">C26464T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G26660T</t>
   </si>
   <si>
@@ -1400,6 +1634,9 @@
     <t xml:space="preserve">G26690T</t>
   </si>
   <si>
+    <t xml:space="preserve">C26822T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G26842A</t>
   </si>
   <si>
@@ -1412,6 +1649,15 @@
     <t xml:space="preserve">L134Q</t>
   </si>
   <si>
+    <t xml:space="preserve">G26951T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A27041G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G27074T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C27230T</t>
   </si>
   <si>
@@ -1424,12 +1670,15 @@
     <t xml:space="preserve">G27390T</t>
   </si>
   <si>
+    <t xml:space="preserve">C27513T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf7a</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC27725delC</t>
   </si>
   <si>
-    <t xml:space="preserve">orf7a</t>
-  </si>
-  <si>
     <t xml:space="preserve">C27739T</t>
   </si>
   <si>
@@ -1463,6 +1712,12 @@
     <t xml:space="preserve">R52I</t>
   </si>
   <si>
+    <t xml:space="preserve">C28102T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P70L</t>
+  </si>
+  <si>
     <t xml:space="preserve">A28111G</t>
   </si>
   <si>
@@ -1484,12 +1739,6 @@
     <t xml:space="preserve">T28282A</t>
   </si>
   <si>
-    <t xml:space="preserve">G28300T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9H</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28376T</t>
   </si>
   <si>
@@ -1505,6 +1754,12 @@
     <t xml:space="preserve">Q83K</t>
   </si>
   <si>
+    <t xml:space="preserve">T28705C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28744A</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28849T</t>
   </si>
   <si>
@@ -1526,12 +1781,21 @@
     <t xml:space="preserve">A211V</t>
   </si>
   <si>
+    <t xml:space="preserve">C28957T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28977T</t>
   </si>
   <si>
     <t xml:space="preserve">S235F</t>
   </si>
   <si>
+    <t xml:space="preserve">G28985T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G238C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C29200T</t>
   </si>
   <si>
@@ -1539,6 +1803,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q389L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29545T</t>
   </si>
   <si>
     <t xml:space="preserve">G29825T</t>
@@ -1907,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -1924,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -1941,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -1958,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -1975,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1992,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2009,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2026,7 +2293,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -2043,63 +2310,63 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20268</v>
+        <v>28854</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28854</v>
+        <v>20268</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10319</v>
+        <v>23604</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18255</v>
+        <v>6618</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -2111,233 +2378,233 @@
         <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23604</v>
+        <v>7833</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25907</v>
+        <v>10319</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>27964</v>
+        <v>10741</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1578</v>
+        <v>24076</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6618</v>
+        <v>25907</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7833</v>
+        <v>27964</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10741</v>
+        <v>1578</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16260</v>
+        <v>18424</v>
       </c>
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18424</v>
+        <v>28472</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18877</v>
+        <v>29266</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21986</v>
+        <v>21304</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24076</v>
+        <v>28869</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28472</v>
+        <v>29710</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11916</v>
+        <v>18255</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -2349,12 +2616,12 @@
         <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21304</v>
+        <v>16260</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -2363,117 +2630,117 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28869</v>
+        <v>18877</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29266</v>
+        <v>21986</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2698</v>
+        <v>11916</v>
       </c>
       <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28316</v>
+        <v>28881</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28821</v>
+        <v>28882</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>29710</v>
+        <v>28883</v>
       </c>
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="n">
         <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3099</v>
+        <v>2698</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -2482,58 +2749,58 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11572</v>
+        <v>28316</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17802</v>
+        <v>28821</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18998</v>
+        <v>3099</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -2541,13 +2808,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>23266</v>
+        <v>11572</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2558,13 +2825,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>25369</v>
+        <v>17802</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -2575,16 +2842,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>28881</v>
+        <v>18998</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -2592,16 +2859,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>28882</v>
+        <v>23266</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -2609,16 +2876,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28883</v>
+        <v>25369</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -2728,7 +2995,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7386</v>
+        <v>936</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
@@ -2745,7 +3012,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11083</v>
+        <v>4113</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -2762,13 +3029,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>23994</v>
+        <v>7386</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>96</v>
@@ -2779,7 +3046,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1500</v>
+        <v>11083</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -2791,63 +3058,63 @@
         <v>98</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3090</v>
+        <v>23994</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4113</v>
+        <v>28677</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>102</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13501</v>
+        <v>29445</v>
       </c>
       <c r="B57" t="s">
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
         <v>104</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17010</v>
+        <v>692</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
@@ -2856,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -2864,16 +3131,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20371</v>
+        <v>1500</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -2881,16 +3148,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>24197</v>
+        <v>2342</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -2898,16 +3165,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>28109</v>
+        <v>3090</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -2915,16 +3182,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29344</v>
+        <v>3259</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -2932,27 +3199,27 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>936</v>
+        <v>5011</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2485</v>
+        <v>5497</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -2961,369 +3228,369 @@
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4002</v>
+        <v>7168</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6388</v>
+        <v>8083</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12513</v>
+        <v>11591</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15857</v>
+        <v>12525</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>18650</v>
+        <v>13501</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28609</v>
+        <v>14805</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29247</v>
+        <v>17010</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>29445</v>
+        <v>17122</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>29614</v>
+        <v>18028</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>157</v>
+        <v>18348</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>692</v>
+        <v>19180</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2219</v>
+        <v>20371</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2262</v>
+        <v>24095</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2342</v>
+        <v>24197</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2416</v>
+        <v>26069</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3259</v>
+        <v>27920</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5011</v>
+        <v>27923</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5497</v>
+        <v>28109</v>
       </c>
       <c r="B82" t="s">
         <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5570</v>
+        <v>28893</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7168</v>
+        <v>29344</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11591</v>
+        <v>2485</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12525</v>
+        <v>4002</v>
       </c>
       <c r="B86" t="s">
         <v>151</v>
@@ -3335,12 +3602,12 @@
         <v>152</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>13975</v>
+        <v>6388</v>
       </c>
       <c r="B87" t="s">
         <v>153</v>
@@ -3349,160 +3616,160 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17122</v>
+        <v>12513</v>
       </c>
       <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
         <v>155</v>
       </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" t="s">
-        <v>156</v>
-      </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>18028</v>
+        <v>15857</v>
       </c>
       <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
         <v>157</v>
       </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" t="s">
-        <v>158</v>
-      </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>18348</v>
+        <v>18650</v>
       </c>
       <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
         <v>159</v>
       </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>16</v>
-      </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>18512</v>
+        <v>28300</v>
       </c>
       <c r="B91" t="s">
         <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
         <v>161</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>19180</v>
+        <v>28609</v>
       </c>
       <c r="B92" t="s">
         <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19524</v>
+        <v>29247</v>
       </c>
       <c r="B93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
         <v>164</v>
       </c>
-      <c r="C93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" t="s">
-        <v>16</v>
-      </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>19839</v>
+        <v>29614</v>
       </c>
       <c r="B94" t="s">
         <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>21765</v>
+        <v>29747</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>21974</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
         <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -3510,16 +3777,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>22317</v>
+        <v>2219</v>
       </c>
       <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
         <v>170</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>171</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -3527,16 +3794,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>23987</v>
+        <v>2258</v>
       </c>
       <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
         <v>172</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>173</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -3544,16 +3811,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>24095</v>
+        <v>2262</v>
       </c>
       <c r="B99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
         <v>174</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>175</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -3561,16 +3828,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>26069</v>
+        <v>2416</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -3578,16 +3845,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>27920</v>
+        <v>5570</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -3595,16 +3862,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27923</v>
+        <v>6441</v>
       </c>
       <c r="B102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
         <v>179</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s">
-        <v>16</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
@@ -3612,16 +3879,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>28068</v>
+        <v>8140</v>
       </c>
       <c r="B103" t="s">
         <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -3629,16 +3896,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>28677</v>
+        <v>8841</v>
       </c>
       <c r="B104" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
         <v>182</v>
-      </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" t="s">
-        <v>183</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -3646,16 +3913,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>28893</v>
+        <v>13975</v>
       </c>
       <c r="B105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
         <v>184</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s">
-        <v>185</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -3663,16 +3930,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>29747</v>
+        <v>14988</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E106" t="n">
         <v>2</v>
@@ -3680,109 +3947,109 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>79</v>
+        <v>16647</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>186</v>
+        <v>17336</v>
       </c>
       <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
         <v>188</v>
       </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>219</v>
+        <v>17678</v>
       </c>
       <c r="B109" t="s">
         <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>406</v>
+        <v>18512</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>625</v>
+        <v>19524</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>678</v>
+        <v>19839</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>832</v>
+        <v>19862</v>
       </c>
       <c r="B113" t="s">
         <v>195</v>
@@ -3791,177 +4058,177 @@
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>913</v>
+        <v>21145</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1403</v>
+        <v>21765</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1594</v>
+        <v>21974</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1736</v>
+        <v>22317</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1884</v>
+        <v>23905</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1912</v>
+        <v>23987</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1927</v>
+        <v>24368</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2040</v>
+        <v>26158</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2113</v>
+        <v>28068</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2258</v>
+        <v>79</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -3969,16 +4236,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2334</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
@@ -3986,16 +4253,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2644</v>
+        <v>219</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -4003,10 +4270,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2785</v>
+        <v>406</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
@@ -4020,16 +4287,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2788</v>
+        <v>625</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -4037,16 +4304,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3176</v>
+        <v>678</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -4054,16 +4321,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3267</v>
+        <v>832</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -4071,16 +4338,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3312</v>
+        <v>913</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -4088,16 +4355,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3702</v>
+        <v>1403</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -4105,16 +4372,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3714</v>
+        <v>1416</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -4122,10 +4389,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3736</v>
+        <v>1594</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
@@ -4139,16 +4406,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3960</v>
+        <v>1605</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -4156,16 +4423,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3991</v>
+        <v>1623</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -4173,16 +4440,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4084</v>
+        <v>1736</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -4190,16 +4457,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4201</v>
+        <v>1884</v>
       </c>
       <c r="B137" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -4207,16 +4474,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4504</v>
+        <v>1912</v>
       </c>
       <c r="B138" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -4224,10 +4491,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4540</v>
+        <v>1927</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
@@ -4241,16 +4508,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4579</v>
+        <v>2040</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -4258,16 +4525,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4964</v>
+        <v>2071</v>
       </c>
       <c r="B141" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -4275,16 +4542,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5094</v>
+        <v>2110</v>
       </c>
       <c r="B142" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -4292,16 +4559,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5388</v>
+        <v>2113</v>
       </c>
       <c r="B143" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4309,16 +4576,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5500</v>
+        <v>2334</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -4326,16 +4593,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5730</v>
+        <v>2488</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -4343,16 +4610,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5742</v>
+        <v>2508</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4360,10 +4627,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5986</v>
+        <v>2644</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -4377,10 +4644,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6040</v>
+        <v>2785</v>
       </c>
       <c r="B148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -4394,16 +4661,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6285</v>
+        <v>2788</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -4411,7 +4678,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6318</v>
+        <v>2836</v>
       </c>
       <c r="B150" t="s">
         <v>252</v>
@@ -4420,7 +4687,7 @@
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -4428,16 +4695,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6320</v>
+        <v>3140</v>
       </c>
       <c r="B151" t="s">
+        <v>253</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
         <v>254</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>255</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
@@ -4445,16 +4712,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>6441</v>
+        <v>3176</v>
       </c>
       <c r="B152" t="s">
+        <v>255</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
         <v>256</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>257</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4462,16 +4729,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>6505</v>
+        <v>3267</v>
       </c>
       <c r="B153" t="s">
+        <v>257</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
         <v>258</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>16</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -4479,7 +4746,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6536</v>
+        <v>3278</v>
       </c>
       <c r="B154" t="s">
         <v>259</v>
@@ -4496,7 +4763,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6543</v>
+        <v>3312</v>
       </c>
       <c r="B155" t="s">
         <v>261</v>
@@ -4513,7 +4780,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6754</v>
+        <v>3702</v>
       </c>
       <c r="B156" t="s">
         <v>263</v>
@@ -4522,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -4530,16 +4797,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6926</v>
+        <v>3714</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -4547,16 +4814,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>6954</v>
+        <v>3736</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -4564,7 +4831,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>7253</v>
+        <v>3766</v>
       </c>
       <c r="B159" t="s">
         <v>268</v>
@@ -4573,7 +4840,7 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -4581,16 +4848,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>7393</v>
+        <v>3840</v>
       </c>
       <c r="B160" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
         <v>270</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>16</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -4598,7 +4865,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7798</v>
+        <v>3960</v>
       </c>
       <c r="B161" t="s">
         <v>271</v>
@@ -4615,7 +4882,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7834</v>
+        <v>3991</v>
       </c>
       <c r="B162" t="s">
         <v>273</v>
@@ -4632,7 +4899,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7975</v>
+        <v>4084</v>
       </c>
       <c r="B163" t="s">
         <v>274</v>
@@ -4649,7 +4916,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8047</v>
+        <v>4156</v>
       </c>
       <c r="B164" t="s">
         <v>275</v>
@@ -4666,7 +4933,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8083</v>
+        <v>4201</v>
       </c>
       <c r="B165" t="s">
         <v>276</v>
@@ -4683,7 +4950,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8140</v>
+        <v>4504</v>
       </c>
       <c r="B166" t="s">
         <v>278</v>
@@ -4692,7 +4959,7 @@
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -4700,10 +4967,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8344</v>
+        <v>4540</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
@@ -4717,16 +4984,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8537</v>
+        <v>4579</v>
       </c>
       <c r="B168" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -4734,7 +5001,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8558</v>
+        <v>4964</v>
       </c>
       <c r="B169" t="s">
         <v>282</v>
@@ -4751,7 +5018,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8917</v>
+        <v>5094</v>
       </c>
       <c r="B170" t="s">
         <v>284</v>
@@ -4760,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -4768,16 +5035,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9204</v>
+        <v>5388</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4785,16 +5052,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9389</v>
+        <v>5500</v>
       </c>
       <c r="B172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4802,7 +5069,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9585</v>
+        <v>5730</v>
       </c>
       <c r="B173" t="s">
         <v>289</v>
@@ -4819,7 +5086,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9615</v>
+        <v>5742</v>
       </c>
       <c r="B174" t="s">
         <v>291</v>
@@ -4836,7 +5103,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9996</v>
+        <v>5907</v>
       </c>
       <c r="B175" t="s">
         <v>293</v>
@@ -4853,7 +5120,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>10665</v>
+        <v>5956</v>
       </c>
       <c r="B176" t="s">
         <v>295</v>
@@ -4862,7 +5129,7 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4870,16 +5137,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10874</v>
+        <v>5986</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -4887,10 +5154,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11095</v>
+        <v>6040</v>
       </c>
       <c r="B178" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -4904,16 +5171,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11102</v>
+        <v>6285</v>
       </c>
       <c r="B179" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4921,16 +5188,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11288</v>
+        <v>6318</v>
       </c>
       <c r="B180" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -4938,16 +5205,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11518</v>
+        <v>6320</v>
       </c>
       <c r="B181" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -4955,10 +5222,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11782</v>
+        <v>6505</v>
       </c>
       <c r="B182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -4972,16 +5239,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>12068</v>
+        <v>6536</v>
       </c>
       <c r="B183" t="s">
+        <v>305</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
         <v>306</v>
-      </c>
-      <c r="C183" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" t="s">
-        <v>16</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -4989,7 +5256,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>12112</v>
+        <v>6543</v>
       </c>
       <c r="B184" t="s">
         <v>307</v>
@@ -4998,7 +5265,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -5006,16 +5273,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>12162</v>
+        <v>6730</v>
       </c>
       <c r="B185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -5023,7 +5290,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>12741</v>
+        <v>6754</v>
       </c>
       <c r="B186" t="s">
         <v>310</v>
@@ -5032,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -5040,16 +5307,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12784</v>
+        <v>6926</v>
       </c>
       <c r="B187" t="s">
+        <v>311</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
         <v>312</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>16</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -5057,7 +5324,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12789</v>
+        <v>6954</v>
       </c>
       <c r="B188" t="s">
         <v>313</v>
@@ -5074,7 +5341,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>13274</v>
+        <v>7056</v>
       </c>
       <c r="B189" t="s">
         <v>315</v>
@@ -5091,7 +5358,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>13335</v>
+        <v>7253</v>
       </c>
       <c r="B190" t="s">
         <v>317</v>
@@ -5108,7 +5375,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>13459</v>
+        <v>7393</v>
       </c>
       <c r="B191" t="s">
         <v>319</v>
@@ -5125,7 +5392,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>13536</v>
+        <v>7710</v>
       </c>
       <c r="B192" t="s">
         <v>320</v>
@@ -5134,7 +5401,7 @@
         <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -5142,16 +5409,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>13620</v>
+        <v>7798</v>
       </c>
       <c r="B193" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C193" t="s">
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -5159,16 +5426,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>13694</v>
+        <v>7834</v>
       </c>
       <c r="B194" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C194" t="s">
         <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -5176,16 +5443,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>14097</v>
+        <v>7869</v>
       </c>
       <c r="B195" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C195" t="s">
         <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -5193,16 +5460,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>14648</v>
+        <v>7975</v>
       </c>
       <c r="B196" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>326</v>
+        <v>16</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -5210,10 +5477,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>14676</v>
+        <v>8047</v>
       </c>
       <c r="B197" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
@@ -5227,10 +5494,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>14790</v>
+        <v>8344</v>
       </c>
       <c r="B198" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
@@ -5244,16 +5511,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>14805</v>
+        <v>8537</v>
       </c>
       <c r="B199" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C199" t="s">
         <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -5261,16 +5528,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>14817</v>
+        <v>8558</v>
       </c>
       <c r="B200" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C200" t="s">
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5278,10 +5545,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>15024</v>
+        <v>8917</v>
       </c>
       <c r="B201" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C201" t="s">
         <v>15</v>
@@ -5295,16 +5562,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>15100</v>
+        <v>9204</v>
       </c>
       <c r="B202" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C202" t="s">
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -5312,16 +5579,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>15279</v>
+        <v>9389</v>
       </c>
       <c r="B203" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -5329,16 +5596,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>15326</v>
+        <v>9585</v>
       </c>
       <c r="B204" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -5346,16 +5613,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>15327</v>
+        <v>9615</v>
       </c>
       <c r="B205" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -5363,16 +5630,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>15450</v>
+        <v>9875</v>
       </c>
       <c r="B206" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -5380,16 +5647,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>15766</v>
+        <v>9996</v>
       </c>
       <c r="B207" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5397,10 +5664,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>16176</v>
+        <v>10165</v>
       </c>
       <c r="B208" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
@@ -5414,16 +5681,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>16396</v>
+        <v>10665</v>
       </c>
       <c r="B209" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -5431,16 +5698,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>16669</v>
+        <v>10874</v>
       </c>
       <c r="B210" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5448,10 +5715,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>16887</v>
+        <v>11095</v>
       </c>
       <c r="B211" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C211" t="s">
         <v>15</v>
@@ -5465,16 +5732,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>17104</v>
+        <v>11102</v>
       </c>
       <c r="B212" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5482,16 +5749,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>17336</v>
+        <v>11288</v>
       </c>
       <c r="B213" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -5499,10 +5766,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>17436</v>
+        <v>11416</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C214" t="s">
         <v>15</v>
@@ -5516,16 +5783,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>17443</v>
+        <v>11518</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5533,16 +5800,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>17615</v>
+        <v>11782</v>
       </c>
       <c r="B216" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C216" t="s">
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>356</v>
+        <v>16</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -5550,16 +5817,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>17678</v>
+        <v>12068</v>
       </c>
       <c r="B217" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -5567,16 +5834,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>18106</v>
+        <v>12112</v>
       </c>
       <c r="B218" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5584,16 +5851,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>18252</v>
+        <v>12162</v>
       </c>
       <c r="B219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -5601,16 +5868,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>18404</v>
+        <v>12741</v>
       </c>
       <c r="B220" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5618,10 +5885,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>18486</v>
+        <v>12784</v>
       </c>
       <c r="B221" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
@@ -5635,16 +5902,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>18538</v>
+        <v>12786</v>
       </c>
       <c r="B222" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -5652,16 +5919,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>18583</v>
+        <v>12789</v>
       </c>
       <c r="B223" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C223" t="s">
         <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -5669,16 +5936,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>18898</v>
+        <v>12880</v>
       </c>
       <c r="B224" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C224" t="s">
         <v>15</v>
       </c>
       <c r="D224" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5686,16 +5953,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>18958</v>
+        <v>13274</v>
       </c>
       <c r="B225" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C225" t="s">
         <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5703,16 +5970,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>20178</v>
+        <v>13335</v>
       </c>
       <c r="B226" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C226" t="s">
         <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -5720,16 +5987,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>20279</v>
+        <v>13459</v>
       </c>
       <c r="B227" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5737,10 +6004,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>20580</v>
+        <v>13536</v>
       </c>
       <c r="B228" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C228" t="s">
         <v>15</v>
@@ -5754,10 +6021,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>21216</v>
+        <v>13620</v>
       </c>
       <c r="B229" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C229" t="s">
         <v>15</v>
@@ -5771,16 +6038,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>21305</v>
+        <v>13694</v>
       </c>
       <c r="B230" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C230" t="s">
         <v>15</v>
       </c>
       <c r="D230" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5788,16 +6055,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>21526</v>
+        <v>14097</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C231" t="s">
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>381</v>
+        <v>16</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -5805,16 +6072,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>21625</v>
+        <v>14648</v>
       </c>
       <c r="B232" t="s">
         <v>382</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>383</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -5822,16 +6089,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>21695</v>
+        <v>14676</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>384</v>
+        <v>16</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5839,13 +6106,13 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>21724</v>
+        <v>14790</v>
       </c>
       <c r="B234" t="s">
         <v>385</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D234" t="s">
         <v>16</v>
@@ -5856,16 +6123,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>21792</v>
+        <v>14817</v>
       </c>
       <c r="B235" t="s">
         <v>386</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>387</v>
+        <v>16</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -5873,16 +6140,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>21793</v>
+        <v>15024</v>
       </c>
       <c r="B236" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D236" t="s">
-        <v>387</v>
+        <v>16</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -5890,16 +6157,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>21846</v>
+        <v>15100</v>
       </c>
       <c r="B237" t="s">
+        <v>388</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" t="s">
         <v>389</v>
-      </c>
-      <c r="C237" t="s">
-        <v>6</v>
-      </c>
-      <c r="D237" t="s">
-        <v>390</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -5907,16 +6174,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>21991</v>
+        <v>15279</v>
       </c>
       <c r="B238" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>392</v>
+        <v>16</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -5924,16 +6191,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>22078</v>
+        <v>15326</v>
       </c>
       <c r="B239" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>392</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -5941,16 +6208,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>22162</v>
+        <v>15327</v>
       </c>
       <c r="B240" t="s">
+        <v>393</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" t="s">
         <v>394</v>
-      </c>
-      <c r="C240" t="s">
-        <v>6</v>
-      </c>
-      <c r="D240" t="s">
-        <v>16</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -5958,13 +6225,13 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>22255</v>
+        <v>15450</v>
       </c>
       <c r="B241" t="s">
         <v>395</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D241" t="s">
         <v>16</v>
@@ -5975,13 +6242,13 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>22323</v>
+        <v>15677</v>
       </c>
       <c r="B242" t="s">
         <v>396</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D242" t="s">
         <v>397</v>
@@ -5992,13 +6259,13 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>22328</v>
+        <v>15766</v>
       </c>
       <c r="B243" t="s">
         <v>398</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D243" t="s">
         <v>399</v>
@@ -6009,13 +6276,13 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>22591</v>
+        <v>15960</v>
       </c>
       <c r="B244" t="s">
         <v>400</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -6026,13 +6293,13 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>22969</v>
+        <v>16111</v>
       </c>
       <c r="B245" t="s">
         <v>401</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -6043,16 +6310,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>23063</v>
+        <v>16176</v>
       </c>
       <c r="B246" t="s">
         <v>402</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>403</v>
+        <v>16</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -6060,16 +6327,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>23271</v>
+        <v>16308</v>
       </c>
       <c r="B247" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -6077,16 +6344,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>23510</v>
+        <v>16376</v>
       </c>
       <c r="B248" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -6094,16 +6361,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>23601</v>
+        <v>16396</v>
       </c>
       <c r="B249" t="s">
+        <v>406</v>
+      </c>
+      <c r="C249" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" t="s">
         <v>407</v>
-      </c>
-      <c r="C249" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" t="s">
-        <v>408</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -6111,16 +6378,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>23611</v>
+        <v>16669</v>
       </c>
       <c r="B250" t="s">
+        <v>408</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" t="s">
         <v>409</v>
-      </c>
-      <c r="C250" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250" t="s">
-        <v>16</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -6128,16 +6395,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>23709</v>
+        <v>16887</v>
       </c>
       <c r="B251" t="s">
         <v>410</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
@@ -6145,16 +6412,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>23809</v>
+        <v>17104</v>
       </c>
       <c r="B252" t="s">
+        <v>411</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" t="s">
         <v>412</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" t="s">
-        <v>16</v>
       </c>
       <c r="E252" t="n">
         <v>1</v>
@@ -6162,13 +6429,13 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24151</v>
+        <v>17372</v>
       </c>
       <c r="B253" t="s">
         <v>413</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D253" t="s">
         <v>414</v>
@@ -6179,16 +6446,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24161</v>
+        <v>17436</v>
       </c>
       <c r="B254" t="s">
         <v>415</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D254" t="s">
-        <v>416</v>
+        <v>16</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
@@ -6196,16 +6463,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24321</v>
+        <v>17443</v>
       </c>
       <c r="B255" t="s">
+        <v>416</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" t="s">
         <v>417</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255" t="s">
-        <v>346</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -6213,16 +6480,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24364</v>
+        <v>17615</v>
       </c>
       <c r="B256" t="s">
         <v>418</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>419</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
@@ -6230,16 +6497,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>24368</v>
+        <v>17814</v>
       </c>
       <c r="B257" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E257" t="n">
         <v>1</v>
@@ -6247,16 +6514,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>24506</v>
+        <v>17889</v>
       </c>
       <c r="B258" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>422</v>
+        <v>16</v>
       </c>
       <c r="E258" t="n">
         <v>1</v>
@@ -6264,16 +6531,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>24904</v>
+        <v>18106</v>
       </c>
       <c r="B259" t="s">
         <v>423</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="E259" t="n">
         <v>1</v>
@@ -6281,16 +6548,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>24914</v>
+        <v>18131</v>
       </c>
       <c r="B260" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D260" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E260" t="n">
         <v>1</v>
@@ -6298,16 +6565,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25135</v>
+        <v>18252</v>
       </c>
       <c r="B261" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>427</v>
+        <v>16</v>
       </c>
       <c r="E261" t="n">
         <v>1</v>
@@ -6315,16 +6582,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25214</v>
+        <v>18404</v>
       </c>
       <c r="B262" t="s">
         <v>428</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>429</v>
       </c>
       <c r="E262" t="n">
         <v>1</v>
@@ -6332,16 +6599,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25218</v>
+        <v>18486</v>
       </c>
       <c r="B263" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D263" t="s">
-        <v>430</v>
+        <v>16</v>
       </c>
       <c r="E263" t="n">
         <v>1</v>
@@ -6349,13 +6616,13 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25275</v>
+        <v>18538</v>
       </c>
       <c r="B264" t="s">
         <v>431</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D264" t="s">
         <v>432</v>
@@ -6366,16 +6633,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25300</v>
+        <v>18583</v>
       </c>
       <c r="B265" t="s">
         <v>433</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="E265" t="n">
         <v>1</v>
@@ -6383,16 +6650,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25460</v>
+        <v>18803</v>
       </c>
       <c r="B266" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D266" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E266" t="n">
         <v>1</v>
@@ -6400,16 +6667,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>25521</v>
+        <v>18898</v>
       </c>
       <c r="B267" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D267" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="E267" t="n">
         <v>1</v>
@@ -6417,16 +6684,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>25743</v>
+        <v>18958</v>
       </c>
       <c r="B268" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D268" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -6434,16 +6701,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>25897</v>
+        <v>20178</v>
       </c>
       <c r="B269" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D269" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -6451,16 +6718,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>25913</v>
+        <v>20279</v>
       </c>
       <c r="B270" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D270" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -6468,16 +6735,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>25930</v>
+        <v>20580</v>
       </c>
       <c r="B271" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D271" t="s">
-        <v>443</v>
+        <v>16</v>
       </c>
       <c r="E271" t="n">
         <v>1</v>
@@ -6485,16 +6752,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26158</v>
+        <v>20987</v>
       </c>
       <c r="B272" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D272" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
@@ -6502,16 +6769,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26233</v>
+        <v>20995</v>
       </c>
       <c r="B273" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D273" t="s">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6519,16 +6786,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26313</v>
+        <v>21191</v>
       </c>
       <c r="B274" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C274" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>450</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -6536,16 +6803,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26333</v>
+        <v>21216</v>
       </c>
       <c r="B275" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C275" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D275" t="s">
-        <v>449</v>
+        <v>16</v>
       </c>
       <c r="E275" t="n">
         <v>1</v>
@@ -6553,16 +6820,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26447</v>
+        <v>21305</v>
       </c>
       <c r="B276" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C276" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D276" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -6570,16 +6837,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>26459</v>
+        <v>21526</v>
       </c>
       <c r="B277" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C277" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D277" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -6587,13 +6854,13 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>26460</v>
+        <v>21625</v>
       </c>
       <c r="B278" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C278" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D278" t="s">
         <v>16</v>
@@ -6604,16 +6871,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>26461</v>
+        <v>21695</v>
       </c>
       <c r="B279" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C279" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
@@ -6621,16 +6888,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>26660</v>
+        <v>21724</v>
       </c>
       <c r="B280" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C280" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>459</v>
+        <v>16</v>
       </c>
       <c r="E280" t="n">
         <v>1</v>
@@ -6638,16 +6905,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>26681</v>
+        <v>21792</v>
       </c>
       <c r="B281" t="s">
         <v>460</v>
       </c>
       <c r="C281" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="E281" t="n">
         <v>1</v>
@@ -6655,16 +6922,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>26690</v>
+        <v>21793</v>
       </c>
       <c r="B282" t="s">
+        <v>462</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
         <v>461</v>
-      </c>
-      <c r="C282" t="s">
-        <v>458</v>
-      </c>
-      <c r="D282" t="s">
-        <v>16</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6672,16 +6939,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>26842</v>
+        <v>21823</v>
       </c>
       <c r="B283" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C283" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>463</v>
+        <v>16</v>
       </c>
       <c r="E283" t="n">
         <v>1</v>
@@ -6689,13 +6956,13 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>26923</v>
+        <v>21846</v>
       </c>
       <c r="B284" t="s">
         <v>464</v>
       </c>
       <c r="C284" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="D284" t="s">
         <v>465</v>
@@ -6706,16 +6973,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27230</v>
+        <v>21991</v>
       </c>
       <c r="B285" t="s">
         <v>466</v>
       </c>
       <c r="C285" t="s">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D285" t="s">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
@@ -6723,16 +6990,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27390</v>
+        <v>22078</v>
       </c>
       <c r="B286" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E286" t="n">
         <v>1</v>
@@ -6740,16 +7007,16 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>27725</v>
+        <v>22162</v>
       </c>
       <c r="B287" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C287" t="s">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D287" t="s">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -6757,16 +7024,16 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>27739</v>
+        <v>22255</v>
       </c>
       <c r="B288" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C288" t="s">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="E288" t="n">
         <v>1</v>
@@ -6774,16 +7041,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>27782</v>
+        <v>22323</v>
       </c>
       <c r="B289" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>471</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -6791,16 +7058,16 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>27792</v>
+        <v>22328</v>
       </c>
       <c r="B290" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C290" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -6808,16 +7075,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>27798</v>
+        <v>22591</v>
       </c>
       <c r="B291" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E291" t="n">
         <v>1</v>
@@ -6825,16 +7092,16 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>27972</v>
+        <v>22969</v>
       </c>
       <c r="B292" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C292" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -6842,16 +7109,16 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28005</v>
+        <v>23063</v>
       </c>
       <c r="B293" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C293" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D293" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
@@ -6859,16 +7126,16 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28048</v>
+        <v>23271</v>
       </c>
       <c r="B294" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C294" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
@@ -6876,16 +7143,16 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28111</v>
+        <v>23510</v>
       </c>
       <c r="B295" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C295" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D295" t="s">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="E295" t="n">
         <v>1</v>
@@ -6893,16 +7160,16 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28271</v>
+        <v>23601</v>
       </c>
       <c r="B296" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
@@ -6910,16 +7177,16 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>28280</v>
+        <v>23611</v>
       </c>
       <c r="B297" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C297" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>487</v>
+        <v>16</v>
       </c>
       <c r="E297" t="n">
         <v>1</v>
@@ -6927,16 +7194,16 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>28281</v>
+        <v>23688</v>
       </c>
       <c r="B298" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C298" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D298" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E298" t="n">
         <v>1</v>
@@ -6944,13 +7211,13 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>28282</v>
+        <v>23709</v>
       </c>
       <c r="B299" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C299" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D299" t="s">
         <v>487</v>
@@ -6961,16 +7228,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>28300</v>
+        <v>23809</v>
       </c>
       <c r="B300" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C300" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D300" t="s">
-        <v>491</v>
+        <v>16</v>
       </c>
       <c r="E300" t="n">
         <v>1</v>
@@ -6978,16 +7245,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>28376</v>
+        <v>24151</v>
       </c>
       <c r="B301" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C301" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
@@ -6995,16 +7262,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>28417</v>
+        <v>24161</v>
       </c>
       <c r="B302" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C302" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -7012,16 +7279,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>28520</v>
+        <v>24321</v>
       </c>
       <c r="B303" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C303" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
@@ -7029,13 +7296,13 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>28849</v>
+        <v>24364</v>
       </c>
       <c r="B304" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C304" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D304" t="s">
         <v>16</v>
@@ -7046,16 +7313,16 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>28866</v>
+        <v>24506</v>
       </c>
       <c r="B305" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C305" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D305" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E305" t="n">
         <v>1</v>
@@ -7063,16 +7330,16 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>28887</v>
+        <v>24904</v>
       </c>
       <c r="B306" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C306" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D306" t="s">
-        <v>501</v>
+        <v>16</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -7080,16 +7347,16 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>28905</v>
+        <v>24914</v>
       </c>
       <c r="B307" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C307" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D307" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E307" t="n">
         <v>1</v>
@@ -7097,16 +7364,16 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>28977</v>
+        <v>25135</v>
       </c>
       <c r="B308" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C308" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E308" t="n">
         <v>1</v>
@@ -7114,13 +7381,13 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>29200</v>
+        <v>25214</v>
       </c>
       <c r="B309" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C309" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D309" t="s">
         <v>16</v>
@@ -7131,16 +7398,16 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>29439</v>
+        <v>25218</v>
       </c>
       <c r="B310" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C310" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D310" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E310" t="n">
         <v>1</v>
@@ -7148,16 +7415,16 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>29825</v>
+        <v>25275</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="E311" t="n">
         <v>1</v>
@@ -7165,18 +7432,1038 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
+        <v>25300</v>
+      </c>
+      <c r="B312" t="s">
+        <v>507</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>25460</v>
+      </c>
+      <c r="B313" t="s">
+        <v>508</v>
+      </c>
+      <c r="C313" t="s">
+        <v>22</v>
+      </c>
+      <c r="D313" t="s">
+        <v>509</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>25521</v>
+      </c>
+      <c r="B314" t="s">
+        <v>510</v>
+      </c>
+      <c r="C314" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>25743</v>
+      </c>
+      <c r="B315" t="s">
+        <v>511</v>
+      </c>
+      <c r="C315" t="s">
+        <v>22</v>
+      </c>
+      <c r="D315" t="s">
+        <v>490</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>25818</v>
+      </c>
+      <c r="B316" t="s">
+        <v>512</v>
+      </c>
+      <c r="C316" t="s">
+        <v>22</v>
+      </c>
+      <c r="D316" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>25819</v>
+      </c>
+      <c r="B317" t="s">
+        <v>513</v>
+      </c>
+      <c r="C317" t="s">
+        <v>22</v>
+      </c>
+      <c r="D317" t="s">
+        <v>514</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>25897</v>
+      </c>
+      <c r="B318" t="s">
+        <v>515</v>
+      </c>
+      <c r="C318" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318" t="s">
+        <v>516</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>25904</v>
+      </c>
+      <c r="B319" t="s">
+        <v>517</v>
+      </c>
+      <c r="C319" t="s">
+        <v>22</v>
+      </c>
+      <c r="D319" t="s">
+        <v>518</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>25913</v>
+      </c>
+      <c r="B320" t="s">
+        <v>519</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320" t="s">
+        <v>520</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>25930</v>
+      </c>
+      <c r="B321" t="s">
+        <v>521</v>
+      </c>
+      <c r="C321" t="s">
+        <v>22</v>
+      </c>
+      <c r="D321" t="s">
+        <v>522</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>26233</v>
+      </c>
+      <c r="B322" t="s">
+        <v>523</v>
+      </c>
+      <c r="C322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>26313</v>
+      </c>
+      <c r="B323" t="s">
+        <v>524</v>
+      </c>
+      <c r="C323" t="s">
+        <v>90</v>
+      </c>
+      <c r="D323" t="s">
+        <v>16</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>26333</v>
+      </c>
+      <c r="B324" t="s">
+        <v>525</v>
+      </c>
+      <c r="C324" t="s">
+        <v>90</v>
+      </c>
+      <c r="D324" t="s">
+        <v>526</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>26447</v>
+      </c>
+      <c r="B325" t="s">
+        <v>527</v>
+      </c>
+      <c r="C325" t="s">
+        <v>90</v>
+      </c>
+      <c r="D325" t="s">
+        <v>528</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>26459</v>
+      </c>
+      <c r="B326" t="s">
+        <v>529</v>
+      </c>
+      <c r="C326" t="s">
+        <v>90</v>
+      </c>
+      <c r="D326" t="s">
+        <v>530</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>26460</v>
+      </c>
+      <c r="B327" t="s">
+        <v>531</v>
+      </c>
+      <c r="C327" t="s">
+        <v>90</v>
+      </c>
+      <c r="D327" t="s">
+        <v>16</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>26461</v>
+      </c>
+      <c r="B328" t="s">
+        <v>532</v>
+      </c>
+      <c r="C328" t="s">
+        <v>90</v>
+      </c>
+      <c r="D328" t="s">
+        <v>533</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>26464</v>
+      </c>
+      <c r="B329" t="s">
+        <v>534</v>
+      </c>
+      <c r="C329" t="s">
+        <v>90</v>
+      </c>
+      <c r="D329" t="s">
+        <v>16</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>26660</v>
+      </c>
+      <c r="B330" t="s">
+        <v>535</v>
+      </c>
+      <c r="C330" t="s">
+        <v>536</v>
+      </c>
+      <c r="D330" t="s">
+        <v>537</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>26681</v>
+      </c>
+      <c r="B331" t="s">
+        <v>538</v>
+      </c>
+      <c r="C331" t="s">
+        <v>536</v>
+      </c>
+      <c r="D331" t="s">
+        <v>16</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>26690</v>
+      </c>
+      <c r="B332" t="s">
+        <v>539</v>
+      </c>
+      <c r="C332" t="s">
+        <v>536</v>
+      </c>
+      <c r="D332" t="s">
+        <v>16</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>26822</v>
+      </c>
+      <c r="B333" t="s">
+        <v>540</v>
+      </c>
+      <c r="C333" t="s">
+        <v>536</v>
+      </c>
+      <c r="D333" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>26842</v>
+      </c>
+      <c r="B334" t="s">
+        <v>541</v>
+      </c>
+      <c r="C334" t="s">
+        <v>536</v>
+      </c>
+      <c r="D334" t="s">
+        <v>542</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>26923</v>
+      </c>
+      <c r="B335" t="s">
+        <v>543</v>
+      </c>
+      <c r="C335" t="s">
+        <v>536</v>
+      </c>
+      <c r="D335" t="s">
+        <v>544</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>26951</v>
+      </c>
+      <c r="B336" t="s">
+        <v>545</v>
+      </c>
+      <c r="C336" t="s">
+        <v>536</v>
+      </c>
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>27041</v>
+      </c>
+      <c r="B337" t="s">
+        <v>546</v>
+      </c>
+      <c r="C337" t="s">
+        <v>536</v>
+      </c>
+      <c r="D337" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>27074</v>
+      </c>
+      <c r="B338" t="s">
+        <v>547</v>
+      </c>
+      <c r="C338" t="s">
+        <v>536</v>
+      </c>
+      <c r="D338" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>27230</v>
+      </c>
+      <c r="B339" t="s">
+        <v>548</v>
+      </c>
+      <c r="C339" t="s">
+        <v>549</v>
+      </c>
+      <c r="D339" t="s">
+        <v>550</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>27390</v>
+      </c>
+      <c r="B340" t="s">
+        <v>551</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" t="s">
+        <v>10</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B341" t="s">
+        <v>552</v>
+      </c>
+      <c r="C341" t="s">
+        <v>553</v>
+      </c>
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>27725</v>
+      </c>
+      <c r="B342" t="s">
+        <v>554</v>
+      </c>
+      <c r="C342" t="s">
+        <v>553</v>
+      </c>
+      <c r="D342" t="s">
+        <v>409</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>27739</v>
+      </c>
+      <c r="B343" t="s">
+        <v>555</v>
+      </c>
+      <c r="C343" t="s">
+        <v>553</v>
+      </c>
+      <c r="D343" t="s">
+        <v>556</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>27782</v>
+      </c>
+      <c r="B344" t="s">
+        <v>557</v>
+      </c>
+      <c r="C344" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" t="s">
+        <v>10</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>27792</v>
+      </c>
+      <c r="B345" t="s">
+        <v>558</v>
+      </c>
+      <c r="C345" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" t="s">
+        <v>490</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>27798</v>
+      </c>
+      <c r="B346" t="s">
+        <v>559</v>
+      </c>
+      <c r="C346" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" t="s">
+        <v>10</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>27972</v>
+      </c>
+      <c r="B347" t="s">
+        <v>560</v>
+      </c>
+      <c r="C347" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" t="s">
+        <v>561</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>28005</v>
+      </c>
+      <c r="B348" t="s">
+        <v>562</v>
+      </c>
+      <c r="C348" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" t="s">
+        <v>563</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>28048</v>
+      </c>
+      <c r="B349" t="s">
+        <v>564</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" t="s">
+        <v>565</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>28102</v>
+      </c>
+      <c r="B350" t="s">
+        <v>566</v>
+      </c>
+      <c r="C350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D350" t="s">
+        <v>567</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>28111</v>
+      </c>
+      <c r="B351" t="s">
+        <v>568</v>
+      </c>
+      <c r="C351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351" t="s">
+        <v>569</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>28271</v>
+      </c>
+      <c r="B352" t="s">
+        <v>570</v>
+      </c>
+      <c r="C352" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" t="s">
+        <v>409</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>28280</v>
+      </c>
+      <c r="B353" t="s">
+        <v>571</v>
+      </c>
+      <c r="C353" t="s">
+        <v>27</v>
+      </c>
+      <c r="D353" t="s">
+        <v>572</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>28281</v>
+      </c>
+      <c r="B354" t="s">
+        <v>573</v>
+      </c>
+      <c r="C354" t="s">
+        <v>27</v>
+      </c>
+      <c r="D354" t="s">
+        <v>572</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>28282</v>
+      </c>
+      <c r="B355" t="s">
+        <v>574</v>
+      </c>
+      <c r="C355" t="s">
+        <v>27</v>
+      </c>
+      <c r="D355" t="s">
+        <v>572</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>28376</v>
+      </c>
+      <c r="B356" t="s">
+        <v>575</v>
+      </c>
+      <c r="C356" t="s">
+        <v>27</v>
+      </c>
+      <c r="D356" t="s">
+        <v>576</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>28417</v>
+      </c>
+      <c r="B357" t="s">
+        <v>577</v>
+      </c>
+      <c r="C357" t="s">
+        <v>27</v>
+      </c>
+      <c r="D357" t="s">
+        <v>16</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>28520</v>
+      </c>
+      <c r="B358" t="s">
+        <v>578</v>
+      </c>
+      <c r="C358" t="s">
+        <v>27</v>
+      </c>
+      <c r="D358" t="s">
+        <v>579</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>28705</v>
+      </c>
+      <c r="B359" t="s">
+        <v>580</v>
+      </c>
+      <c r="C359" t="s">
+        <v>27</v>
+      </c>
+      <c r="D359" t="s">
+        <v>16</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>28744</v>
+      </c>
+      <c r="B360" t="s">
+        <v>581</v>
+      </c>
+      <c r="C360" t="s">
+        <v>27</v>
+      </c>
+      <c r="D360" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>28849</v>
+      </c>
+      <c r="B361" t="s">
+        <v>582</v>
+      </c>
+      <c r="C361" t="s">
+        <v>27</v>
+      </c>
+      <c r="D361" t="s">
+        <v>16</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>28866</v>
+      </c>
+      <c r="B362" t="s">
+        <v>583</v>
+      </c>
+      <c r="C362" t="s">
+        <v>27</v>
+      </c>
+      <c r="D362" t="s">
+        <v>584</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>28887</v>
+      </c>
+      <c r="B363" t="s">
+        <v>585</v>
+      </c>
+      <c r="C363" t="s">
+        <v>27</v>
+      </c>
+      <c r="D363" t="s">
+        <v>586</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>28905</v>
+      </c>
+      <c r="B364" t="s">
+        <v>587</v>
+      </c>
+      <c r="C364" t="s">
+        <v>27</v>
+      </c>
+      <c r="D364" t="s">
+        <v>588</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>28957</v>
+      </c>
+      <c r="B365" t="s">
+        <v>589</v>
+      </c>
+      <c r="C365" t="s">
+        <v>27</v>
+      </c>
+      <c r="D365" t="s">
+        <v>16</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>28977</v>
+      </c>
+      <c r="B366" t="s">
+        <v>590</v>
+      </c>
+      <c r="C366" t="s">
+        <v>27</v>
+      </c>
+      <c r="D366" t="s">
+        <v>591</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>28985</v>
+      </c>
+      <c r="B367" t="s">
+        <v>592</v>
+      </c>
+      <c r="C367" t="s">
+        <v>27</v>
+      </c>
+      <c r="D367" t="s">
+        <v>593</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>29200</v>
+      </c>
+      <c r="B368" t="s">
+        <v>594</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" t="s">
+        <v>16</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>29439</v>
+      </c>
+      <c r="B369" t="s">
+        <v>595</v>
+      </c>
+      <c r="C369" t="s">
+        <v>27</v>
+      </c>
+      <c r="D369" t="s">
+        <v>596</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>29545</v>
+      </c>
+      <c r="B370" t="s">
+        <v>597</v>
+      </c>
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" t="s">
+        <v>10</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>29825</v>
+      </c>
+      <c r="B371" t="s">
+        <v>598</v>
+      </c>
+      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" t="s">
+        <v>10</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
         <v>29836</v>
       </c>
-      <c r="B312" t="s">
-        <v>510</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="B372" t="s">
+        <v>599</v>
+      </c>
+      <c r="C372" t="s">
         <v>9</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D372" t="s">
         <v>10</v>
       </c>
-      <c r="E312" t="n">
+      <c r="E372" t="n">
         <v>1</v>
       </c>
     </row>

--- a/summaries/highQualGenomes/variantSummary.xlsx
+++ b/summaries/highQualGenomes/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -122,18 +122,30 @@
     <t xml:space="preserve">N2523T</t>
   </si>
   <si>
+    <t xml:space="preserve">C10741T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24076C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29266A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1578C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V438A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T29710C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10319T</t>
   </si>
   <si>
     <t xml:space="preserve">L3352F</t>
   </si>
   <si>
-    <t xml:space="preserve">C10741T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T24076C</t>
-  </si>
-  <si>
     <t xml:space="preserve">G25907T</t>
   </si>
   <si>
@@ -146,12 +158,6 @@
     <t xml:space="preserve">S24L</t>
   </si>
   <si>
-    <t xml:space="preserve">T1578C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V438A</t>
-  </si>
-  <si>
     <t xml:space="preserve">A18424G</t>
   </si>
   <si>
@@ -164,9 +170,6 @@
     <t xml:space="preserve">P67S</t>
   </si>
   <si>
-    <t xml:space="preserve">G29266A</t>
-  </si>
-  <si>
     <t xml:space="preserve">C21304T</t>
   </si>
   <si>
@@ -179,21 +182,33 @@
     <t xml:space="preserve">P199L</t>
   </si>
   <si>
-    <t xml:space="preserve">T29710C</t>
-  </si>
-  <si>
     <t xml:space="preserve">G18255T</t>
   </si>
   <si>
     <t xml:space="preserve">M1596I</t>
   </si>
   <si>
+    <t xml:space="preserve">C18877T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28881A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28882A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28883C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G204R</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16260T</t>
   </si>
   <si>
-    <t xml:space="preserve">C18877T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G21986A</t>
   </si>
   <si>
@@ -206,21 +221,6 @@
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">G28881A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28882A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28883C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G204R</t>
-  </si>
-  <si>
     <t xml:space="preserve">T2698C</t>
   </si>
   <si>
@@ -263,6 +263,12 @@
     <t xml:space="preserve">G29540A</t>
   </si>
   <si>
+    <t xml:space="preserve">C936T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T224I</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1918C</t>
   </si>
   <si>
@@ -287,10 +293,16 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">C936T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T224I</t>
+    <t xml:space="preserve">A2342G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I693V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3259T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q998H</t>
   </si>
   <si>
     <t xml:space="preserve">C4113T</t>
@@ -305,18 +317,51 @@
     <t xml:space="preserve">M2374T</t>
   </si>
   <si>
+    <t xml:space="preserve">G8083A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2606I</t>
+  </si>
+  <si>
     <t xml:space="preserve">G11083T</t>
   </si>
   <si>
     <t xml:space="preserve">L3606F</t>
   </si>
   <si>
+    <t xml:space="preserve">C11591T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3776F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14805T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G17122T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1219S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18348T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A23994C</t>
   </si>
   <si>
     <t xml:space="preserve">K811T</t>
   </si>
   <si>
+    <t xml:space="preserve">A26069G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E226G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28677T</t>
   </si>
   <si>
@@ -341,24 +386,12 @@
     <t xml:space="preserve">S412Y</t>
   </si>
   <si>
-    <t xml:space="preserve">A2342G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I693V</t>
-  </si>
-  <si>
     <t xml:space="preserve">A3090G</t>
   </si>
   <si>
     <t xml:space="preserve">E942G</t>
   </si>
   <si>
-    <t xml:space="preserve">G3259T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q998H</t>
-  </si>
-  <si>
     <t xml:space="preserve">A5011C</t>
   </si>
   <si>
@@ -371,18 +404,6 @@
     <t xml:space="preserve">T7168C</t>
   </si>
   <si>
-    <t xml:space="preserve">G8083A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2606I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11591T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3776F</t>
-  </si>
-  <si>
     <t xml:space="preserve">C12525T</t>
   </si>
   <si>
@@ -395,27 +416,15 @@
     <t xml:space="preserve">P12S</t>
   </si>
   <si>
-    <t xml:space="preserve">C14805T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C17010T</t>
   </si>
   <si>
-    <t xml:space="preserve">G17122T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1219S</t>
-  </si>
-  <si>
     <t xml:space="preserve">G18028T</t>
   </si>
   <si>
     <t xml:space="preserve">A1521S</t>
   </si>
   <si>
-    <t xml:space="preserve">C18348T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G19180T</t>
   </si>
   <si>
@@ -425,6 +434,12 @@
     <t xml:space="preserve">C20371T</t>
   </si>
   <si>
+    <t xml:space="preserve">G21974C, G21974T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D138H, D138Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">G24095T</t>
   </si>
   <si>
@@ -437,18 +452,9 @@
     <t xml:space="preserve">A879S</t>
   </si>
   <si>
-    <t xml:space="preserve">A26069G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E226G</t>
-  </si>
-  <si>
     <t xml:space="preserve">C27920T</t>
   </si>
   <si>
-    <t xml:space="preserve">C27923T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28109T</t>
   </si>
   <si>
@@ -464,6 +470,18 @@
     <t xml:space="preserve">T29344C</t>
   </si>
   <si>
+    <t xml:space="preserve">G29747T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1408A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2155T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W630C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2485T</t>
   </si>
   <si>
@@ -476,6 +494,21 @@
     <t xml:space="preserve">C6388T</t>
   </si>
   <si>
+    <t xml:space="preserve">C7764T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2500F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11102T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3613S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12073T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12513T</t>
   </si>
   <si>
@@ -494,6 +527,18 @@
     <t xml:space="preserve">E1728V</t>
   </si>
   <si>
+    <t xml:space="preserve">T19584C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T19839C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23987T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P809S</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28300T</t>
   </si>
   <si>
@@ -515,12 +560,12 @@
     <t xml:space="preserve">orf10</t>
   </si>
   <si>
-    <t xml:space="preserve">G29747T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C157T</t>
   </si>
   <si>
+    <t xml:space="preserve">C527T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A2219G</t>
   </si>
   <si>
@@ -542,12 +587,33 @@
     <t xml:space="preserve">C2416T</t>
   </si>
   <si>
+    <t xml:space="preserve">G2516T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V751L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3510T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1082V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4636G</t>
+  </si>
+  <si>
     <t xml:space="preserve">A5570G</t>
   </si>
   <si>
     <t xml:space="preserve">M1769V</t>
   </si>
   <si>
+    <t xml:space="preserve">A5999G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1912V</t>
+  </si>
+  <si>
     <t xml:space="preserve">A6441G</t>
   </si>
   <si>
@@ -563,6 +629,36 @@
     <t xml:space="preserve">T2859I</t>
   </si>
   <si>
+    <t xml:space="preserve">A10323G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3353R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10798T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10874G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N3537D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11866T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12741T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4159I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12986G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4241V</t>
+  </si>
+  <si>
     <t xml:space="preserve">G13975T</t>
   </si>
   <si>
@@ -575,6 +671,9 @@
     <t xml:space="preserve">G16647T</t>
   </si>
   <si>
+    <t xml:space="preserve">G16917T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17336T</t>
   </si>
   <si>
@@ -593,18 +692,27 @@
     <t xml:space="preserve">P1682L</t>
   </si>
   <si>
+    <t xml:space="preserve">C18693T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G19086T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1873N</t>
+  </si>
+  <si>
     <t xml:space="preserve">C19524T</t>
   </si>
   <si>
-    <t xml:space="preserve">T19839C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C19862T</t>
   </si>
   <si>
     <t xml:space="preserve">A2132V</t>
   </si>
   <si>
+    <t xml:space="preserve">C19875T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21145T</t>
   </si>
   <si>
@@ -617,12 +725,6 @@
     <t xml:space="preserve">del 6</t>
   </si>
   <si>
-    <t xml:space="preserve">G21974C, G21974T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D138H, D138Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">G22317A</t>
   </si>
   <si>
@@ -632,10 +734,7 @@
     <t xml:space="preserve">T23905C</t>
   </si>
   <si>
-    <t xml:space="preserve">C23987T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P809S</t>
+    <t xml:space="preserve">T24094A</t>
   </si>
   <si>
     <t xml:space="preserve">G24368T</t>
@@ -644,18 +743,63 @@
     <t xml:space="preserve">D936Y</t>
   </si>
   <si>
+    <t xml:space="preserve">C24378T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S939F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T25577C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I62T</t>
+  </si>
+  <si>
     <t xml:space="preserve">TGTTA26158delGTTA</t>
   </si>
   <si>
     <t xml:space="preserve">del 4</t>
   </si>
   <si>
+    <t xml:space="preserve">G26951T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G27074T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27707T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A105V</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28068T</t>
   </si>
   <si>
     <t xml:space="preserve">E59*</t>
   </si>
   <si>
+    <t xml:space="preserve">TAAAA28271delA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28975T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M234I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29200T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A79G</t>
   </si>
   <si>
@@ -713,12 +857,24 @@
     <t xml:space="preserve">I453T</t>
   </si>
   <si>
+    <t xml:space="preserve">C1722T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A486V</t>
+  </si>
+  <si>
     <t xml:space="preserve">G1736A</t>
   </si>
   <si>
     <t xml:space="preserve">V491M</t>
   </si>
   <si>
+    <t xml:space="preserve">C1758T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A498V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1884T</t>
   </si>
   <si>
@@ -731,6 +887,9 @@
     <t xml:space="preserve">T1927C</t>
   </si>
   <si>
+    <t xml:space="preserve">T2014C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2040T</t>
   </si>
   <si>
@@ -803,6 +962,24 @@
     <t xml:space="preserve">L1016P</t>
   </si>
   <si>
+    <t xml:space="preserve">G3323T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1020F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3418T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1051N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3527A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1088N</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3702T</t>
   </si>
   <si>
@@ -848,6 +1025,12 @@
     <t xml:space="preserve">M1312I</t>
   </si>
   <si>
+    <t xml:space="preserve">C4404T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1380V</t>
+  </si>
+  <si>
     <t xml:space="preserve">G4504T</t>
   </si>
   <si>
@@ -866,6 +1049,12 @@
     <t xml:space="preserve">T1567A</t>
   </si>
   <si>
+    <t xml:space="preserve">G5015A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1584M</t>
+  </si>
+  <si>
     <t xml:space="preserve">A5094G</t>
   </si>
   <si>
@@ -893,6 +1082,12 @@
     <t xml:space="preserve">E1826A</t>
   </si>
   <si>
+    <t xml:space="preserve">A5877G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1871S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C5907T</t>
   </si>
   <si>
@@ -947,6 +1142,12 @@
     <t xml:space="preserve">T6754C</t>
   </si>
   <si>
+    <t xml:space="preserve">A6912G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2216S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6926T</t>
   </si>
   <si>
@@ -974,12 +1175,21 @@
     <t xml:space="preserve">G7393T</t>
   </si>
   <si>
+    <t xml:space="preserve">T7685G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2474A</t>
+  </si>
+  <si>
     <t xml:space="preserve">A7710C</t>
   </si>
   <si>
     <t xml:space="preserve">N2482T</t>
   </si>
   <si>
+    <t xml:space="preserve">C7735T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G7798T</t>
   </si>
   <si>
@@ -998,6 +1208,9 @@
     <t xml:space="preserve">G7975A</t>
   </si>
   <si>
+    <t xml:space="preserve">G8017T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C8047T</t>
   </si>
   <si>
@@ -1058,27 +1271,24 @@
     <t xml:space="preserve">C10165T</t>
   </si>
   <si>
+    <t xml:space="preserve">C10448T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3395S</t>
+  </si>
+  <si>
     <t xml:space="preserve">T10665C</t>
   </si>
   <si>
     <t xml:space="preserve">V3467A</t>
   </si>
   <si>
-    <t xml:space="preserve">A10874G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N3537D</t>
+    <t xml:space="preserve">C11008T</t>
   </si>
   <si>
     <t xml:space="preserve">C11095T</t>
   </si>
   <si>
-    <t xml:space="preserve">C11102T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3613S</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
   </si>
   <si>
@@ -1091,6 +1301,9 @@
     <t xml:space="preserve">C11518T</t>
   </si>
   <si>
+    <t xml:space="preserve">C11747T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A11782G</t>
   </si>
   <si>
@@ -1106,12 +1319,6 @@
     <t xml:space="preserve">Q3966R</t>
   </si>
   <si>
-    <t xml:space="preserve">C12741T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4159I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C12784T</t>
   </si>
   <si>
@@ -1160,6 +1367,9 @@
     <t xml:space="preserve">C14097T</t>
   </si>
   <si>
+    <t xml:space="preserve">C14340T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A14648G</t>
   </si>
   <si>
@@ -1238,12 +1448,12 @@
     <t xml:space="preserve">G977S</t>
   </si>
   <si>
+    <t xml:space="preserve">A16569G</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATTT16669delT</t>
   </si>
   <si>
-    <t xml:space="preserve">del 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16887T</t>
   </si>
   <si>
@@ -1268,6 +1478,12 @@
     <t xml:space="preserve">A1326T</t>
   </si>
   <si>
+    <t xml:space="preserve">G17551A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1362R</t>
+  </si>
+  <si>
     <t xml:space="preserve">A17615G</t>
   </si>
   <si>
@@ -1307,6 +1523,9 @@
     <t xml:space="preserve">C18486T</t>
   </si>
   <si>
+    <t xml:space="preserve">C18501T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G18538T</t>
   </si>
   <si>
@@ -1337,6 +1556,21 @@
     <t xml:space="preserve">A1831S</t>
   </si>
   <si>
+    <t xml:space="preserve">A19167G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19274A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1936H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20081T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2205F</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20178T</t>
   </si>
   <si>
@@ -1346,9 +1580,18 @@
     <t xml:space="preserve">E2271G</t>
   </si>
   <si>
+    <t xml:space="preserve">C20283T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G20580T</t>
   </si>
   <si>
+    <t xml:space="preserve">A20860G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2465V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20987T</t>
   </si>
   <si>
@@ -1361,6 +1604,18 @@
     <t xml:space="preserve">G2510C</t>
   </si>
   <si>
+    <t xml:space="preserve">C21077T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2537I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A21137G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2557R</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21191T</t>
   </si>
   <si>
@@ -1415,12 +1670,24 @@
     <t xml:space="preserve">TTTATTA21991delTTA</t>
   </si>
   <si>
+    <t xml:space="preserve">G22017T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W152L</t>
+  </si>
+  <si>
     <t xml:space="preserve">T22078G</t>
   </si>
   <si>
     <t xml:space="preserve">T22162C</t>
   </si>
   <si>
+    <t xml:space="preserve">C22227T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A222V</t>
+  </si>
+  <si>
     <t xml:space="preserve">A22255T</t>
   </si>
   <si>
@@ -1430,6 +1697,12 @@
     <t xml:space="preserve">S254F</t>
   </si>
   <si>
+    <t xml:space="preserve">C22326T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S255F</t>
+  </si>
+  <si>
     <t xml:space="preserve">T22328C</t>
   </si>
   <si>
@@ -1442,6 +1715,12 @@
     <t xml:space="preserve">A22969T</t>
   </si>
   <si>
+    <t xml:space="preserve">G23012A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E484K</t>
+  </si>
+  <si>
     <t xml:space="preserve">A23063T</t>
   </si>
   <si>
@@ -1481,6 +1760,12 @@
     <t xml:space="preserve">C23809T</t>
   </si>
   <si>
+    <t xml:space="preserve">G23868T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G769V</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTTT24151delTT</t>
   </si>
   <si>
@@ -1547,6 +1832,12 @@
     <t xml:space="preserve">C25521T</t>
   </si>
   <si>
+    <t xml:space="preserve">C25714T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L108F</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTATA25743delTA</t>
   </si>
   <si>
@@ -1559,6 +1850,12 @@
     <t xml:space="preserve">A143T</t>
   </si>
   <si>
+    <t xml:space="preserve">G25855T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D155Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">A25897T</t>
   </si>
   <si>
@@ -1619,12 +1916,27 @@
     <t xml:space="preserve">C26464T</t>
   </si>
   <si>
+    <t xml:space="preserve">C26542T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T26604C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F28L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26622T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L34F</t>
+  </si>
+  <si>
     <t xml:space="preserve">G26660T</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">L46F</t>
   </si>
   <si>
@@ -1649,33 +1961,33 @@
     <t xml:space="preserve">L134Q</t>
   </si>
   <si>
-    <t xml:space="preserve">G26951T</t>
-  </si>
-  <si>
     <t xml:space="preserve">A27041G</t>
   </si>
   <si>
-    <t xml:space="preserve">G27074T</t>
+    <t xml:space="preserve">C27213T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf6</t>
   </si>
   <si>
     <t xml:space="preserve">C27230T</t>
   </si>
   <si>
-    <t xml:space="preserve">orf6</t>
-  </si>
-  <si>
     <t xml:space="preserve">T10I</t>
   </si>
   <si>
     <t xml:space="preserve">G27390T</t>
   </si>
   <si>
+    <t xml:space="preserve">C27434T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C27513T</t>
   </si>
   <si>
-    <t xml:space="preserve">orf7a</t>
-  </si>
-  <si>
     <t xml:space="preserve">AC27725delC</t>
   </si>
   <si>
@@ -1700,6 +2012,9 @@
     <t xml:space="preserve">Q27*</t>
   </si>
   <si>
+    <t xml:space="preserve">C27998T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28005T</t>
   </si>
   <si>
@@ -1724,9 +2039,6 @@
     <t xml:space="preserve">Y73C</t>
   </si>
   <si>
-    <t xml:space="preserve">TAAAA28271delA</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28280C</t>
   </si>
   <si>
@@ -1760,6 +2072,12 @@
     <t xml:space="preserve">C28744A</t>
   </si>
   <si>
+    <t xml:space="preserve">C28833T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S187L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28849T</t>
   </si>
   <si>
@@ -1796,16 +2114,22 @@
     <t xml:space="preserve">G238C</t>
   </si>
   <si>
-    <t xml:space="preserve">C29200T</t>
-  </si>
-  <si>
     <t xml:space="preserve">A29439T</t>
   </si>
   <si>
     <t xml:space="preserve">Q389L</t>
   </si>
   <si>
+    <t xml:space="preserve">G29527T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q418H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C29545T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC29769delC</t>
   </si>
   <si>
     <t xml:space="preserve">G29825T</t>
@@ -2174,7 +2498,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -2191,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -2208,7 +2532,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -2225,7 +2549,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -2242,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -2259,7 +2583,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -2276,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -2293,7 +2617,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2310,7 +2634,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -2327,7 +2651,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2344,7 +2668,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2361,7 +2685,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2378,7 +2702,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2395,12 +2719,12 @@
         <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10319</v>
+        <v>10741</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -2409,197 +2733,197 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10741</v>
+        <v>24076</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24076</v>
+        <v>29266</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25907</v>
+        <v>1578</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27964</v>
+        <v>29710</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1578</v>
+        <v>10319</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18424</v>
+        <v>25907</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28472</v>
+        <v>27964</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29266</v>
+        <v>18424</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21304</v>
+        <v>28472</v>
       </c>
       <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28869</v>
+        <v>21304</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29710</v>
+        <v>28869</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -2621,7 +2945,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16260</v>
+        <v>18877</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -2633,103 +2957,103 @@
         <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18877</v>
+        <v>28881</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21986</v>
+        <v>28882</v>
       </c>
       <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11916</v>
+        <v>28883</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28881</v>
+        <v>16260</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28882</v>
+        <v>21986</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28883</v>
+        <v>11916</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -2910,7 +3234,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1918</v>
+        <v>936</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
@@ -2919,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E46" t="n">
         <v>6</v>
@@ -2927,16 +3251,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21614</v>
+        <v>1918</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
@@ -2944,7 +3268,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21656</v>
+        <v>21614</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
@@ -2961,7 +3285,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23230</v>
+        <v>21656</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
@@ -2970,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E49" t="n">
         <v>6</v>
@@ -2978,13 +3302,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26472</v>
+        <v>23230</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -2995,24 +3319,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>936</v>
+        <v>26472</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4113</v>
+        <v>2342</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -3029,7 +3353,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7386</v>
+        <v>3259</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
@@ -3046,7 +3370,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11083</v>
+        <v>4113</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -3063,13 +3387,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>23994</v>
+        <v>7386</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>100</v>
@@ -3080,13 +3404,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28677</v>
+        <v>8083</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
         <v>102</v>
@@ -3097,13 +3421,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29445</v>
+        <v>11083</v>
       </c>
       <c r="B57" t="s">
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
         <v>104</v>
@@ -3114,7 +3438,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>692</v>
+        <v>11591</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
@@ -3126,12 +3450,12 @@
         <v>106</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1500</v>
+        <v>14805</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
@@ -3140,143 +3464,143 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2342</v>
+        <v>17122</v>
       </c>
       <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>110</v>
-      </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3090</v>
+        <v>18348</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3259</v>
+        <v>23994</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5011</v>
+        <v>26069</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5497</v>
+        <v>27923</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7168</v>
+        <v>28677</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8083</v>
+        <v>29445</v>
       </c>
       <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
         <v>119</v>
       </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
-      </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11591</v>
+        <v>692</v>
       </c>
       <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
-        <v>122</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -3284,16 +3608,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12525</v>
+        <v>1500</v>
       </c>
       <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
         <v>123</v>
-      </c>
-      <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>124</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -3301,16 +3625,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13501</v>
+        <v>3090</v>
       </c>
       <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
         <v>125</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>126</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -3318,16 +3642,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>14805</v>
+        <v>5011</v>
       </c>
       <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
         <v>127</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -3335,7 +3659,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17010</v>
+        <v>5497</v>
       </c>
       <c r="B71" t="s">
         <v>128</v>
@@ -3352,7 +3676,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>17122</v>
+        <v>7168</v>
       </c>
       <c r="B72" t="s">
         <v>129</v>
@@ -3361,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -3369,16 +3693,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>18028</v>
+        <v>12525</v>
       </c>
       <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
         <v>131</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>132</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -3386,16 +3710,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>18348</v>
+        <v>13501</v>
       </c>
       <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
         <v>133</v>
-      </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>16</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -3403,7 +3727,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>19180</v>
+        <v>17010</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
@@ -3412,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -3420,16 +3744,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20371</v>
+        <v>18028</v>
       </c>
       <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
         <v>136</v>
-      </c>
-      <c r="C76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" t="s">
-        <v>16</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -3437,13 +3761,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>24095</v>
+        <v>19180</v>
       </c>
       <c r="B77" t="s">
         <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
         <v>138</v>
@@ -3454,16 +3778,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24197</v>
+        <v>20371</v>
       </c>
       <c r="B78" t="s">
         <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -3471,16 +3795,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>26069</v>
+        <v>21974</v>
       </c>
       <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
         <v>141</v>
-      </c>
-      <c r="C79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" t="s">
-        <v>142</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -3488,16 +3812,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>27920</v>
+        <v>24095</v>
       </c>
       <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
         <v>143</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>16</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -3505,16 +3829,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>27923</v>
+        <v>24197</v>
       </c>
       <c r="B81" t="s">
         <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -3522,16 +3846,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>28109</v>
+        <v>27920</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -3539,13 +3863,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>28893</v>
+        <v>28109</v>
       </c>
       <c r="B83" t="s">
         <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
         <v>148</v>
@@ -3556,7 +3880,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>29344</v>
+        <v>28893</v>
       </c>
       <c r="B84" t="s">
         <v>149</v>
@@ -3565,7 +3889,7 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -3573,41 +3897,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2485</v>
+        <v>29344</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4002</v>
+        <v>29747</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6388</v>
+        <v>1408</v>
       </c>
       <c r="B87" t="s">
         <v>153</v>
@@ -3624,7 +3948,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>12513</v>
+        <v>2155</v>
       </c>
       <c r="B88" t="s">
         <v>154</v>
@@ -3641,7 +3965,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15857</v>
+        <v>2485</v>
       </c>
       <c r="B89" t="s">
         <v>156</v>
@@ -3650,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
@@ -3658,16 +3982,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>18650</v>
+        <v>4002</v>
       </c>
       <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
         <v>158</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>159</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -3675,16 +3999,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>28300</v>
+        <v>6388</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
@@ -3692,16 +4016,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>28609</v>
+        <v>7764</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -3709,16 +4033,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>29247</v>
+        <v>11102</v>
       </c>
       <c r="B93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
         <v>163</v>
-      </c>
-      <c r="C93" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" t="s">
-        <v>164</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -3726,13 +4050,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>29614</v>
+        <v>12073</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -3743,16 +4067,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>29747</v>
+        <v>12513</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -3760,24 +4084,24 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>157</v>
+        <v>15857</v>
       </c>
       <c r="B96" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
         <v>168</v>
       </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2219</v>
+        <v>18650</v>
       </c>
       <c r="B97" t="s">
         <v>169</v>
@@ -3789,12 +4113,12 @@
         <v>170</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2258</v>
+        <v>19584</v>
       </c>
       <c r="B98" t="s">
         <v>171</v>
@@ -3803,126 +4127,126 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2262</v>
+        <v>19839</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2416</v>
+        <v>23987</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5570</v>
+        <v>28300</v>
       </c>
       <c r="B101" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
         <v>176</v>
       </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" t="s">
-        <v>177</v>
-      </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6441</v>
+        <v>28609</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8140</v>
+        <v>29247</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8841</v>
+        <v>29614</v>
       </c>
       <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
         <v>181</v>
       </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>13975</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -3930,10 +4254,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>14988</v>
+        <v>527</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -3947,16 +4271,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>16647</v>
+        <v>2219</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="E107" t="n">
         <v>2</v>
@@ -3964,16 +4288,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17336</v>
+        <v>2258</v>
       </c>
       <c r="B108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
         <v>187</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>188</v>
       </c>
       <c r="E108" t="n">
         <v>2</v>
@@ -3981,16 +4305,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>17678</v>
+        <v>2262</v>
       </c>
       <c r="B109" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
         <v>189</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>190</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -3998,16 +4322,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>18512</v>
+        <v>2416</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="E110" t="n">
         <v>2</v>
@@ -4015,16 +4339,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>19524</v>
+        <v>2516</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="E111" t="n">
         <v>2</v>
@@ -4032,16 +4356,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>19839</v>
+        <v>3510</v>
       </c>
       <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
         <v>194</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>16</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -4049,7 +4373,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>19862</v>
+        <v>4636</v>
       </c>
       <c r="B113" t="s">
         <v>195</v>
@@ -4058,7 +4382,7 @@
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="E113" t="n">
         <v>2</v>
@@ -4066,16 +4390,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>21145</v>
+        <v>5570</v>
       </c>
       <c r="B114" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
         <v>197</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>198</v>
       </c>
       <c r="E114" t="n">
         <v>2</v>
@@ -4083,16 +4407,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>21765</v>
+        <v>5999</v>
       </c>
       <c r="B115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
         <v>199</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>200</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -4100,16 +4424,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>21974</v>
+        <v>6441</v>
       </c>
       <c r="B116" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
         <v>201</v>
-      </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" t="s">
-        <v>202</v>
       </c>
       <c r="E116" t="n">
         <v>2</v>
@@ -4117,16 +4441,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>22317</v>
+        <v>8140</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="E117" t="n">
         <v>2</v>
@@ -4134,16 +4458,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>23905</v>
+        <v>8841</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -4151,16 +4475,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>23987</v>
+        <v>10323</v>
       </c>
       <c r="B119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
         <v>206</v>
-      </c>
-      <c r="C119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>207</v>
       </c>
       <c r="E119" t="n">
         <v>2</v>
@@ -4168,16 +4492,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>24368</v>
+        <v>10798</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -4185,16 +4509,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>26158</v>
+        <v>10874</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -4202,16 +4526,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>28068</v>
+        <v>11866</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
@@ -4219,58 +4543,58 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>79</v>
+        <v>12741</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>186</v>
+        <v>12986</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>219</v>
+        <v>13975</v>
       </c>
       <c r="B125" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
         <v>216</v>
       </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>10</v>
-      </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>406</v>
+        <v>14988</v>
       </c>
       <c r="B126" t="s">
         <v>217</v>
@@ -4282,12 +4606,12 @@
         <v>16</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>625</v>
+        <v>16647</v>
       </c>
       <c r="B127" t="s">
         <v>218</v>
@@ -4296,66 +4620,66 @@
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>678</v>
+        <v>16917</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>832</v>
+        <v>17336</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>913</v>
+        <v>17678</v>
       </c>
       <c r="B130" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
         <v>223</v>
       </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>16</v>
-      </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1403</v>
+        <v>18512</v>
       </c>
       <c r="B131" t="s">
         <v>224</v>
@@ -4367,12 +4691,12 @@
         <v>225</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1416</v>
+        <v>18693</v>
       </c>
       <c r="B132" t="s">
         <v>226</v>
@@ -4381,32 +4705,32 @@
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1594</v>
+        <v>19086</v>
       </c>
       <c r="B133" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
         <v>228</v>
       </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>16</v>
-      </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1605</v>
+        <v>19524</v>
       </c>
       <c r="B134" t="s">
         <v>229</v>
@@ -4415,330 +4739,330 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1623</v>
+        <v>19862</v>
       </c>
       <c r="B135" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
         <v>231</v>
       </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>232</v>
-      </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1736</v>
+        <v>19875</v>
       </c>
       <c r="B136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1884</v>
+        <v>21145</v>
       </c>
       <c r="B137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1912</v>
+        <v>21765</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1927</v>
+        <v>22317</v>
       </c>
       <c r="B139" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
         <v>238</v>
       </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2040</v>
+        <v>23905</v>
       </c>
       <c r="B140" t="s">
         <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2071</v>
+        <v>24094</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2110</v>
+        <v>24368</v>
       </c>
       <c r="B142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
         <v>242</v>
       </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2113</v>
+        <v>24378</v>
       </c>
       <c r="B143" t="s">
         <v>243</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2334</v>
+        <v>25577</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2488</v>
+        <v>26158</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2508</v>
+        <v>26951</v>
       </c>
       <c r="B146" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="D146" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2644</v>
+        <v>27074</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="D147" t="s">
         <v>16</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2785</v>
+        <v>27707</v>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2788</v>
+        <v>28068</v>
       </c>
       <c r="B149" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2836</v>
+        <v>28271</v>
       </c>
       <c r="B150" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3140</v>
+        <v>28975</v>
       </c>
       <c r="B151" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3176</v>
+        <v>29200</v>
       </c>
       <c r="B152" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3267</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -4746,16 +5070,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3278</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -4763,16 +5087,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3312</v>
+        <v>219</v>
       </c>
       <c r="B155" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -4780,16 +5104,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3702</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -4797,16 +5121,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3714</v>
+        <v>625</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -4814,16 +5138,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3736</v>
+        <v>678</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -4831,10 +5155,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3766</v>
+        <v>832</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -4848,16 +5172,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3840</v>
+        <v>913</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -4865,16 +5189,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3960</v>
+        <v>1403</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -4882,16 +5206,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3991</v>
+        <v>1416</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -4899,10 +5223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4084</v>
+        <v>1594</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C163" t="s">
         <v>15</v>
@@ -4916,16 +5240,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4156</v>
+        <v>1605</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4933,16 +5257,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4201</v>
+        <v>1623</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -4950,16 +5274,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4504</v>
+        <v>1722</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -4967,16 +5291,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4540</v>
+        <v>1736</v>
       </c>
       <c r="B167" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -4984,16 +5308,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>4579</v>
+        <v>1758</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -5001,16 +5325,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4964</v>
+        <v>1884</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C169" t="s">
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -5018,16 +5342,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5094</v>
+        <v>1912</v>
       </c>
       <c r="B170" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -5035,16 +5359,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5388</v>
+        <v>1927</v>
       </c>
       <c r="B171" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -5052,10 +5376,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5500</v>
+        <v>2014</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -5069,16 +5393,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5730</v>
+        <v>2040</v>
       </c>
       <c r="B173" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -5086,16 +5410,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5742</v>
+        <v>2071</v>
       </c>
       <c r="B174" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -5103,16 +5427,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5907</v>
+        <v>2110</v>
       </c>
       <c r="B175" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -5120,10 +5444,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5956</v>
+        <v>2113</v>
       </c>
       <c r="B176" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C176" t="s">
         <v>15</v>
@@ -5137,16 +5461,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5986</v>
+        <v>2334</v>
       </c>
       <c r="B177" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -5154,10 +5478,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6040</v>
+        <v>2488</v>
       </c>
       <c r="B178" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -5171,16 +5495,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>6285</v>
+        <v>2508</v>
       </c>
       <c r="B179" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -5188,16 +5512,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6318</v>
+        <v>2644</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -5205,16 +5529,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6320</v>
+        <v>2785</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -5222,7 +5546,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6505</v>
+        <v>2788</v>
       </c>
       <c r="B182" t="s">
         <v>304</v>
@@ -5239,7 +5563,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6536</v>
+        <v>2836</v>
       </c>
       <c r="B183" t="s">
         <v>305</v>
@@ -5248,7 +5572,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -5256,16 +5580,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>6543</v>
+        <v>3140</v>
       </c>
       <c r="B184" t="s">
+        <v>306</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
         <v>307</v>
-      </c>
-      <c r="C184" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184" t="s">
-        <v>308</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -5273,16 +5597,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6730</v>
+        <v>3176</v>
       </c>
       <c r="B185" t="s">
+        <v>308</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
         <v>309</v>
-      </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" t="s">
-        <v>16</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -5290,7 +5614,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>6754</v>
+        <v>3267</v>
       </c>
       <c r="B186" t="s">
         <v>310</v>
@@ -5299,7 +5623,7 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -5307,16 +5631,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>6926</v>
+        <v>3278</v>
       </c>
       <c r="B187" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -5324,16 +5648,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>6954</v>
+        <v>3312</v>
       </c>
       <c r="B188" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -5341,16 +5665,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>7056</v>
+        <v>3323</v>
       </c>
       <c r="B189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C189" t="s">
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -5358,16 +5682,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7253</v>
+        <v>3418</v>
       </c>
       <c r="B190" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C190" t="s">
         <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -5375,16 +5699,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>7393</v>
+        <v>3527</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -5392,16 +5716,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>7710</v>
+        <v>3702</v>
       </c>
       <c r="B192" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C192" t="s">
         <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -5409,16 +5733,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>7798</v>
+        <v>3714</v>
       </c>
       <c r="B193" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C193" t="s">
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -5426,10 +5750,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7834</v>
+        <v>3736</v>
       </c>
       <c r="B194" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C194" t="s">
         <v>15</v>
@@ -5443,16 +5767,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7869</v>
+        <v>3766</v>
       </c>
       <c r="B195" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C195" t="s">
         <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>326</v>
+        <v>16</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -5460,16 +5784,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7975</v>
+        <v>3840</v>
       </c>
       <c r="B196" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -5477,16 +5801,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8047</v>
+        <v>3960</v>
       </c>
       <c r="B197" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -5494,10 +5818,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8344</v>
+        <v>3991</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
@@ -5511,16 +5835,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8537</v>
+        <v>4084</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s">
         <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -5528,16 +5852,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8558</v>
+        <v>4156</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C200" t="s">
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5545,16 +5869,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8917</v>
+        <v>4201</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C201" t="s">
         <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -5562,16 +5886,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9204</v>
+        <v>4404</v>
       </c>
       <c r="B202" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C202" t="s">
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -5579,16 +5903,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9389</v>
+        <v>4504</v>
       </c>
       <c r="B203" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -5596,16 +5920,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>9585</v>
+        <v>4540</v>
       </c>
       <c r="B204" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -5613,16 +5937,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9615</v>
+        <v>4579</v>
       </c>
       <c r="B205" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -5630,7 +5954,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>9875</v>
+        <v>4964</v>
       </c>
       <c r="B206" t="s">
         <v>343</v>
@@ -5647,7 +5971,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>9996</v>
+        <v>5015</v>
       </c>
       <c r="B207" t="s">
         <v>345</v>
@@ -5664,7 +5988,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>10165</v>
+        <v>5094</v>
       </c>
       <c r="B208" t="s">
         <v>347</v>
@@ -5673,7 +5997,7 @@
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -5681,16 +6005,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>10665</v>
+        <v>5388</v>
       </c>
       <c r="B209" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -5698,16 +6022,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>10874</v>
+        <v>5500</v>
       </c>
       <c r="B210" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5715,7 +6039,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>11095</v>
+        <v>5730</v>
       </c>
       <c r="B211" t="s">
         <v>352</v>
@@ -5724,7 +6048,7 @@
         <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -5732,16 +6056,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>11102</v>
+        <v>5742</v>
       </c>
       <c r="B212" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5749,16 +6073,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>11288</v>
+        <v>5877</v>
       </c>
       <c r="B213" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -5766,16 +6090,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>11416</v>
+        <v>5907</v>
       </c>
       <c r="B214" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C214" t="s">
         <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -5783,10 +6107,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>11518</v>
+        <v>5956</v>
       </c>
       <c r="B215" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
@@ -5800,10 +6124,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>11782</v>
+        <v>5986</v>
       </c>
       <c r="B216" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C216" t="s">
         <v>15</v>
@@ -5817,10 +6141,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>12068</v>
+        <v>6040</v>
       </c>
       <c r="B217" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
@@ -5834,16 +6158,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>12112</v>
+        <v>6285</v>
       </c>
       <c r="B218" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5851,16 +6175,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>12162</v>
+        <v>6318</v>
       </c>
       <c r="B219" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -5868,16 +6192,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>12741</v>
+        <v>6320</v>
       </c>
       <c r="B220" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5885,10 +6209,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>12784</v>
+        <v>6505</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
@@ -5902,16 +6226,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>12786</v>
+        <v>6536</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -5919,16 +6243,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>12789</v>
+        <v>6543</v>
       </c>
       <c r="B223" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C223" t="s">
         <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -5936,10 +6260,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>12880</v>
+        <v>6730</v>
       </c>
       <c r="B224" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C224" t="s">
         <v>15</v>
@@ -5953,16 +6277,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>13274</v>
+        <v>6754</v>
       </c>
       <c r="B225" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C225" t="s">
         <v>15</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5970,16 +6294,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>13335</v>
+        <v>6912</v>
       </c>
       <c r="B226" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C226" t="s">
         <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -5987,16 +6311,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>13459</v>
+        <v>6926</v>
       </c>
       <c r="B227" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -6004,16 +6328,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>13536</v>
+        <v>6954</v>
       </c>
       <c r="B228" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C228" t="s">
         <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>381</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -6021,16 +6345,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>13620</v>
+        <v>7056</v>
       </c>
       <c r="B229" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C229" t="s">
         <v>15</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>383</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -6038,16 +6362,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>13694</v>
+        <v>7253</v>
       </c>
       <c r="B230" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C230" t="s">
         <v>15</v>
       </c>
       <c r="D230" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -6055,10 +6379,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>14097</v>
+        <v>7393</v>
       </c>
       <c r="B231" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C231" t="s">
         <v>15</v>
@@ -6072,16 +6396,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>14648</v>
+        <v>7685</v>
       </c>
       <c r="B232" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C232" t="s">
         <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -6089,16 +6413,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>14676</v>
+        <v>7710</v>
       </c>
       <c r="B233" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C233" t="s">
         <v>15</v>
       </c>
       <c r="D233" t="s">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -6106,10 +6430,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>14790</v>
+        <v>7735</v>
       </c>
       <c r="B234" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -6123,16 +6447,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>14817</v>
+        <v>7798</v>
       </c>
       <c r="B235" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -6140,10 +6464,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>15024</v>
+        <v>7834</v>
       </c>
       <c r="B236" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -6157,16 +6481,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>15100</v>
+        <v>7869</v>
       </c>
       <c r="B237" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
       </c>
       <c r="D237" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -6174,10 +6498,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>15279</v>
+        <v>7975</v>
       </c>
       <c r="B238" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
@@ -6191,16 +6515,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>15326</v>
+        <v>8017</v>
       </c>
       <c r="B239" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>392</v>
+        <v>16</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -6208,16 +6532,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>15327</v>
+        <v>8047</v>
       </c>
       <c r="B240" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>394</v>
+        <v>16</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -6225,10 +6549,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>15450</v>
+        <v>8344</v>
       </c>
       <c r="B241" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
@@ -6242,16 +6566,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>15677</v>
+        <v>8537</v>
       </c>
       <c r="B242" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -6259,16 +6583,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>15766</v>
+        <v>8558</v>
       </c>
       <c r="B243" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E243" t="n">
         <v>1</v>
@@ -6276,10 +6600,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>15960</v>
+        <v>8917</v>
       </c>
       <c r="B244" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
@@ -6293,16 +6617,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>16111</v>
+        <v>9204</v>
       </c>
       <c r="B245" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C245" t="s">
         <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
@@ -6310,16 +6634,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>16176</v>
+        <v>9389</v>
       </c>
       <c r="B246" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C246" t="s">
         <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>409</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -6327,16 +6651,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>16308</v>
+        <v>9585</v>
       </c>
       <c r="B247" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C247" t="s">
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -6344,16 +6668,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>16376</v>
+        <v>9615</v>
       </c>
       <c r="B248" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C248" t="s">
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -6361,16 +6685,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>16396</v>
+        <v>9875</v>
       </c>
       <c r="B249" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C249" t="s">
         <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -6378,16 +6702,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>16669</v>
+        <v>9996</v>
       </c>
       <c r="B250" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C250" t="s">
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -6395,10 +6719,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>16887</v>
+        <v>10165</v>
       </c>
       <c r="B251" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
@@ -6412,16 +6736,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>17104</v>
+        <v>10448</v>
       </c>
       <c r="B252" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E252" t="n">
         <v>1</v>
@@ -6429,16 +6753,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>17372</v>
+        <v>10665</v>
       </c>
       <c r="B253" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -6446,10 +6770,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>17436</v>
+        <v>11008</v>
       </c>
       <c r="B254" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -6463,16 +6787,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>17443</v>
+        <v>11095</v>
       </c>
       <c r="B255" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -6480,16 +6804,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>17615</v>
+        <v>11288</v>
       </c>
       <c r="B256" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
@@ -6497,16 +6821,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>17814</v>
+        <v>11416</v>
       </c>
       <c r="B257" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>421</v>
+        <v>16</v>
       </c>
       <c r="E257" t="n">
         <v>1</v>
@@ -6514,10 +6838,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>17889</v>
+        <v>11518</v>
       </c>
       <c r="B258" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
@@ -6531,16 +6855,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>18106</v>
+        <v>11747</v>
       </c>
       <c r="B259" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C259" t="s">
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="E259" t="n">
         <v>1</v>
@@ -6548,16 +6872,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>18131</v>
+        <v>11782</v>
       </c>
       <c r="B260" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
       </c>
       <c r="D260" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="E260" t="n">
         <v>1</v>
@@ -6565,10 +6889,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>18252</v>
+        <v>12068</v>
       </c>
       <c r="B261" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
@@ -6582,16 +6906,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>18404</v>
+        <v>12112</v>
       </c>
       <c r="B262" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C262" t="s">
         <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>429</v>
+        <v>16</v>
       </c>
       <c r="E262" t="n">
         <v>1</v>
@@ -6599,16 +6923,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>18486</v>
+        <v>12162</v>
       </c>
       <c r="B263" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="E263" t="n">
         <v>1</v>
@@ -6616,16 +6940,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>18538</v>
+        <v>12784</v>
       </c>
       <c r="B264" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C264" t="s">
         <v>15</v>
       </c>
       <c r="D264" t="s">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -6633,16 +6957,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>18583</v>
+        <v>12786</v>
       </c>
       <c r="B265" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C265" t="s">
         <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E265" t="n">
         <v>1</v>
@@ -6650,16 +6974,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>18803</v>
+        <v>12789</v>
       </c>
       <c r="B266" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C266" t="s">
         <v>15</v>
       </c>
       <c r="D266" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E266" t="n">
         <v>1</v>
@@ -6667,16 +6991,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>18898</v>
+        <v>12880</v>
       </c>
       <c r="B267" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C267" t="s">
         <v>15</v>
       </c>
       <c r="D267" t="s">
-        <v>438</v>
+        <v>16</v>
       </c>
       <c r="E267" t="n">
         <v>1</v>
@@ -6684,16 +7008,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>18958</v>
+        <v>13274</v>
       </c>
       <c r="B268" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C268" t="s">
         <v>15</v>
       </c>
       <c r="D268" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -6701,16 +7025,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>20178</v>
+        <v>13335</v>
       </c>
       <c r="B269" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C269" t="s">
         <v>15</v>
       </c>
       <c r="D269" t="s">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -6718,16 +7042,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>20279</v>
+        <v>13459</v>
       </c>
       <c r="B270" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C270" t="s">
         <v>15</v>
       </c>
       <c r="D270" t="s">
-        <v>443</v>
+        <v>16</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -6735,10 +7059,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>20580</v>
+        <v>13536</v>
       </c>
       <c r="B271" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C271" t="s">
         <v>15</v>
@@ -6752,16 +7076,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>20987</v>
+        <v>13620</v>
       </c>
       <c r="B272" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C272" t="s">
         <v>15</v>
       </c>
       <c r="D272" t="s">
-        <v>446</v>
+        <v>16</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
@@ -6769,16 +7093,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>20995</v>
+        <v>13694</v>
       </c>
       <c r="B273" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C273" t="s">
         <v>15</v>
       </c>
       <c r="D273" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6786,16 +7110,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>21191</v>
+        <v>14097</v>
       </c>
       <c r="B274" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C274" t="s">
         <v>15</v>
       </c>
       <c r="D274" t="s">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -6803,7 +7127,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>21216</v>
+        <v>14340</v>
       </c>
       <c r="B275" t="s">
         <v>451</v>
@@ -6820,7 +7144,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>21305</v>
+        <v>14648</v>
       </c>
       <c r="B276" t="s">
         <v>452</v>
@@ -6837,7 +7161,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>21526</v>
+        <v>14676</v>
       </c>
       <c r="B277" t="s">
         <v>454</v>
@@ -6846,7 +7170,7 @@
         <v>15</v>
       </c>
       <c r="D277" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -6854,13 +7178,13 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>21625</v>
+        <v>14790</v>
       </c>
       <c r="B278" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D278" t="s">
         <v>16</v>
@@ -6871,16 +7195,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>21695</v>
+        <v>14817</v>
       </c>
       <c r="B279" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D279" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
@@ -6888,13 +7212,13 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>21724</v>
+        <v>15024</v>
       </c>
       <c r="B280" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
@@ -6905,16 +7229,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>21792</v>
+        <v>15100</v>
       </c>
       <c r="B281" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D281" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E281" t="n">
         <v>1</v>
@@ -6922,16 +7246,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>21793</v>
+        <v>15279</v>
       </c>
       <c r="B282" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D282" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6939,16 +7263,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>21823</v>
+        <v>15326</v>
       </c>
       <c r="B283" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D283" t="s">
-        <v>16</v>
+        <v>462</v>
       </c>
       <c r="E283" t="n">
         <v>1</v>
@@ -6956,16 +7280,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>21846</v>
+        <v>15327</v>
       </c>
       <c r="B284" t="s">
+        <v>463</v>
+      </c>
+      <c r="C284" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" t="s">
         <v>464</v>
-      </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" t="s">
-        <v>465</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
@@ -6973,16 +7297,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>21991</v>
+        <v>15450</v>
       </c>
       <c r="B285" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D285" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
@@ -6990,16 +7314,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>22078</v>
+        <v>15677</v>
       </c>
       <c r="B286" t="s">
+        <v>466</v>
+      </c>
+      <c r="C286" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286" t="s">
         <v>467</v>
-      </c>
-      <c r="C286" t="s">
-        <v>6</v>
-      </c>
-      <c r="D286" t="s">
-        <v>16</v>
       </c>
       <c r="E286" t="n">
         <v>1</v>
@@ -7007,16 +7331,16 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>22162</v>
+        <v>15766</v>
       </c>
       <c r="B287" t="s">
         <v>468</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D287" t="s">
-        <v>16</v>
+        <v>469</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -7024,13 +7348,13 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>22255</v>
+        <v>15960</v>
       </c>
       <c r="B288" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D288" t="s">
         <v>16</v>
@@ -7041,16 +7365,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>22323</v>
+        <v>16111</v>
       </c>
       <c r="B289" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D289" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -7058,16 +7382,16 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>22328</v>
+        <v>16176</v>
       </c>
       <c r="B290" t="s">
         <v>472</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D290" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -7075,13 +7399,13 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>22591</v>
+        <v>16308</v>
       </c>
       <c r="B291" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D291" t="s">
         <v>16</v>
@@ -7092,16 +7416,16 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>22969</v>
+        <v>16376</v>
       </c>
       <c r="B292" t="s">
+        <v>474</v>
+      </c>
+      <c r="C292" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292" t="s">
         <v>475</v>
-      </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="s">
-        <v>16</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -7109,13 +7433,13 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>23063</v>
+        <v>16396</v>
       </c>
       <c r="B293" t="s">
         <v>476</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D293" t="s">
         <v>477</v>
@@ -7126,16 +7450,16 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>23271</v>
+        <v>16569</v>
       </c>
       <c r="B294" t="s">
         <v>478</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D294" t="s">
-        <v>479</v>
+        <v>16</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
@@ -7143,16 +7467,16 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>23510</v>
+        <v>16669</v>
       </c>
       <c r="B295" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D295" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="E295" t="n">
         <v>1</v>
@@ -7160,16 +7484,16 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>23601</v>
+        <v>16887</v>
       </c>
       <c r="B296" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D296" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
@@ -7177,16 +7501,16 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>23611</v>
+        <v>17104</v>
       </c>
       <c r="B297" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D297" t="s">
-        <v>16</v>
+        <v>482</v>
       </c>
       <c r="E297" t="n">
         <v>1</v>
@@ -7194,16 +7518,16 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>23688</v>
+        <v>17372</v>
       </c>
       <c r="B298" t="s">
+        <v>483</v>
+      </c>
+      <c r="C298" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298" t="s">
         <v>484</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" t="s">
-        <v>485</v>
       </c>
       <c r="E298" t="n">
         <v>1</v>
@@ -7211,16 +7535,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>23709</v>
+        <v>17436</v>
       </c>
       <c r="B299" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D299" t="s">
-        <v>487</v>
+        <v>16</v>
       </c>
       <c r="E299" t="n">
         <v>1</v>
@@ -7228,16 +7552,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>23809</v>
+        <v>17443</v>
       </c>
       <c r="B300" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D300" t="s">
-        <v>16</v>
+        <v>487</v>
       </c>
       <c r="E300" t="n">
         <v>1</v>
@@ -7245,16 +7569,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>24151</v>
+        <v>17551</v>
       </c>
       <c r="B301" t="s">
+        <v>488</v>
+      </c>
+      <c r="C301" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" t="s">
         <v>489</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" t="s">
-        <v>490</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
@@ -7262,16 +7586,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>24161</v>
+        <v>17615</v>
       </c>
       <c r="B302" t="s">
+        <v>490</v>
+      </c>
+      <c r="C302" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" t="s">
         <v>491</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" t="s">
-        <v>492</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -7279,16 +7603,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>24321</v>
+        <v>17814</v>
       </c>
       <c r="B303" t="s">
+        <v>492</v>
+      </c>
+      <c r="C303" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" t="s">
         <v>493</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303" t="s">
-        <v>409</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
@@ -7296,13 +7620,13 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>24364</v>
+        <v>17889</v>
       </c>
       <c r="B304" t="s">
         <v>494</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D304" t="s">
         <v>16</v>
@@ -7313,13 +7637,13 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>24506</v>
+        <v>18106</v>
       </c>
       <c r="B305" t="s">
         <v>495</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D305" t="s">
         <v>496</v>
@@ -7330,16 +7654,16 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>24904</v>
+        <v>18131</v>
       </c>
       <c r="B306" t="s">
         <v>497</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D306" t="s">
-        <v>16</v>
+        <v>498</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -7347,16 +7671,16 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>24914</v>
+        <v>18252</v>
       </c>
       <c r="B307" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D307" t="s">
-        <v>499</v>
+        <v>16</v>
       </c>
       <c r="E307" t="n">
         <v>1</v>
@@ -7364,13 +7688,13 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>25135</v>
+        <v>18404</v>
       </c>
       <c r="B308" t="s">
         <v>500</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D308" t="s">
         <v>501</v>
@@ -7381,13 +7705,13 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>25214</v>
+        <v>18486</v>
       </c>
       <c r="B309" t="s">
         <v>502</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D309" t="s">
         <v>16</v>
@@ -7398,16 +7722,16 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>25218</v>
+        <v>18501</v>
       </c>
       <c r="B310" t="s">
         <v>503</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D310" t="s">
-        <v>504</v>
+        <v>16</v>
       </c>
       <c r="E310" t="n">
         <v>1</v>
@@ -7415,16 +7739,16 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>25275</v>
+        <v>18538</v>
       </c>
       <c r="B311" t="s">
+        <v>504</v>
+      </c>
+      <c r="C311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" t="s">
         <v>505</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311" t="s">
-        <v>506</v>
       </c>
       <c r="E311" t="n">
         <v>1</v>
@@ -7432,16 +7756,16 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>25300</v>
+        <v>18583</v>
       </c>
       <c r="B312" t="s">
+        <v>506</v>
+      </c>
+      <c r="C312" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" t="s">
         <v>507</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" t="s">
-        <v>16</v>
       </c>
       <c r="E312" t="n">
         <v>1</v>
@@ -7449,13 +7773,13 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>25460</v>
+        <v>18803</v>
       </c>
       <c r="B313" t="s">
         <v>508</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D313" t="s">
         <v>509</v>
@@ -7466,16 +7790,16 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>25521</v>
+        <v>18898</v>
       </c>
       <c r="B314" t="s">
         <v>510</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D314" t="s">
-        <v>16</v>
+        <v>511</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
@@ -7483,16 +7807,16 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>25743</v>
+        <v>18958</v>
       </c>
       <c r="B315" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D315" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="E315" t="n">
         <v>1</v>
@@ -7500,13 +7824,13 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>25818</v>
+        <v>19167</v>
       </c>
       <c r="B316" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D316" t="s">
         <v>16</v>
@@ -7517,16 +7841,16 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>25819</v>
+        <v>19274</v>
       </c>
       <c r="B317" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D317" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E317" t="n">
         <v>1</v>
@@ -7534,16 +7858,16 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>25897</v>
+        <v>20081</v>
       </c>
       <c r="B318" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D318" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
@@ -7551,16 +7875,16 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>25904</v>
+        <v>20178</v>
       </c>
       <c r="B319" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D319" t="s">
-        <v>518</v>
+        <v>16</v>
       </c>
       <c r="E319" t="n">
         <v>1</v>
@@ -7568,16 +7892,16 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>25913</v>
+        <v>20279</v>
       </c>
       <c r="B320" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D320" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -7585,16 +7909,16 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>25930</v>
+        <v>20283</v>
       </c>
       <c r="B321" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D321" t="s">
-        <v>522</v>
+        <v>16</v>
       </c>
       <c r="E321" t="n">
         <v>1</v>
@@ -7602,16 +7926,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>26233</v>
+        <v>20580</v>
       </c>
       <c r="B322" t="s">
         <v>523</v>
       </c>
       <c r="C322" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E322" t="n">
         <v>1</v>
@@ -7619,16 +7943,16 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>26313</v>
+        <v>20860</v>
       </c>
       <c r="B323" t="s">
         <v>524</v>
       </c>
       <c r="C323" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D323" t="s">
-        <v>16</v>
+        <v>525</v>
       </c>
       <c r="E323" t="n">
         <v>1</v>
@@ -7636,16 +7960,16 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>26333</v>
+        <v>20987</v>
       </c>
       <c r="B324" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C324" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D324" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E324" t="n">
         <v>1</v>
@@ -7653,16 +7977,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>26447</v>
+        <v>20995</v>
       </c>
       <c r="B325" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C325" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D325" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E325" t="n">
         <v>1</v>
@@ -7670,16 +7994,16 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>26459</v>
+        <v>21077</v>
       </c>
       <c r="B326" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C326" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D326" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E326" t="n">
         <v>1</v>
@@ -7687,16 +8011,16 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>26460</v>
+        <v>21137</v>
       </c>
       <c r="B327" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C327" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D327" t="s">
-        <v>16</v>
+        <v>533</v>
       </c>
       <c r="E327" t="n">
         <v>1</v>
@@ -7704,16 +8028,16 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>26461</v>
+        <v>21191</v>
       </c>
       <c r="B328" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C328" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D328" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E328" t="n">
         <v>1</v>
@@ -7721,13 +8045,13 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>26464</v>
+        <v>21216</v>
       </c>
       <c r="B329" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C329" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D329" t="s">
         <v>16</v>
@@ -7738,16 +8062,16 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>26660</v>
+        <v>21305</v>
       </c>
       <c r="B330" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C330" t="s">
-        <v>536</v>
+        <v>15</v>
       </c>
       <c r="D330" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E330" t="n">
         <v>1</v>
@@ -7755,16 +8079,16 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>26681</v>
+        <v>21526</v>
       </c>
       <c r="B331" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C331" t="s">
-        <v>536</v>
+        <v>15</v>
       </c>
       <c r="D331" t="s">
-        <v>16</v>
+        <v>540</v>
       </c>
       <c r="E331" t="n">
         <v>1</v>
@@ -7772,13 +8096,13 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>26690</v>
+        <v>21625</v>
       </c>
       <c r="B332" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C332" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D332" t="s">
         <v>16</v>
@@ -7789,16 +8113,16 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>26822</v>
+        <v>21695</v>
       </c>
       <c r="B333" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C333" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="E333" t="n">
         <v>1</v>
@@ -7806,16 +8130,16 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>26842</v>
+        <v>21724</v>
       </c>
       <c r="B334" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C334" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D334" t="s">
-        <v>542</v>
+        <v>16</v>
       </c>
       <c r="E334" t="n">
         <v>1</v>
@@ -7823,16 +8147,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>26923</v>
+        <v>21792</v>
       </c>
       <c r="B335" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C335" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D335" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E335" t="n">
         <v>1</v>
@@ -7840,16 +8164,16 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>26951</v>
+        <v>21793</v>
       </c>
       <c r="B336" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C336" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D336" t="s">
-        <v>16</v>
+        <v>546</v>
       </c>
       <c r="E336" t="n">
         <v>1</v>
@@ -7857,13 +8181,13 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>27041</v>
+        <v>21823</v>
       </c>
       <c r="B337" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C337" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D337" t="s">
         <v>16</v>
@@ -7874,16 +8198,16 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>27074</v>
+        <v>21846</v>
       </c>
       <c r="B338" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C338" t="s">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D338" t="s">
-        <v>16</v>
+        <v>550</v>
       </c>
       <c r="E338" t="n">
         <v>1</v>
@@ -7891,16 +8215,16 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>27230</v>
+        <v>21991</v>
       </c>
       <c r="B339" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C339" t="s">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D339" t="s">
-        <v>550</v>
+        <v>278</v>
       </c>
       <c r="E339" t="n">
         <v>1</v>
@@ -7908,16 +8232,16 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>27390</v>
+        <v>22017</v>
       </c>
       <c r="B340" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C340" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>553</v>
       </c>
       <c r="E340" t="n">
         <v>1</v>
@@ -7925,13 +8249,13 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>27513</v>
+        <v>22078</v>
       </c>
       <c r="B341" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C341" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
       <c r="D341" t="s">
         <v>16</v>
@@ -7942,16 +8266,16 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>27725</v>
+        <v>22162</v>
       </c>
       <c r="B342" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C342" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
       <c r="D342" t="s">
-        <v>409</v>
+        <v>16</v>
       </c>
       <c r="E342" t="n">
         <v>1</v>
@@ -7959,16 +8283,16 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>27739</v>
+        <v>22227</v>
       </c>
       <c r="B343" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C343" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
       <c r="D343" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E343" t="n">
         <v>1</v>
@@ -7976,16 +8300,16 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>27782</v>
+        <v>22255</v>
       </c>
       <c r="B344" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C344" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D344" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E344" t="n">
         <v>1</v>
@@ -7993,16 +8317,16 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>27792</v>
+        <v>22323</v>
       </c>
       <c r="B345" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C345" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D345" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="E345" t="n">
         <v>1</v>
@@ -8010,16 +8334,16 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>27798</v>
+        <v>22326</v>
       </c>
       <c r="B346" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C346" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D346" t="s">
-        <v>10</v>
+        <v>562</v>
       </c>
       <c r="E346" t="n">
         <v>1</v>
@@ -8027,16 +8351,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>27972</v>
+        <v>22328</v>
       </c>
       <c r="B347" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C347" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D347" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E347" t="n">
         <v>1</v>
@@ -8044,16 +8368,16 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>28005</v>
+        <v>22591</v>
       </c>
       <c r="B348" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C348" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D348" t="s">
-        <v>563</v>
+        <v>16</v>
       </c>
       <c r="E348" t="n">
         <v>1</v>
@@ -8061,16 +8385,16 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>28048</v>
+        <v>22969</v>
       </c>
       <c r="B349" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C349" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D349" t="s">
-        <v>565</v>
+        <v>16</v>
       </c>
       <c r="E349" t="n">
         <v>1</v>
@@ -8078,16 +8402,16 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>28102</v>
+        <v>23012</v>
       </c>
       <c r="B350" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C350" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D350" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E350" t="n">
         <v>1</v>
@@ -8095,16 +8419,16 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>28111</v>
+        <v>23063</v>
       </c>
       <c r="B351" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C351" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D351" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E351" t="n">
         <v>1</v>
@@ -8112,16 +8436,16 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>28271</v>
+        <v>23271</v>
       </c>
       <c r="B352" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C352" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D352" t="s">
-        <v>409</v>
+        <v>572</v>
       </c>
       <c r="E352" t="n">
         <v>1</v>
@@ -8129,16 +8453,16 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>28280</v>
+        <v>23510</v>
       </c>
       <c r="B353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C353" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D353" t="s">
-        <v>572</v>
+        <v>16</v>
       </c>
       <c r="E353" t="n">
         <v>1</v>
@@ -8146,16 +8470,16 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>28281</v>
+        <v>23601</v>
       </c>
       <c r="B354" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C354" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D354" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E354" t="n">
         <v>1</v>
@@ -8163,16 +8487,16 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>28282</v>
+        <v>23611</v>
       </c>
       <c r="B355" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C355" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D355" t="s">
-        <v>572</v>
+        <v>16</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
@@ -8180,16 +8504,16 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>28376</v>
+        <v>23688</v>
       </c>
       <c r="B356" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C356" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D356" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E356" t="n">
         <v>1</v>
@@ -8197,16 +8521,16 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>28417</v>
+        <v>23709</v>
       </c>
       <c r="B357" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C357" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D357" t="s">
-        <v>16</v>
+        <v>580</v>
       </c>
       <c r="E357" t="n">
         <v>1</v>
@@ -8214,16 +8538,16 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>28520</v>
+        <v>23809</v>
       </c>
       <c r="B358" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C358" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D358" t="s">
-        <v>579</v>
+        <v>16</v>
       </c>
       <c r="E358" t="n">
         <v>1</v>
@@ -8231,16 +8555,16 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>28705</v>
+        <v>23868</v>
       </c>
       <c r="B359" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C359" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D359" t="s">
-        <v>16</v>
+        <v>583</v>
       </c>
       <c r="E359" t="n">
         <v>1</v>
@@ -8248,16 +8572,16 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>28744</v>
+        <v>24151</v>
       </c>
       <c r="B360" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C360" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D360" t="s">
-        <v>16</v>
+        <v>585</v>
       </c>
       <c r="E360" t="n">
         <v>1</v>
@@ -8265,16 +8589,16 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>28849</v>
+        <v>24161</v>
       </c>
       <c r="B361" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C361" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D361" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="E361" t="n">
         <v>1</v>
@@ -8282,16 +8606,16 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>28866</v>
+        <v>24321</v>
       </c>
       <c r="B362" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C362" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D362" t="s">
-        <v>584</v>
+        <v>258</v>
       </c>
       <c r="E362" t="n">
         <v>1</v>
@@ -8299,16 +8623,16 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>28887</v>
+        <v>24364</v>
       </c>
       <c r="B363" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C363" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D363" t="s">
-        <v>586</v>
+        <v>16</v>
       </c>
       <c r="E363" t="n">
         <v>1</v>
@@ -8316,16 +8640,16 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>28905</v>
+        <v>24506</v>
       </c>
       <c r="B364" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C364" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D364" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E364" t="n">
         <v>1</v>
@@ -8333,13 +8657,13 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>28957</v>
+        <v>24904</v>
       </c>
       <c r="B365" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C365" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D365" t="s">
         <v>16</v>
@@ -8350,16 +8674,16 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>28977</v>
+        <v>24914</v>
       </c>
       <c r="B366" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C366" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D366" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E366" t="n">
         <v>1</v>
@@ -8367,16 +8691,16 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>28985</v>
+        <v>25135</v>
       </c>
       <c r="B367" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C367" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D367" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E367" t="n">
         <v>1</v>
@@ -8384,13 +8708,13 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>29200</v>
+        <v>25214</v>
       </c>
       <c r="B368" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C368" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D368" t="s">
         <v>16</v>
@@ -8401,16 +8725,16 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>29439</v>
+        <v>25218</v>
       </c>
       <c r="B369" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C369" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E369" t="n">
         <v>1</v>
@@ -8418,16 +8742,16 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>29545</v>
+        <v>25275</v>
       </c>
       <c r="B370" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C370" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D370" t="s">
-        <v>10</v>
+        <v>601</v>
       </c>
       <c r="E370" t="n">
         <v>1</v>
@@ -8435,16 +8759,16 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>29825</v>
+        <v>25300</v>
       </c>
       <c r="B371" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C371" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D371" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E371" t="n">
         <v>1</v>
@@ -8452,18 +8776,1140 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
+        <v>25460</v>
+      </c>
+      <c r="B372" t="s">
+        <v>603</v>
+      </c>
+      <c r="C372" t="s">
+        <v>22</v>
+      </c>
+      <c r="D372" t="s">
+        <v>604</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>25521</v>
+      </c>
+      <c r="B373" t="s">
+        <v>605</v>
+      </c>
+      <c r="C373" t="s">
+        <v>22</v>
+      </c>
+      <c r="D373" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>25714</v>
+      </c>
+      <c r="B374" t="s">
+        <v>606</v>
+      </c>
+      <c r="C374" t="s">
+        <v>22</v>
+      </c>
+      <c r="D374" t="s">
+        <v>607</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>25743</v>
+      </c>
+      <c r="B375" t="s">
+        <v>608</v>
+      </c>
+      <c r="C375" t="s">
+        <v>22</v>
+      </c>
+      <c r="D375" t="s">
+        <v>585</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>25818</v>
+      </c>
+      <c r="B376" t="s">
+        <v>609</v>
+      </c>
+      <c r="C376" t="s">
+        <v>22</v>
+      </c>
+      <c r="D376" t="s">
+        <v>16</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>25819</v>
+      </c>
+      <c r="B377" t="s">
+        <v>610</v>
+      </c>
+      <c r="C377" t="s">
+        <v>22</v>
+      </c>
+      <c r="D377" t="s">
+        <v>611</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>25855</v>
+      </c>
+      <c r="B378" t="s">
+        <v>612</v>
+      </c>
+      <c r="C378" t="s">
+        <v>22</v>
+      </c>
+      <c r="D378" t="s">
+        <v>613</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>25897</v>
+      </c>
+      <c r="B379" t="s">
+        <v>614</v>
+      </c>
+      <c r="C379" t="s">
+        <v>22</v>
+      </c>
+      <c r="D379" t="s">
+        <v>615</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>25904</v>
+      </c>
+      <c r="B380" t="s">
+        <v>616</v>
+      </c>
+      <c r="C380" t="s">
+        <v>22</v>
+      </c>
+      <c r="D380" t="s">
+        <v>617</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>25913</v>
+      </c>
+      <c r="B381" t="s">
+        <v>618</v>
+      </c>
+      <c r="C381" t="s">
+        <v>22</v>
+      </c>
+      <c r="D381" t="s">
+        <v>619</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>25930</v>
+      </c>
+      <c r="B382" t="s">
+        <v>620</v>
+      </c>
+      <c r="C382" t="s">
+        <v>22</v>
+      </c>
+      <c r="D382" t="s">
+        <v>621</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>26233</v>
+      </c>
+      <c r="B383" t="s">
+        <v>622</v>
+      </c>
+      <c r="C383" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>26313</v>
+      </c>
+      <c r="B384" t="s">
+        <v>623</v>
+      </c>
+      <c r="C384" t="s">
+        <v>92</v>
+      </c>
+      <c r="D384" t="s">
+        <v>16</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>26333</v>
+      </c>
+      <c r="B385" t="s">
+        <v>624</v>
+      </c>
+      <c r="C385" t="s">
+        <v>92</v>
+      </c>
+      <c r="D385" t="s">
+        <v>625</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>26447</v>
+      </c>
+      <c r="B386" t="s">
+        <v>626</v>
+      </c>
+      <c r="C386" t="s">
+        <v>92</v>
+      </c>
+      <c r="D386" t="s">
+        <v>627</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>26459</v>
+      </c>
+      <c r="B387" t="s">
+        <v>628</v>
+      </c>
+      <c r="C387" t="s">
+        <v>92</v>
+      </c>
+      <c r="D387" t="s">
+        <v>629</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>26460</v>
+      </c>
+      <c r="B388" t="s">
+        <v>630</v>
+      </c>
+      <c r="C388" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" t="s">
+        <v>16</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>26461</v>
+      </c>
+      <c r="B389" t="s">
+        <v>631</v>
+      </c>
+      <c r="C389" t="s">
+        <v>92</v>
+      </c>
+      <c r="D389" t="s">
+        <v>632</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>26464</v>
+      </c>
+      <c r="B390" t="s">
+        <v>633</v>
+      </c>
+      <c r="C390" t="s">
+        <v>92</v>
+      </c>
+      <c r="D390" t="s">
+        <v>16</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>26542</v>
+      </c>
+      <c r="B391" t="s">
+        <v>634</v>
+      </c>
+      <c r="C391" t="s">
+        <v>250</v>
+      </c>
+      <c r="D391" t="s">
+        <v>635</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>26604</v>
+      </c>
+      <c r="B392" t="s">
+        <v>636</v>
+      </c>
+      <c r="C392" t="s">
+        <v>250</v>
+      </c>
+      <c r="D392" t="s">
+        <v>637</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>26622</v>
+      </c>
+      <c r="B393" t="s">
+        <v>638</v>
+      </c>
+      <c r="C393" t="s">
+        <v>250</v>
+      </c>
+      <c r="D393" t="s">
+        <v>639</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>26660</v>
+      </c>
+      <c r="B394" t="s">
+        <v>640</v>
+      </c>
+      <c r="C394" t="s">
+        <v>250</v>
+      </c>
+      <c r="D394" t="s">
+        <v>641</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>26681</v>
+      </c>
+      <c r="B395" t="s">
+        <v>642</v>
+      </c>
+      <c r="C395" t="s">
+        <v>250</v>
+      </c>
+      <c r="D395" t="s">
+        <v>16</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>26690</v>
+      </c>
+      <c r="B396" t="s">
+        <v>643</v>
+      </c>
+      <c r="C396" t="s">
+        <v>250</v>
+      </c>
+      <c r="D396" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>26822</v>
+      </c>
+      <c r="B397" t="s">
+        <v>644</v>
+      </c>
+      <c r="C397" t="s">
+        <v>250</v>
+      </c>
+      <c r="D397" t="s">
+        <v>16</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>26842</v>
+      </c>
+      <c r="B398" t="s">
+        <v>645</v>
+      </c>
+      <c r="C398" t="s">
+        <v>250</v>
+      </c>
+      <c r="D398" t="s">
+        <v>646</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>26923</v>
+      </c>
+      <c r="B399" t="s">
+        <v>647</v>
+      </c>
+      <c r="C399" t="s">
+        <v>250</v>
+      </c>
+      <c r="D399" t="s">
+        <v>648</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>27041</v>
+      </c>
+      <c r="B400" t="s">
+        <v>649</v>
+      </c>
+      <c r="C400" t="s">
+        <v>250</v>
+      </c>
+      <c r="D400" t="s">
+        <v>16</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>27213</v>
+      </c>
+      <c r="B401" t="s">
+        <v>650</v>
+      </c>
+      <c r="C401" t="s">
+        <v>651</v>
+      </c>
+      <c r="D401" t="s">
+        <v>16</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>27230</v>
+      </c>
+      <c r="B402" t="s">
+        <v>652</v>
+      </c>
+      <c r="C402" t="s">
+        <v>651</v>
+      </c>
+      <c r="D402" t="s">
+        <v>653</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>27390</v>
+      </c>
+      <c r="B403" t="s">
+        <v>654</v>
+      </c>
+      <c r="C403" t="s">
+        <v>9</v>
+      </c>
+      <c r="D403" t="s">
+        <v>10</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>27434</v>
+      </c>
+      <c r="B404" t="s">
+        <v>655</v>
+      </c>
+      <c r="C404" t="s">
+        <v>253</v>
+      </c>
+      <c r="D404" t="s">
+        <v>656</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B405" t="s">
+        <v>657</v>
+      </c>
+      <c r="C405" t="s">
+        <v>253</v>
+      </c>
+      <c r="D405" t="s">
+        <v>16</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>27725</v>
+      </c>
+      <c r="B406" t="s">
+        <v>658</v>
+      </c>
+      <c r="C406" t="s">
+        <v>253</v>
+      </c>
+      <c r="D406" t="s">
+        <v>258</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>27739</v>
+      </c>
+      <c r="B407" t="s">
+        <v>659</v>
+      </c>
+      <c r="C407" t="s">
+        <v>253</v>
+      </c>
+      <c r="D407" t="s">
+        <v>660</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>27782</v>
+      </c>
+      <c r="B408" t="s">
+        <v>661</v>
+      </c>
+      <c r="C408" t="s">
+        <v>9</v>
+      </c>
+      <c r="D408" t="s">
+        <v>10</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>27792</v>
+      </c>
+      <c r="B409" t="s">
+        <v>662</v>
+      </c>
+      <c r="C409" t="s">
+        <v>9</v>
+      </c>
+      <c r="D409" t="s">
+        <v>585</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>27798</v>
+      </c>
+      <c r="B410" t="s">
+        <v>663</v>
+      </c>
+      <c r="C410" t="s">
+        <v>9</v>
+      </c>
+      <c r="D410" t="s">
+        <v>10</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>27972</v>
+      </c>
+      <c r="B411" t="s">
+        <v>664</v>
+      </c>
+      <c r="C411" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411" t="s">
+        <v>665</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>27998</v>
+      </c>
+      <c r="B412" t="s">
+        <v>666</v>
+      </c>
+      <c r="C412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" t="s">
+        <v>16</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>28005</v>
+      </c>
+      <c r="B413" t="s">
+        <v>667</v>
+      </c>
+      <c r="C413" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" t="s">
+        <v>668</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>28048</v>
+      </c>
+      <c r="B414" t="s">
+        <v>669</v>
+      </c>
+      <c r="C414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" t="s">
+        <v>670</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>28102</v>
+      </c>
+      <c r="B415" t="s">
+        <v>671</v>
+      </c>
+      <c r="C415" t="s">
+        <v>12</v>
+      </c>
+      <c r="D415" t="s">
+        <v>672</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>28111</v>
+      </c>
+      <c r="B416" t="s">
+        <v>673</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" t="s">
+        <v>674</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>28280</v>
+      </c>
+      <c r="B417" t="s">
+        <v>675</v>
+      </c>
+      <c r="C417" t="s">
+        <v>27</v>
+      </c>
+      <c r="D417" t="s">
+        <v>676</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>28281</v>
+      </c>
+      <c r="B418" t="s">
+        <v>677</v>
+      </c>
+      <c r="C418" t="s">
+        <v>27</v>
+      </c>
+      <c r="D418" t="s">
+        <v>676</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>28282</v>
+      </c>
+      <c r="B419" t="s">
+        <v>678</v>
+      </c>
+      <c r="C419" t="s">
+        <v>27</v>
+      </c>
+      <c r="D419" t="s">
+        <v>676</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>28376</v>
+      </c>
+      <c r="B420" t="s">
+        <v>679</v>
+      </c>
+      <c r="C420" t="s">
+        <v>27</v>
+      </c>
+      <c r="D420" t="s">
+        <v>680</v>
+      </c>
+      <c r="E420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>28417</v>
+      </c>
+      <c r="B421" t="s">
+        <v>681</v>
+      </c>
+      <c r="C421" t="s">
+        <v>27</v>
+      </c>
+      <c r="D421" t="s">
+        <v>16</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>28520</v>
+      </c>
+      <c r="B422" t="s">
+        <v>682</v>
+      </c>
+      <c r="C422" t="s">
+        <v>27</v>
+      </c>
+      <c r="D422" t="s">
+        <v>683</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>28705</v>
+      </c>
+      <c r="B423" t="s">
+        <v>684</v>
+      </c>
+      <c r="C423" t="s">
+        <v>27</v>
+      </c>
+      <c r="D423" t="s">
+        <v>16</v>
+      </c>
+      <c r="E423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>28744</v>
+      </c>
+      <c r="B424" t="s">
+        <v>685</v>
+      </c>
+      <c r="C424" t="s">
+        <v>27</v>
+      </c>
+      <c r="D424" t="s">
+        <v>16</v>
+      </c>
+      <c r="E424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>28833</v>
+      </c>
+      <c r="B425" t="s">
+        <v>686</v>
+      </c>
+      <c r="C425" t="s">
+        <v>27</v>
+      </c>
+      <c r="D425" t="s">
+        <v>687</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>28849</v>
+      </c>
+      <c r="B426" t="s">
+        <v>688</v>
+      </c>
+      <c r="C426" t="s">
+        <v>27</v>
+      </c>
+      <c r="D426" t="s">
+        <v>16</v>
+      </c>
+      <c r="E426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>28866</v>
+      </c>
+      <c r="B427" t="s">
+        <v>689</v>
+      </c>
+      <c r="C427" t="s">
+        <v>27</v>
+      </c>
+      <c r="D427" t="s">
+        <v>690</v>
+      </c>
+      <c r="E427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>28887</v>
+      </c>
+      <c r="B428" t="s">
+        <v>691</v>
+      </c>
+      <c r="C428" t="s">
+        <v>27</v>
+      </c>
+      <c r="D428" t="s">
+        <v>692</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>28905</v>
+      </c>
+      <c r="B429" t="s">
+        <v>693</v>
+      </c>
+      <c r="C429" t="s">
+        <v>27</v>
+      </c>
+      <c r="D429" t="s">
+        <v>694</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>28957</v>
+      </c>
+      <c r="B430" t="s">
+        <v>695</v>
+      </c>
+      <c r="C430" t="s">
+        <v>27</v>
+      </c>
+      <c r="D430" t="s">
+        <v>16</v>
+      </c>
+      <c r="E430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>28977</v>
+      </c>
+      <c r="B431" t="s">
+        <v>696</v>
+      </c>
+      <c r="C431" t="s">
+        <v>27</v>
+      </c>
+      <c r="D431" t="s">
+        <v>697</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>28985</v>
+      </c>
+      <c r="B432" t="s">
+        <v>698</v>
+      </c>
+      <c r="C432" t="s">
+        <v>27</v>
+      </c>
+      <c r="D432" t="s">
+        <v>699</v>
+      </c>
+      <c r="E432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>29439</v>
+      </c>
+      <c r="B433" t="s">
+        <v>700</v>
+      </c>
+      <c r="C433" t="s">
+        <v>27</v>
+      </c>
+      <c r="D433" t="s">
+        <v>701</v>
+      </c>
+      <c r="E433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>29527</v>
+      </c>
+      <c r="B434" t="s">
+        <v>702</v>
+      </c>
+      <c r="C434" t="s">
+        <v>27</v>
+      </c>
+      <c r="D434" t="s">
+        <v>703</v>
+      </c>
+      <c r="E434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>29545</v>
+      </c>
+      <c r="B435" t="s">
+        <v>704</v>
+      </c>
+      <c r="C435" t="s">
+        <v>9</v>
+      </c>
+      <c r="D435" t="s">
+        <v>10</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>29769</v>
+      </c>
+      <c r="B436" t="s">
+        <v>705</v>
+      </c>
+      <c r="C436" t="s">
+        <v>9</v>
+      </c>
+      <c r="D436" t="s">
+        <v>258</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>29825</v>
+      </c>
+      <c r="B437" t="s">
+        <v>706</v>
+      </c>
+      <c r="C437" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" t="s">
+        <v>10</v>
+      </c>
+      <c r="E437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
         <v>29836</v>
       </c>
-      <c r="B372" t="s">
-        <v>599</v>
-      </c>
-      <c r="C372" t="s">
+      <c r="B438" t="s">
+        <v>707</v>
+      </c>
+      <c r="C438" t="s">
         <v>9</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D438" t="s">
         <v>10</v>
       </c>
-      <c r="E372" t="n">
+      <c r="E438" t="n">
         <v>1</v>
       </c>
     </row>

--- a/summaries/highQualGenomes/variantSummary.xlsx
+++ b/summaries/highQualGenomes/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="764">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -101,15 +101,15 @@
     <t xml:space="preserve">S194L</t>
   </si>
   <si>
+    <t xml:space="preserve">C23604A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20268G</t>
   </si>
   <si>
-    <t xml:space="preserve">C23604A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P681H</t>
-  </si>
-  <si>
     <t xml:space="preserve">G6618A</t>
   </si>
   <si>
@@ -182,6 +182,21 @@
     <t xml:space="preserve">P199L</t>
   </si>
   <si>
+    <t xml:space="preserve">G28881A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28882A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28883C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G204R</t>
+  </si>
+  <si>
     <t xml:space="preserve">G18255T</t>
   </si>
   <si>
@@ -191,21 +206,6 @@
     <t xml:space="preserve">C18877T</t>
   </si>
   <si>
-    <t xml:space="preserve">G28881A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28882A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28883C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G204R</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16260T</t>
   </si>
   <si>
@@ -272,6 +272,9 @@
     <t xml:space="preserve">T1918C</t>
   </si>
   <si>
+    <t xml:space="preserve">C14805T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21614T</t>
   </si>
   <si>
@@ -293,6 +296,27 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28677T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T135I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T692C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F143L</t>
+  </si>
+  <si>
     <t xml:space="preserve">A2342G</t>
   </si>
   <si>
@@ -311,6 +335,18 @@
     <t xml:space="preserve">A1283V</t>
   </si>
   <si>
+    <t xml:space="preserve">A5011C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1582H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5497T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7168C</t>
+  </si>
+  <si>
     <t xml:space="preserve">T7386C</t>
   </si>
   <si>
@@ -335,7 +371,10 @@
     <t xml:space="preserve">L3776F</t>
   </si>
   <si>
-    <t xml:space="preserve">C14805T</t>
+    <t xml:space="preserve">C12525T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4087I</t>
   </si>
   <si>
     <t xml:space="preserve">G17122T</t>
@@ -344,40 +383,52 @@
     <t xml:space="preserve">A1219S</t>
   </si>
   <si>
+    <t xml:space="preserve">G18028T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1521S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18348T</t>
   </si>
   <si>
+    <t xml:space="preserve">G19180T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATACATGT21765delTACATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">A23994C</t>
   </si>
   <si>
     <t xml:space="preserve">K811T</t>
   </si>
   <si>
+    <t xml:space="preserve">G24095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A845S</t>
+  </si>
+  <si>
     <t xml:space="preserve">A26069G</t>
   </si>
   <si>
     <t xml:space="preserve">E226G</t>
   </si>
   <si>
-    <t xml:space="preserve">C27923T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28677T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T135I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29445T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T391I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T692C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F143L</t>
+    <t xml:space="preserve">C27920T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28893T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P207L</t>
   </si>
   <si>
     <t xml:space="preserve">C1500A</t>
@@ -392,24 +443,6 @@
     <t xml:space="preserve">E942G</t>
   </si>
   <si>
-    <t xml:space="preserve">A5011C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1582H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5497T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T7168C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12525T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4087I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C13501T</t>
   </si>
   <si>
@@ -419,18 +452,6 @@
     <t xml:space="preserve">C17010T</t>
   </si>
   <si>
-    <t xml:space="preserve">G18028T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1521S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G19180T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1905L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C20371T</t>
   </si>
   <si>
@@ -440,31 +461,28 @@
     <t xml:space="preserve">D138H, D138Y</t>
   </si>
   <si>
-    <t xml:space="preserve">G24095T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A845S</t>
-  </si>
-  <si>
     <t xml:space="preserve">G24197T</t>
   </si>
   <si>
     <t xml:space="preserve">A879S</t>
   </si>
   <si>
-    <t xml:space="preserve">C27920T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28109T</t>
   </si>
   <si>
     <t xml:space="preserve">Q72H</t>
   </si>
   <si>
-    <t xml:space="preserve">C28893T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P207L</t>
+    <t xml:space="preserve">TAAAA28271delA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9H</t>
   </si>
   <si>
     <t xml:space="preserve">T29344C</t>
@@ -473,6 +491,9 @@
     <t xml:space="preserve">G29747T</t>
   </si>
   <si>
+    <t xml:space="preserve">C913T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G1408A</t>
   </si>
   <si>
@@ -485,15 +506,36 @@
     <t xml:space="preserve">C2485T</t>
   </si>
   <si>
+    <t xml:space="preserve">C3267T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1001I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4002T</t>
   </si>
   <si>
     <t xml:space="preserve">T1246I</t>
   </si>
   <si>
+    <t xml:space="preserve">C5388A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1708D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5986T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6388T</t>
   </si>
   <si>
+    <t xml:space="preserve">T6954C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2230T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C7764T</t>
   </si>
   <si>
@@ -506,6 +548,12 @@
     <t xml:space="preserve">P3613S</t>
   </si>
   <si>
+    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12073T</t>
   </si>
   <si>
@@ -515,12 +563,21 @@
     <t xml:space="preserve">T4083M</t>
   </si>
   <si>
+    <t xml:space="preserve">C14676T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15279T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15857T</t>
   </si>
   <si>
     <t xml:space="preserve">T797I</t>
   </si>
   <si>
+    <t xml:space="preserve">T16176C</t>
+  </si>
+  <si>
     <t xml:space="preserve">A18650T</t>
   </si>
   <si>
@@ -533,21 +590,87 @@
     <t xml:space="preserve">T19839C</t>
   </si>
   <si>
+    <t xml:space="preserve">TTTATTA21991delTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23063T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23271A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A570D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23709T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T716I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23987T</t>
   </si>
   <si>
     <t xml:space="preserve">P809S</t>
   </si>
   <si>
-    <t xml:space="preserve">G28300T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9H</t>
+    <t xml:space="preserve">T24506G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S982A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G24914C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1118H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27972T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28048T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28111G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y73C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28280C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28281T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T28282A</t>
   </si>
   <si>
     <t xml:space="preserve">C28609T</t>
   </si>
   <si>
+    <t xml:space="preserve">C28977T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S235F</t>
+  </si>
+  <si>
     <t xml:space="preserve">C29247T</t>
   </si>
   <si>
@@ -566,6 +689,9 @@
     <t xml:space="preserve">C527T</t>
   </si>
   <si>
+    <t xml:space="preserve">C2110T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A2219G</t>
   </si>
   <si>
@@ -719,12 +845,6 @@
     <t xml:space="preserve">L2560F</t>
   </si>
   <si>
-    <t xml:space="preserve">ATACATGT21765delTACATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">G22317A</t>
   </si>
   <si>
@@ -785,10 +905,10 @@
     <t xml:space="preserve">E59*</t>
   </si>
   <si>
-    <t xml:space="preserve">TAAAA28271delA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 1</t>
+    <t xml:space="preserve">C28887T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T205I</t>
   </si>
   <si>
     <t xml:space="preserve">G28975T</t>
@@ -812,6 +932,9 @@
     <t xml:space="preserve">A406G</t>
   </si>
   <si>
+    <t xml:space="preserve">C583T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G625T</t>
   </si>
   <si>
@@ -827,7 +950,7 @@
     <t xml:space="preserve">C832T</t>
   </si>
   <si>
-    <t xml:space="preserve">C913T</t>
+    <t xml:space="preserve">T1171C</t>
   </si>
   <si>
     <t xml:space="preserve">C1403T</t>
@@ -842,15 +965,18 @@
     <t xml:space="preserve">L384R</t>
   </si>
   <si>
+    <t xml:space="preserve">G1563A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C433Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1594T</t>
   </si>
   <si>
     <t xml:space="preserve">AATGA1605delATG</t>
   </si>
   <si>
-    <t xml:space="preserve">del 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">T1623C</t>
   </si>
   <si>
@@ -875,6 +1001,12 @@
     <t xml:space="preserve">A498V</t>
   </si>
   <si>
+    <t xml:space="preserve">C1812T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A516V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1884T</t>
   </si>
   <si>
@@ -899,9 +1031,6 @@
     <t xml:space="preserve">A2071G</t>
   </si>
   <si>
-    <t xml:space="preserve">C2110T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C2113T</t>
   </si>
   <si>
@@ -944,10 +1073,10 @@
     <t xml:space="preserve">P971S</t>
   </si>
   <si>
-    <t xml:space="preserve">C3267T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1001I</t>
+    <t xml:space="preserve">G3231T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G989V</t>
   </si>
   <si>
     <t xml:space="preserve">A3278C</t>
@@ -968,6 +1097,12 @@
     <t xml:space="preserve">V1020F</t>
   </si>
   <si>
+    <t xml:space="preserve">C3411T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1049V</t>
+  </si>
+  <si>
     <t xml:space="preserve">G3418T</t>
   </si>
   <si>
@@ -1043,6 +1178,15 @@
     <t xml:space="preserve">T4579A</t>
   </si>
   <si>
+    <t xml:space="preserve">C4752T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1496I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4927T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A4964G</t>
   </si>
   <si>
@@ -1061,15 +1205,15 @@
     <t xml:space="preserve">H1610R</t>
   </si>
   <si>
-    <t xml:space="preserve">C5388A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1708D</t>
-  </si>
-  <si>
     <t xml:space="preserve">A5500G</t>
   </si>
   <si>
+    <t xml:space="preserve">G5554T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1763N</t>
+  </si>
+  <si>
     <t xml:space="preserve">C5730T</t>
   </si>
   <si>
@@ -1082,6 +1226,12 @@
     <t xml:space="preserve">E1826A</t>
   </si>
   <si>
+    <t xml:space="preserve">A5747G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1828A</t>
+  </si>
+  <si>
     <t xml:space="preserve">A5877G</t>
   </si>
   <si>
@@ -1097,9 +1247,6 @@
     <t xml:space="preserve">C5956T</t>
   </si>
   <si>
-    <t xml:space="preserve">C5986T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C6040T</t>
   </si>
   <si>
@@ -1154,10 +1301,10 @@
     <t xml:space="preserve">P2221S</t>
   </si>
   <si>
-    <t xml:space="preserve">T6954C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2230T</t>
+    <t xml:space="preserve">G7042T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2259I</t>
   </si>
   <si>
     <t xml:space="preserve">C7056A</t>
@@ -1271,6 +1418,12 @@
     <t xml:space="preserve">C10165T</t>
   </si>
   <si>
+    <t xml:space="preserve">C10341T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3359L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10448T</t>
   </si>
   <si>
@@ -1283,24 +1436,27 @@
     <t xml:space="preserve">V3467A</t>
   </si>
   <si>
+    <t xml:space="preserve">C10789T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11008T</t>
   </si>
   <si>
     <t xml:space="preserve">C11095T</t>
   </si>
   <si>
-    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 9</t>
-  </si>
-  <si>
     <t xml:space="preserve">C11416T</t>
   </si>
   <si>
     <t xml:space="preserve">C11518T</t>
   </si>
   <si>
+    <t xml:space="preserve">G11521T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3752I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11747T</t>
   </si>
   <si>
@@ -1367,6 +1523,12 @@
     <t xml:space="preserve">C14097T</t>
   </si>
   <si>
+    <t xml:space="preserve">C14120T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P218L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C14340T</t>
   </si>
   <si>
@@ -1376,9 +1538,6 @@
     <t xml:space="preserve">N394S</t>
   </si>
   <si>
-    <t xml:space="preserve">C14676T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C14790T</t>
   </si>
   <si>
@@ -1394,9 +1553,6 @@
     <t xml:space="preserve">A545S</t>
   </si>
   <si>
-    <t xml:space="preserve">C15279T</t>
-  </si>
-  <si>
     <t xml:space="preserve">T15326C</t>
   </si>
   <si>
@@ -1424,15 +1580,15 @@
     <t xml:space="preserve">V767L</t>
   </si>
   <si>
+    <t xml:space="preserve">C15952T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15960T</t>
   </si>
   <si>
     <t xml:space="preserve">C16111T</t>
   </si>
   <si>
-    <t xml:space="preserve">T16176C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16308T</t>
   </si>
   <si>
@@ -1463,6 +1619,12 @@
     <t xml:space="preserve">H1213Y</t>
   </si>
   <si>
+    <t xml:space="preserve">G17259T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1264D</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17372T</t>
   </si>
   <si>
@@ -1556,6 +1718,12 @@
     <t xml:space="preserve">A1831S</t>
   </si>
   <si>
+    <t xml:space="preserve">G19021A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1852I</t>
+  </si>
+  <si>
     <t xml:space="preserve">A19167G</t>
   </si>
   <si>
@@ -1631,6 +1799,12 @@
     <t xml:space="preserve">R2613H</t>
   </si>
   <si>
+    <t xml:space="preserve">C21431T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2655V</t>
+  </si>
+  <si>
     <t xml:space="preserve">A21526G</t>
   </si>
   <si>
@@ -1649,6 +1823,9 @@
     <t xml:space="preserve">G21724A</t>
   </si>
   <si>
+    <t xml:space="preserve">C21727T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A21792T</t>
   </si>
   <si>
@@ -1667,9 +1844,6 @@
     <t xml:space="preserve">T95N</t>
   </si>
   <si>
-    <t xml:space="preserve">TTTATTA21991delTTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">G22017T</t>
   </si>
   <si>
@@ -1712,6 +1886,12 @@
     <t xml:space="preserve">C22591T</t>
   </si>
   <si>
+    <t xml:space="preserve">T22846A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D428E</t>
+  </si>
+  <si>
     <t xml:space="preserve">A22969T</t>
   </si>
   <si>
@@ -1721,18 +1901,6 @@
     <t xml:space="preserve">E484K</t>
   </si>
   <si>
-    <t xml:space="preserve">A23063T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N501Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23271A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A570D</t>
-  </si>
-  <si>
     <t xml:space="preserve">T23510C</t>
   </si>
   <si>
@@ -1751,12 +1919,6 @@
     <t xml:space="preserve">N709S</t>
   </si>
   <si>
-    <t xml:space="preserve">C23709T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T716I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C23809T</t>
   </si>
   <si>
@@ -1766,6 +1928,15 @@
     <t xml:space="preserve">G769V</t>
   </si>
   <si>
+    <t xml:space="preserve">G24007A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24138T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T859I</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTTT24151delTT</t>
   </si>
   <si>
@@ -1784,19 +1955,13 @@
     <t xml:space="preserve">T24364A</t>
   </si>
   <si>
-    <t xml:space="preserve">T24506G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S982A</t>
-  </si>
-  <si>
     <t xml:space="preserve">C24904T</t>
   </si>
   <si>
-    <t xml:space="preserve">G24914C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1118H</t>
+    <t xml:space="preserve">G25010A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1150K</t>
   </si>
   <si>
     <t xml:space="preserve">G25135T</t>
@@ -1832,6 +1997,9 @@
     <t xml:space="preserve">C25521T</t>
   </si>
   <si>
+    <t xml:space="preserve">T25662C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C25714T</t>
   </si>
   <si>
@@ -1850,6 +2018,12 @@
     <t xml:space="preserve">A143T</t>
   </si>
   <si>
+    <t xml:space="preserve">C25844T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T151I</t>
+  </si>
+  <si>
     <t xml:space="preserve">G25855T</t>
   </si>
   <si>
@@ -1916,6 +2090,12 @@
     <t xml:space="preserve">C26464T</t>
   </si>
   <si>
+    <t xml:space="preserve">G26526T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C26542T</t>
   </si>
   <si>
@@ -1940,6 +2120,12 @@
     <t xml:space="preserve">L46F</t>
   </si>
   <si>
+    <t xml:space="preserve">A26664G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I48V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C26681T</t>
   </si>
   <si>
@@ -2006,12 +2192,6 @@
     <t xml:space="preserve">G27798T</t>
   </si>
   <si>
-    <t xml:space="preserve">C27972T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q27*</t>
-  </si>
-  <si>
     <t xml:space="preserve">C27998T</t>
   </si>
   <si>
@@ -2021,10 +2201,10 @@
     <t xml:space="preserve">P38S</t>
   </si>
   <si>
-    <t xml:space="preserve">G28048T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R52I</t>
+    <t xml:space="preserve">A28095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K68*</t>
   </si>
   <si>
     <t xml:space="preserve">C28102T</t>
@@ -2033,33 +2213,24 @@
     <t xml:space="preserve">P70L</t>
   </si>
   <si>
-    <t xml:space="preserve">A28111G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y73C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28280C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A28281T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T28282A</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28376T</t>
   </si>
   <si>
     <t xml:space="preserve">A35S</t>
   </si>
   <si>
+    <t xml:space="preserve">A28386T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K38I</t>
+  </si>
+  <si>
     <t xml:space="preserve">T28417C</t>
   </si>
   <si>
+    <t xml:space="preserve">T28444A</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28520A</t>
   </si>
   <si>
@@ -2087,12 +2258,6 @@
     <t xml:space="preserve">T198I</t>
   </si>
   <si>
-    <t xml:space="preserve">C28887T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T205I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28905T</t>
   </si>
   <si>
@@ -2102,12 +2267,6 @@
     <t xml:space="preserve">C28957T</t>
   </si>
   <si>
-    <t xml:space="preserve">C28977T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S235F</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28985T</t>
   </si>
   <si>
@@ -2129,7 +2288,16 @@
     <t xml:space="preserve">C29545T</t>
   </si>
   <si>
+    <t xml:space="preserve">G29648T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D31Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC29769delC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29774T</t>
   </si>
   <si>
     <t xml:space="preserve">G29825T</t>
@@ -2498,7 +2666,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -2515,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -2532,7 +2700,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -2549,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -2566,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -2583,7 +2751,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -2600,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -2617,7 +2785,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2634,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -2651,41 +2819,41 @@
         <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20268</v>
+        <v>23604</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23604</v>
+        <v>20268</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2702,7 +2870,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2719,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -2736,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -2753,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2770,7 +2938,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -2787,7 +2955,7 @@
         <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -2804,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2928,41 +3096,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18255</v>
+        <v>28881</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18877</v>
+        <v>28882</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28881</v>
+        <v>28883</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -2974,21 +3142,21 @@
         <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28882</v>
+        <v>18255</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -2996,16 +3164,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>28883</v>
+        <v>18877</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E32" t="n">
         <v>11</v>
@@ -3268,16 +3436,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21614</v>
+        <v>14805</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
         <v>6</v>
@@ -3285,16 +3453,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21656</v>
+        <v>21614</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="n">
         <v>6</v>
@@ -3302,16 +3470,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23230</v>
+        <v>21656</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
@@ -3319,13 +3487,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26472</v>
+        <v>23230</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -3336,84 +3504,84 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2342</v>
+        <v>26472</v>
       </c>
       <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3259</v>
+        <v>27923</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4113</v>
+        <v>28677</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7386</v>
+        <v>29445</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8083</v>
+        <v>692</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -3421,16 +3589,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11083</v>
+        <v>2342</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -3438,16 +3606,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11591</v>
+        <v>3259</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -3455,16 +3623,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14805</v>
+        <v>4113</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -3472,16 +3640,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>17122</v>
+        <v>5011</v>
       </c>
       <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>109</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -3489,10 +3657,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18348</v>
+        <v>5497</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -3506,16 +3674,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23994</v>
+        <v>7168</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -3523,16 +3691,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>26069</v>
+        <v>7386</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -3540,16 +3708,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27923</v>
+        <v>8083</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -3557,16 +3725,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>28677</v>
+        <v>11083</v>
       </c>
       <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
         <v>116</v>
-      </c>
-      <c r="C65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" t="s">
-        <v>117</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -3574,16 +3742,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29445</v>
+        <v>11591</v>
       </c>
       <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
         <v>118</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -3591,194 +3759,194 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>692</v>
+        <v>12525</v>
       </c>
       <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
         <v>120</v>
       </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
-        <v>121</v>
-      </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1500</v>
+        <v>17122</v>
       </c>
       <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
         <v>122</v>
       </c>
-      <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>123</v>
-      </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3090</v>
+        <v>18028</v>
       </c>
       <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
         <v>124</v>
       </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>125</v>
-      </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5011</v>
+        <v>18348</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5497</v>
+        <v>19180</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7168</v>
+        <v>21765</v>
       </c>
       <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
         <v>129</v>
       </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12525</v>
+        <v>23994</v>
       </c>
       <c r="B73" t="s">
         <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
         <v>131</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13501</v>
+        <v>24095</v>
       </c>
       <c r="B74" t="s">
         <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
         <v>133</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17010</v>
+        <v>26069</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18028</v>
+        <v>27920</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>19180</v>
+        <v>28893</v>
       </c>
       <c r="B77" t="s">
         <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
         <v>138</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20371</v>
+        <v>1500</v>
       </c>
       <c r="B78" t="s">
         <v>139</v>
@@ -3787,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -3795,16 +3963,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>21974</v>
+        <v>3090</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -3812,16 +3980,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>24095</v>
+        <v>13501</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -3829,16 +3997,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>24197</v>
+        <v>17010</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -3846,13 +4014,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>27920</v>
+        <v>20371</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -3863,13 +4031,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>28109</v>
+        <v>21974</v>
       </c>
       <c r="B83" t="s">
         <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
         <v>148</v>
@@ -3880,13 +4048,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28893</v>
+        <v>24197</v>
       </c>
       <c r="B84" t="s">
         <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>150</v>
@@ -3897,16 +4065,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>29344</v>
+        <v>28109</v>
       </c>
       <c r="B85" t="s">
         <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -3914,16 +4082,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>29747</v>
+        <v>28271</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -3931,67 +4099,67 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1408</v>
+        <v>28300</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2155</v>
+        <v>29344</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2485</v>
+        <v>29747</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4002</v>
+        <v>913</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -3999,10 +4167,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6388</v>
+        <v>1408</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -4016,16 +4184,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7764</v>
+        <v>2155</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -4033,16 +4201,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>11102</v>
+        <v>2485</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -4050,7 +4218,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12073</v>
+        <v>3267</v>
       </c>
       <c r="B94" t="s">
         <v>164</v>
@@ -4059,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
@@ -4067,16 +4235,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12513</v>
+        <v>4002</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -4084,16 +4252,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>15857</v>
+        <v>5388</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -4101,16 +4269,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>18650</v>
+        <v>5986</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
@@ -4118,7 +4286,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>19584</v>
+        <v>6388</v>
       </c>
       <c r="B98" t="s">
         <v>171</v>
@@ -4135,7 +4303,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>19839</v>
+        <v>6954</v>
       </c>
       <c r="B99" t="s">
         <v>172</v>
@@ -4144,7 +4312,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
@@ -4152,16 +4320,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>23987</v>
+        <v>7764</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
@@ -4169,16 +4337,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28300</v>
+        <v>11102</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -4186,16 +4354,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>28609</v>
+        <v>11288</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
@@ -4203,16 +4371,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>29247</v>
+        <v>12073</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -4220,16 +4388,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>29614</v>
+        <v>12513</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -4237,27 +4405,27 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>157</v>
+        <v>14676</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>527</v>
+        <v>15279</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -4266,46 +4434,46 @@
         <v>16</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2219</v>
+        <v>15857</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2258</v>
+        <v>16176</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2262</v>
+        <v>18650</v>
       </c>
       <c r="B109" t="s">
         <v>188</v>
@@ -4317,12 +4485,12 @@
         <v>189</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2416</v>
+        <v>19584</v>
       </c>
       <c r="B110" t="s">
         <v>190</v>
@@ -4334,12 +4502,12 @@
         <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2516</v>
+        <v>19839</v>
       </c>
       <c r="B111" t="s">
         <v>191</v>
@@ -4348,313 +4516,313 @@
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3510</v>
+        <v>21991</v>
       </c>
       <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
         <v>193</v>
       </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>194</v>
-      </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4636</v>
+        <v>23063</v>
       </c>
       <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
         <v>195</v>
       </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>16</v>
-      </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5570</v>
+        <v>23271</v>
       </c>
       <c r="B114" t="s">
         <v>196</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
         <v>197</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5999</v>
+        <v>23709</v>
       </c>
       <c r="B115" t="s">
         <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>199</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6441</v>
+        <v>23987</v>
       </c>
       <c r="B116" t="s">
         <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
         <v>201</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8140</v>
+        <v>24506</v>
       </c>
       <c r="B117" t="s">
         <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8841</v>
+        <v>24914</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10323</v>
+        <v>27972</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10798</v>
+        <v>28048</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10874</v>
+        <v>28111</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11866</v>
+        <v>28280</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>12741</v>
+        <v>28281</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>12986</v>
+        <v>28282</v>
       </c>
       <c r="B124" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
         <v>213</v>
       </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>214</v>
-      </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>13975</v>
+        <v>28609</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14988</v>
+        <v>28977</v>
       </c>
       <c r="B126" t="s">
         <v>217</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>16647</v>
+        <v>29247</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>16917</v>
+        <v>29614</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="D128" t="s">
         <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17336</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
@@ -4662,16 +4830,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17678</v>
+        <v>527</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -4679,16 +4847,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>18512</v>
+        <v>2110</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="E131" t="n">
         <v>2</v>
@@ -4696,7 +4864,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18693</v>
+        <v>2219</v>
       </c>
       <c r="B132" t="s">
         <v>226</v>
@@ -4705,7 +4873,7 @@
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -4713,16 +4881,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>19086</v>
+        <v>2258</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E133" t="n">
         <v>2</v>
@@ -4730,16 +4898,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>19524</v>
+        <v>2262</v>
       </c>
       <c r="B134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
@@ -4747,16 +4915,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>19862</v>
+        <v>2416</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
@@ -4764,16 +4932,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>19875</v>
+        <v>2516</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="E136" t="n">
         <v>2</v>
@@ -4781,16 +4949,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>21145</v>
+        <v>3510</v>
       </c>
       <c r="B137" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -4798,16 +4966,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>21765</v>
+        <v>4636</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="E138" t="n">
         <v>2</v>
@@ -4815,16 +4983,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22317</v>
+        <v>5570</v>
       </c>
       <c r="B139" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -4832,16 +5000,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>23905</v>
+        <v>5999</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
@@ -4849,16 +5017,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>24094</v>
+        <v>6441</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="E141" t="n">
         <v>2</v>
@@ -4866,16 +5034,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24368</v>
+        <v>8140</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
@@ -4883,16 +5051,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>24378</v>
+        <v>8841</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E143" t="n">
         <v>2</v>
@@ -4900,16 +5068,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>25577</v>
+        <v>10323</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -4917,16 +5085,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>26158</v>
+        <v>10798</v>
       </c>
       <c r="B145" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="E145" t="n">
         <v>2</v>
@@ -4934,16 +5102,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>26951</v>
+        <v>10874</v>
       </c>
       <c r="B146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C146" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
@@ -4951,13 +5119,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>27074</v>
+        <v>11866</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C147" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
         <v>16</v>
@@ -4968,13 +5136,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>27707</v>
+        <v>12741</v>
       </c>
       <c r="B148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C148" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
         <v>254</v>
@@ -4985,13 +5153,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>28068</v>
+        <v>12986</v>
       </c>
       <c r="B149" t="s">
         <v>255</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
         <v>256</v>
@@ -5002,13 +5170,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>28271</v>
+        <v>13975</v>
       </c>
       <c r="B150" t="s">
         <v>257</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
         <v>258</v>
@@ -5019,16 +5187,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>28975</v>
+        <v>14988</v>
       </c>
       <c r="B151" t="s">
         <v>259</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
@@ -5036,13 +5204,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>29200</v>
+        <v>16647</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
         <v>16</v>
@@ -5053,112 +5221,112 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>79</v>
+        <v>16917</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>186</v>
+        <v>17336</v>
       </c>
       <c r="B154" t="s">
+        <v>262</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
         <v>263</v>
       </c>
-      <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
-      </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>219</v>
+        <v>17678</v>
       </c>
       <c r="B155" t="s">
         <v>264</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>406</v>
+        <v>18512</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>625</v>
+        <v>18693</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>678</v>
+        <v>19086</v>
       </c>
       <c r="B158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>832</v>
+        <v>19524</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -5167,310 +5335,310 @@
         <v>16</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>913</v>
+        <v>19862</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1403</v>
+        <v>19875</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1416</v>
+        <v>21145</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1594</v>
+        <v>22317</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1605</v>
+        <v>23905</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1623</v>
+        <v>24094</v>
       </c>
       <c r="B165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1722</v>
+        <v>24368</v>
       </c>
       <c r="B166" t="s">
         <v>281</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
         <v>282</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1736</v>
+        <v>24378</v>
       </c>
       <c r="B167" t="s">
         <v>283</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
         <v>284</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1758</v>
+        <v>25577</v>
       </c>
       <c r="B168" t="s">
         <v>285</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>286</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1884</v>
+        <v>26158</v>
       </c>
       <c r="B169" t="s">
         <v>287</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>288</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1912</v>
+        <v>26951</v>
       </c>
       <c r="B170" t="s">
         <v>289</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="D170" t="s">
         <v>16</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1927</v>
+        <v>27074</v>
       </c>
       <c r="B171" t="s">
+        <v>291</v>
+      </c>
+      <c r="C171" t="s">
         <v>290</v>
       </c>
-      <c r="C171" t="s">
-        <v>15</v>
-      </c>
       <c r="D171" t="s">
         <v>16</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2014</v>
+        <v>27707</v>
       </c>
       <c r="B172" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2040</v>
+        <v>28068</v>
       </c>
       <c r="B173" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2071</v>
+        <v>28887</v>
       </c>
       <c r="B174" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C174" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2110</v>
+        <v>28975</v>
       </c>
       <c r="B175" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2113</v>
+        <v>29200</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2334</v>
+        <v>79</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -5478,16 +5646,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2488</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -5495,16 +5663,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2508</v>
+        <v>219</v>
       </c>
       <c r="B179" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -5512,10 +5680,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2644</v>
+        <v>406</v>
       </c>
       <c r="B180" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
@@ -5529,10 +5697,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2785</v>
+        <v>583</v>
       </c>
       <c r="B181" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
@@ -5546,16 +5714,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2788</v>
+        <v>625</v>
       </c>
       <c r="B182" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -5563,16 +5731,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2836</v>
+        <v>678</v>
       </c>
       <c r="B183" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C183" t="s">
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -5580,16 +5748,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3140</v>
+        <v>832</v>
       </c>
       <c r="B184" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -5597,16 +5765,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3176</v>
+        <v>1171</v>
       </c>
       <c r="B185" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -5614,16 +5782,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3267</v>
+        <v>1403</v>
       </c>
       <c r="B186" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -5631,16 +5799,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3278</v>
+        <v>1416</v>
       </c>
       <c r="B187" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -5648,16 +5816,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3312</v>
+        <v>1563</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -5665,16 +5833,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3323</v>
+        <v>1594</v>
       </c>
       <c r="B189" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C189" t="s">
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -5682,16 +5850,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3418</v>
+        <v>1605</v>
       </c>
       <c r="B190" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C190" t="s">
         <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -5699,16 +5867,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3527</v>
+        <v>1623</v>
       </c>
       <c r="B191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -5716,16 +5884,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3702</v>
+        <v>1722</v>
       </c>
       <c r="B192" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C192" t="s">
         <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -5733,16 +5901,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3714</v>
+        <v>1736</v>
       </c>
       <c r="B193" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C193" t="s">
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -5750,16 +5918,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3736</v>
+        <v>1758</v>
       </c>
       <c r="B194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C194" t="s">
         <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -5767,16 +5935,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3766</v>
+        <v>1812</v>
       </c>
       <c r="B195" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C195" t="s">
         <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -5784,16 +5952,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3840</v>
+        <v>1884</v>
       </c>
       <c r="B196" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C196" t="s">
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -5801,16 +5969,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3960</v>
+        <v>1912</v>
       </c>
       <c r="B197" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C197" t="s">
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -5818,10 +5986,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3991</v>
+        <v>1927</v>
       </c>
       <c r="B198" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
@@ -5835,10 +6003,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>4084</v>
+        <v>2014</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C199" t="s">
         <v>15</v>
@@ -5852,16 +6020,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4156</v>
+        <v>2040</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C200" t="s">
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5869,16 +6037,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4201</v>
+        <v>2071</v>
       </c>
       <c r="B201" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C201" t="s">
         <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -5886,16 +6054,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>4404</v>
+        <v>2113</v>
       </c>
       <c r="B202" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C202" t="s">
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -5903,16 +6071,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>4504</v>
+        <v>2334</v>
       </c>
       <c r="B203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -5920,10 +6088,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>4540</v>
+        <v>2488</v>
       </c>
       <c r="B204" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
@@ -5937,16 +6105,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>4579</v>
+        <v>2508</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -5954,16 +6122,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>4964</v>
+        <v>2644</v>
       </c>
       <c r="B206" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>344</v>
+        <v>16</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -5971,16 +6139,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>5015</v>
+        <v>2785</v>
       </c>
       <c r="B207" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5988,7 +6156,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5094</v>
+        <v>2788</v>
       </c>
       <c r="B208" t="s">
         <v>347</v>
@@ -5997,7 +6165,7 @@
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -6005,16 +6173,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5388</v>
+        <v>2836</v>
       </c>
       <c r="B209" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -6022,16 +6190,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5500</v>
+        <v>3140</v>
       </c>
       <c r="B210" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -6039,16 +6207,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>5730</v>
+        <v>3176</v>
       </c>
       <c r="B211" t="s">
+        <v>351</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
         <v>352</v>
-      </c>
-      <c r="C211" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" t="s">
-        <v>353</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -6056,16 +6224,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5742</v>
+        <v>3231</v>
       </c>
       <c r="B212" t="s">
+        <v>353</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
         <v>354</v>
-      </c>
-      <c r="C212" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" t="s">
-        <v>355</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -6073,16 +6241,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>5877</v>
+        <v>3278</v>
       </c>
       <c r="B213" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
         <v>356</v>
-      </c>
-      <c r="C213" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" t="s">
-        <v>357</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -6090,16 +6258,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5907</v>
+        <v>3312</v>
       </c>
       <c r="B214" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
         <v>358</v>
-      </c>
-      <c r="C214" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" t="s">
-        <v>359</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -6107,16 +6275,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>5956</v>
+        <v>3323</v>
       </c>
       <c r="B215" t="s">
+        <v>359</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
         <v>360</v>
-      </c>
-      <c r="C215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" t="s">
-        <v>16</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -6124,7 +6292,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>5986</v>
+        <v>3411</v>
       </c>
       <c r="B216" t="s">
         <v>361</v>
@@ -6133,7 +6301,7 @@
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>362</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -6141,16 +6309,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>6040</v>
+        <v>3418</v>
       </c>
       <c r="B217" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C217" t="s">
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -6158,16 +6326,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>6285</v>
+        <v>3527</v>
       </c>
       <c r="B218" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C218" t="s">
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -6175,16 +6343,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>6318</v>
+        <v>3702</v>
       </c>
       <c r="B219" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C219" t="s">
         <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -6192,16 +6360,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>6320</v>
+        <v>3714</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C220" t="s">
         <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -6209,10 +6377,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>6505</v>
+        <v>3736</v>
       </c>
       <c r="B221" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
@@ -6226,16 +6394,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>6536</v>
+        <v>3766</v>
       </c>
       <c r="B222" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -6243,16 +6411,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>6543</v>
+        <v>3840</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C223" t="s">
         <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -6260,16 +6428,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>6730</v>
+        <v>3960</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C224" t="s">
         <v>15</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -6277,10 +6445,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>6754</v>
+        <v>3991</v>
       </c>
       <c r="B225" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C225" t="s">
         <v>15</v>
@@ -6294,16 +6462,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>6912</v>
+        <v>4084</v>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C226" t="s">
         <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -6311,16 +6479,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>6926</v>
+        <v>4156</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" t="s">
-        <v>379</v>
+        <v>16</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -6328,7 +6496,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>6954</v>
+        <v>4201</v>
       </c>
       <c r="B228" t="s">
         <v>380</v>
@@ -6345,7 +6513,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>7056</v>
+        <v>4404</v>
       </c>
       <c r="B229" t="s">
         <v>382</v>
@@ -6362,7 +6530,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>7253</v>
+        <v>4504</v>
       </c>
       <c r="B230" t="s">
         <v>384</v>
@@ -6379,7 +6547,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>7393</v>
+        <v>4540</v>
       </c>
       <c r="B231" t="s">
         <v>386</v>
@@ -6396,7 +6564,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>7685</v>
+        <v>4579</v>
       </c>
       <c r="B232" t="s">
         <v>387</v>
@@ -6405,7 +6573,7 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -6413,16 +6581,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>7710</v>
+        <v>4752</v>
       </c>
       <c r="B233" t="s">
+        <v>388</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="s">
         <v>389</v>
-      </c>
-      <c r="C233" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" t="s">
-        <v>390</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -6430,10 +6598,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>7735</v>
+        <v>4927</v>
       </c>
       <c r="B234" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -6447,16 +6615,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>7798</v>
+        <v>4964</v>
       </c>
       <c r="B235" t="s">
+        <v>391</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
         <v>392</v>
-      </c>
-      <c r="C235" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" t="s">
-        <v>393</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -6464,16 +6632,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>7834</v>
+        <v>5015</v>
       </c>
       <c r="B236" t="s">
+        <v>393</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" t="s">
         <v>394</v>
-      </c>
-      <c r="C236" t="s">
-        <v>15</v>
-      </c>
-      <c r="D236" t="s">
-        <v>16</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -6481,7 +6649,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>7869</v>
+        <v>5094</v>
       </c>
       <c r="B237" t="s">
         <v>395</v>
@@ -6498,7 +6666,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>7975</v>
+        <v>5500</v>
       </c>
       <c r="B238" t="s">
         <v>397</v>
@@ -6515,7 +6683,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>8017</v>
+        <v>5554</v>
       </c>
       <c r="B239" t="s">
         <v>398</v>
@@ -6524,7 +6692,7 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -6532,16 +6700,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>8047</v>
+        <v>5730</v>
       </c>
       <c r="B240" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -6549,16 +6717,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>8344</v>
+        <v>5742</v>
       </c>
       <c r="B241" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -6566,16 +6734,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>8537</v>
+        <v>5747</v>
       </c>
       <c r="B242" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -6583,16 +6751,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>8558</v>
+        <v>5877</v>
       </c>
       <c r="B243" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E243" t="n">
         <v>1</v>
@@ -6600,16 +6768,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8917</v>
+        <v>5907</v>
       </c>
       <c r="B244" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>409</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -6617,16 +6785,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>9204</v>
+        <v>5956</v>
       </c>
       <c r="B245" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C245" t="s">
         <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
@@ -6634,16 +6802,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>9389</v>
+        <v>6040</v>
       </c>
       <c r="B246" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C246" t="s">
         <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>409</v>
+        <v>16</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -6651,16 +6819,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9585</v>
+        <v>6285</v>
       </c>
       <c r="B247" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C247" t="s">
         <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -6668,16 +6836,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9615</v>
+        <v>6318</v>
       </c>
       <c r="B248" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C248" t="s">
         <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -6685,16 +6853,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9875</v>
+        <v>6320</v>
       </c>
       <c r="B249" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C249" t="s">
         <v>15</v>
       </c>
       <c r="D249" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -6702,16 +6870,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9996</v>
+        <v>6505</v>
       </c>
       <c r="B250" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C250" t="s">
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -6719,16 +6887,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>10165</v>
+        <v>6536</v>
       </c>
       <c r="B251" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
@@ -6736,16 +6904,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>10448</v>
+        <v>6543</v>
       </c>
       <c r="B252" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E252" t="n">
         <v>1</v>
@@ -6753,16 +6921,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>10665</v>
+        <v>6730</v>
       </c>
       <c r="B253" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C253" t="s">
         <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>422</v>
+        <v>16</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -6770,10 +6938,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>11008</v>
+        <v>6754</v>
       </c>
       <c r="B254" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -6787,16 +6955,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>11095</v>
+        <v>6912</v>
       </c>
       <c r="B255" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -6804,16 +6972,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>11288</v>
+        <v>6926</v>
       </c>
       <c r="B256" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
@@ -6821,16 +6989,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11416</v>
+        <v>7042</v>
       </c>
       <c r="B257" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="E257" t="n">
         <v>1</v>
@@ -6838,16 +7006,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>11518</v>
+        <v>7056</v>
       </c>
       <c r="B258" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>432</v>
       </c>
       <c r="E258" t="n">
         <v>1</v>
@@ -6855,16 +7023,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>11747</v>
+        <v>7253</v>
       </c>
       <c r="B259" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C259" t="s">
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="E259" t="n">
         <v>1</v>
@@ -6872,10 +7040,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>11782</v>
+        <v>7393</v>
       </c>
       <c r="B260" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
@@ -6889,16 +7057,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>12068</v>
+        <v>7685</v>
       </c>
       <c r="B261" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="E261" t="n">
         <v>1</v>
@@ -6906,16 +7074,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>12112</v>
+        <v>7710</v>
       </c>
       <c r="B262" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C262" t="s">
         <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="E262" t="n">
         <v>1</v>
@@ -6923,16 +7091,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>12162</v>
+        <v>7735</v>
       </c>
       <c r="B263" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
       </c>
       <c r="D263" t="s">
-        <v>434</v>
+        <v>16</v>
       </c>
       <c r="E263" t="n">
         <v>1</v>
@@ -6940,16 +7108,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>12784</v>
+        <v>7798</v>
       </c>
       <c r="B264" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C264" t="s">
         <v>15</v>
       </c>
       <c r="D264" t="s">
-        <v>16</v>
+        <v>442</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -6957,16 +7125,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>12786</v>
+        <v>7834</v>
       </c>
       <c r="B265" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C265" t="s">
         <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>437</v>
+        <v>16</v>
       </c>
       <c r="E265" t="n">
         <v>1</v>
@@ -6974,16 +7142,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>12789</v>
+        <v>7869</v>
       </c>
       <c r="B266" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C266" t="s">
         <v>15</v>
       </c>
       <c r="D266" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E266" t="n">
         <v>1</v>
@@ -6991,10 +7159,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>12880</v>
+        <v>7975</v>
       </c>
       <c r="B267" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C267" t="s">
         <v>15</v>
@@ -7008,16 +7176,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>13274</v>
+        <v>8017</v>
       </c>
       <c r="B268" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C268" t="s">
         <v>15</v>
       </c>
       <c r="D268" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -7025,16 +7193,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>13335</v>
+        <v>8047</v>
       </c>
       <c r="B269" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C269" t="s">
         <v>15</v>
       </c>
       <c r="D269" t="s">
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -7042,10 +7210,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>13459</v>
+        <v>8344</v>
       </c>
       <c r="B270" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C270" t="s">
         <v>15</v>
@@ -7059,16 +7227,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>13536</v>
+        <v>8537</v>
       </c>
       <c r="B271" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C271" t="s">
         <v>15</v>
       </c>
       <c r="D271" t="s">
-        <v>16</v>
+        <v>451</v>
       </c>
       <c r="E271" t="n">
         <v>1</v>
@@ -7076,16 +7244,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>13620</v>
+        <v>8558</v>
       </c>
       <c r="B272" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C272" t="s">
         <v>15</v>
       </c>
       <c r="D272" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
@@ -7093,16 +7261,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>13694</v>
+        <v>8917</v>
       </c>
       <c r="B273" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C273" t="s">
         <v>15</v>
       </c>
       <c r="D273" t="s">
-        <v>449</v>
+        <v>16</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -7110,16 +7278,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>14097</v>
+        <v>9204</v>
       </c>
       <c r="B274" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C274" t="s">
         <v>15</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>456</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -7127,16 +7295,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>14340</v>
+        <v>9389</v>
       </c>
       <c r="B275" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C275" t="s">
         <v>15</v>
       </c>
       <c r="D275" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="E275" t="n">
         <v>1</v>
@@ -7144,16 +7312,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>14648</v>
+        <v>9585</v>
       </c>
       <c r="B276" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C276" t="s">
         <v>15</v>
       </c>
       <c r="D276" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -7161,16 +7329,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>14676</v>
+        <v>9615</v>
       </c>
       <c r="B277" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C277" t="s">
         <v>15</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>462</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -7178,16 +7346,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>14790</v>
+        <v>9875</v>
       </c>
       <c r="B278" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C278" t="s">
         <v>15</v>
       </c>
       <c r="D278" t="s">
-        <v>16</v>
+        <v>464</v>
       </c>
       <c r="E278" t="n">
         <v>1</v>
@@ -7195,16 +7363,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>14817</v>
+        <v>9996</v>
       </c>
       <c r="B279" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C279" t="s">
         <v>15</v>
       </c>
       <c r="D279" t="s">
-        <v>16</v>
+        <v>466</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
@@ -7212,10 +7380,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>15024</v>
+        <v>10165</v>
       </c>
       <c r="B280" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C280" t="s">
         <v>15</v>
@@ -7229,16 +7397,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>15100</v>
+        <v>10341</v>
       </c>
       <c r="B281" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C281" t="s">
         <v>15</v>
       </c>
       <c r="D281" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E281" t="n">
         <v>1</v>
@@ -7246,16 +7414,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>15279</v>
+        <v>10448</v>
       </c>
       <c r="B282" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C282" t="s">
         <v>15</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>471</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -7263,16 +7431,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>15326</v>
+        <v>10665</v>
       </c>
       <c r="B283" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C283" t="s">
         <v>15</v>
       </c>
       <c r="D283" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="E283" t="n">
         <v>1</v>
@@ -7280,16 +7448,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>15327</v>
+        <v>10789</v>
       </c>
       <c r="B284" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C284" t="s">
         <v>15</v>
       </c>
       <c r="D284" t="s">
-        <v>464</v>
+        <v>16</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
@@ -7297,10 +7465,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>15450</v>
+        <v>11008</v>
       </c>
       <c r="B285" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C285" t="s">
         <v>15</v>
@@ -7314,16 +7482,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>15677</v>
+        <v>11095</v>
       </c>
       <c r="B286" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C286" t="s">
         <v>15</v>
       </c>
       <c r="D286" t="s">
-        <v>467</v>
+        <v>16</v>
       </c>
       <c r="E286" t="n">
         <v>1</v>
@@ -7331,16 +7499,16 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>15766</v>
+        <v>11416</v>
       </c>
       <c r="B287" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C287" t="s">
         <v>15</v>
       </c>
       <c r="D287" t="s">
-        <v>469</v>
+        <v>16</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -7348,10 +7516,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>15960</v>
+        <v>11518</v>
       </c>
       <c r="B288" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C288" t="s">
         <v>15</v>
@@ -7365,16 +7533,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>16111</v>
+        <v>11521</v>
       </c>
       <c r="B289" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C289" t="s">
         <v>15</v>
       </c>
       <c r="D289" t="s">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -7382,10 +7550,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>16176</v>
+        <v>11747</v>
       </c>
       <c r="B290" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C290" t="s">
         <v>15</v>
@@ -7399,10 +7567,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>16308</v>
+        <v>11782</v>
       </c>
       <c r="B291" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C291" t="s">
         <v>15</v>
@@ -7416,16 +7584,16 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>16376</v>
+        <v>12068</v>
       </c>
       <c r="B292" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C292" t="s">
         <v>15</v>
       </c>
       <c r="D292" t="s">
-        <v>475</v>
+        <v>16</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -7433,16 +7601,16 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>16396</v>
+        <v>12112</v>
       </c>
       <c r="B293" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C293" t="s">
         <v>15</v>
       </c>
       <c r="D293" t="s">
-        <v>477</v>
+        <v>16</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
@@ -7450,16 +7618,16 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>16569</v>
+        <v>12162</v>
       </c>
       <c r="B294" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C294" t="s">
         <v>15</v>
       </c>
       <c r="D294" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
@@ -7467,16 +7635,16 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>16669</v>
+        <v>12784</v>
       </c>
       <c r="B295" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C295" t="s">
         <v>15</v>
       </c>
       <c r="D295" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="E295" t="n">
         <v>1</v>
@@ -7484,16 +7652,16 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>16887</v>
+        <v>12786</v>
       </c>
       <c r="B296" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C296" t="s">
         <v>15</v>
       </c>
       <c r="D296" t="s">
-        <v>16</v>
+        <v>489</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
@@ -7501,16 +7669,16 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>17104</v>
+        <v>12789</v>
       </c>
       <c r="B297" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C297" t="s">
         <v>15</v>
       </c>
       <c r="D297" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="E297" t="n">
         <v>1</v>
@@ -7518,16 +7686,16 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>17372</v>
+        <v>12880</v>
       </c>
       <c r="B298" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C298" t="s">
         <v>15</v>
       </c>
       <c r="D298" t="s">
-        <v>484</v>
+        <v>16</v>
       </c>
       <c r="E298" t="n">
         <v>1</v>
@@ -7535,16 +7703,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>17436</v>
+        <v>13274</v>
       </c>
       <c r="B299" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C299" t="s">
         <v>15</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
       <c r="E299" t="n">
         <v>1</v>
@@ -7552,16 +7720,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>17443</v>
+        <v>13335</v>
       </c>
       <c r="B300" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C300" t="s">
         <v>15</v>
       </c>
       <c r="D300" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E300" t="n">
         <v>1</v>
@@ -7569,16 +7737,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>17551</v>
+        <v>13459</v>
       </c>
       <c r="B301" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C301" t="s">
         <v>15</v>
       </c>
       <c r="D301" t="s">
-        <v>489</v>
+        <v>16</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
@@ -7586,16 +7754,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>17615</v>
+        <v>13536</v>
       </c>
       <c r="B302" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C302" t="s">
         <v>15</v>
       </c>
       <c r="D302" t="s">
-        <v>491</v>
+        <v>16</v>
       </c>
       <c r="E302" t="n">
         <v>1</v>
@@ -7603,16 +7771,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>17814</v>
+        <v>13620</v>
       </c>
       <c r="B303" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C303" t="s">
         <v>15</v>
       </c>
       <c r="D303" t="s">
-        <v>493</v>
+        <v>16</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
@@ -7620,16 +7788,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>17889</v>
+        <v>13694</v>
       </c>
       <c r="B304" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C304" t="s">
         <v>15</v>
       </c>
       <c r="D304" t="s">
-        <v>16</v>
+        <v>501</v>
       </c>
       <c r="E304" t="n">
         <v>1</v>
@@ -7637,16 +7805,16 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>18106</v>
+        <v>14097</v>
       </c>
       <c r="B305" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C305" t="s">
         <v>15</v>
       </c>
       <c r="D305" t="s">
-        <v>496</v>
+        <v>16</v>
       </c>
       <c r="E305" t="n">
         <v>1</v>
@@ -7654,16 +7822,16 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>18131</v>
+        <v>14120</v>
       </c>
       <c r="B306" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C306" t="s">
         <v>15</v>
       </c>
       <c r="D306" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E306" t="n">
         <v>1</v>
@@ -7671,10 +7839,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>18252</v>
+        <v>14340</v>
       </c>
       <c r="B307" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C307" t="s">
         <v>15</v>
@@ -7688,16 +7856,16 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>18404</v>
+        <v>14648</v>
       </c>
       <c r="B308" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C308" t="s">
         <v>15</v>
       </c>
       <c r="D308" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E308" t="n">
         <v>1</v>
@@ -7705,10 +7873,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>18486</v>
+        <v>14790</v>
       </c>
       <c r="B309" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C309" t="s">
         <v>15</v>
@@ -7722,10 +7890,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>18501</v>
+        <v>14817</v>
       </c>
       <c r="B310" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C310" t="s">
         <v>15</v>
@@ -7739,16 +7907,16 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>18538</v>
+        <v>15024</v>
       </c>
       <c r="B311" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C311" t="s">
         <v>15</v>
       </c>
       <c r="D311" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="E311" t="n">
         <v>1</v>
@@ -7756,16 +7924,16 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>18583</v>
+        <v>15100</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C312" t="s">
         <v>15</v>
       </c>
       <c r="D312" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E312" t="n">
         <v>1</v>
@@ -7773,16 +7941,16 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>18803</v>
+        <v>15326</v>
       </c>
       <c r="B313" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C313" t="s">
         <v>15</v>
       </c>
       <c r="D313" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="E313" t="n">
         <v>1</v>
@@ -7790,16 +7958,16 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>18898</v>
+        <v>15327</v>
       </c>
       <c r="B314" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C314" t="s">
         <v>15</v>
       </c>
       <c r="D314" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
@@ -7807,16 +7975,16 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>18958</v>
+        <v>15450</v>
       </c>
       <c r="B315" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C315" t="s">
         <v>15</v>
       </c>
       <c r="D315" t="s">
-        <v>513</v>
+        <v>16</v>
       </c>
       <c r="E315" t="n">
         <v>1</v>
@@ -7824,16 +7992,16 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>19167</v>
+        <v>15677</v>
       </c>
       <c r="B316" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C316" t="s">
         <v>15</v>
       </c>
       <c r="D316" t="s">
-        <v>16</v>
+        <v>519</v>
       </c>
       <c r="E316" t="n">
         <v>1</v>
@@ -7841,16 +8009,16 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>19274</v>
+        <v>15766</v>
       </c>
       <c r="B317" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C317" t="s">
         <v>15</v>
       </c>
       <c r="D317" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E317" t="n">
         <v>1</v>
@@ -7858,16 +8026,16 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>20081</v>
+        <v>15952</v>
       </c>
       <c r="B318" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C318" t="s">
         <v>15</v>
       </c>
       <c r="D318" t="s">
-        <v>518</v>
+        <v>16</v>
       </c>
       <c r="E318" t="n">
         <v>1</v>
@@ -7875,10 +8043,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>20178</v>
+        <v>15960</v>
       </c>
       <c r="B319" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C319" t="s">
         <v>15</v>
@@ -7892,16 +8060,16 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>20279</v>
+        <v>16111</v>
       </c>
       <c r="B320" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C320" t="s">
         <v>15</v>
       </c>
       <c r="D320" t="s">
-        <v>521</v>
+        <v>16</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -7909,10 +8077,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>20283</v>
+        <v>16308</v>
       </c>
       <c r="B321" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C321" t="s">
         <v>15</v>
@@ -7926,16 +8094,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>20580</v>
+        <v>16376</v>
       </c>
       <c r="B322" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C322" t="s">
         <v>15</v>
       </c>
       <c r="D322" t="s">
-        <v>16</v>
+        <v>527</v>
       </c>
       <c r="E322" t="n">
         <v>1</v>
@@ -7943,16 +8111,16 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>20860</v>
+        <v>16396</v>
       </c>
       <c r="B323" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C323" t="s">
         <v>15</v>
       </c>
       <c r="D323" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E323" t="n">
         <v>1</v>
@@ -7960,16 +8128,16 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>20987</v>
+        <v>16569</v>
       </c>
       <c r="B324" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C324" t="s">
         <v>15</v>
       </c>
       <c r="D324" t="s">
-        <v>527</v>
+        <v>16</v>
       </c>
       <c r="E324" t="n">
         <v>1</v>
@@ -7977,16 +8145,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>20995</v>
+        <v>16669</v>
       </c>
       <c r="B325" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C325" t="s">
         <v>15</v>
       </c>
       <c r="D325" t="s">
-        <v>529</v>
+        <v>154</v>
       </c>
       <c r="E325" t="n">
         <v>1</v>
@@ -7994,16 +8162,16 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>21077</v>
+        <v>16887</v>
       </c>
       <c r="B326" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C326" t="s">
         <v>15</v>
       </c>
       <c r="D326" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
       <c r="E326" t="n">
         <v>1</v>
@@ -8011,16 +8179,16 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>21137</v>
+        <v>17104</v>
       </c>
       <c r="B327" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C327" t="s">
         <v>15</v>
       </c>
       <c r="D327" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E327" t="n">
         <v>1</v>
@@ -8028,16 +8196,16 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>21191</v>
+        <v>17259</v>
       </c>
       <c r="B328" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C328" t="s">
         <v>15</v>
       </c>
       <c r="D328" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E328" t="n">
         <v>1</v>
@@ -8045,16 +8213,16 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>21216</v>
+        <v>17372</v>
       </c>
       <c r="B329" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C329" t="s">
         <v>15</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>538</v>
       </c>
       <c r="E329" t="n">
         <v>1</v>
@@ -8062,16 +8230,16 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>21305</v>
+        <v>17436</v>
       </c>
       <c r="B330" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C330" t="s">
         <v>15</v>
       </c>
       <c r="D330" t="s">
-        <v>538</v>
+        <v>16</v>
       </c>
       <c r="E330" t="n">
         <v>1</v>
@@ -8079,16 +8247,16 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>21526</v>
+        <v>17443</v>
       </c>
       <c r="B331" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C331" t="s">
         <v>15</v>
       </c>
       <c r="D331" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E331" t="n">
         <v>1</v>
@@ -8096,16 +8264,16 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>21625</v>
+        <v>17551</v>
       </c>
       <c r="B332" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D332" t="s">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="E332" t="n">
         <v>1</v>
@@ -8113,16 +8281,16 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>21695</v>
+        <v>17615</v>
       </c>
       <c r="B333" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C333" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D333" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E333" t="n">
         <v>1</v>
@@ -8130,16 +8298,16 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>21724</v>
+        <v>17814</v>
       </c>
       <c r="B334" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C334" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D334" t="s">
-        <v>16</v>
+        <v>547</v>
       </c>
       <c r="E334" t="n">
         <v>1</v>
@@ -8147,16 +8315,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>21792</v>
+        <v>17889</v>
       </c>
       <c r="B335" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D335" t="s">
-        <v>546</v>
+        <v>16</v>
       </c>
       <c r="E335" t="n">
         <v>1</v>
@@ -8164,16 +8332,16 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>21793</v>
+        <v>18106</v>
       </c>
       <c r="B336" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C336" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D336" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E336" t="n">
         <v>1</v>
@@ -8181,16 +8349,16 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>21823</v>
+        <v>18131</v>
       </c>
       <c r="B337" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D337" t="s">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
@@ -8198,16 +8366,16 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>21846</v>
+        <v>18252</v>
       </c>
       <c r="B338" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D338" t="s">
-        <v>550</v>
+        <v>16</v>
       </c>
       <c r="E338" t="n">
         <v>1</v>
@@ -8215,16 +8383,16 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>21991</v>
+        <v>18404</v>
       </c>
       <c r="B339" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C339" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D339" t="s">
-        <v>278</v>
+        <v>555</v>
       </c>
       <c r="E339" t="n">
         <v>1</v>
@@ -8232,16 +8400,16 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>22017</v>
+        <v>18486</v>
       </c>
       <c r="B340" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C340" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D340" t="s">
-        <v>553</v>
+        <v>16</v>
       </c>
       <c r="E340" t="n">
         <v>1</v>
@@ -8249,13 +8417,13 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>22078</v>
+        <v>18501</v>
       </c>
       <c r="B341" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C341" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D341" t="s">
         <v>16</v>
@@ -8266,16 +8434,16 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>22162</v>
+        <v>18538</v>
       </c>
       <c r="B342" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C342" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>559</v>
       </c>
       <c r="E342" t="n">
         <v>1</v>
@@ -8283,16 +8451,16 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>22227</v>
+        <v>18583</v>
       </c>
       <c r="B343" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C343" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D343" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E343" t="n">
         <v>1</v>
@@ -8300,16 +8468,16 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>22255</v>
+        <v>18803</v>
       </c>
       <c r="B344" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C344" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D344" t="s">
-        <v>16</v>
+        <v>563</v>
       </c>
       <c r="E344" t="n">
         <v>1</v>
@@ -8317,16 +8485,16 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>22323</v>
+        <v>18898</v>
       </c>
       <c r="B345" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C345" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D345" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E345" t="n">
         <v>1</v>
@@ -8334,16 +8502,16 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>22326</v>
+        <v>18958</v>
       </c>
       <c r="B346" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C346" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D346" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E346" t="n">
         <v>1</v>
@@ -8351,16 +8519,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>22328</v>
+        <v>19021</v>
       </c>
       <c r="B347" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C347" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D347" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E347" t="n">
         <v>1</v>
@@ -8368,13 +8536,13 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>22591</v>
+        <v>19167</v>
       </c>
       <c r="B348" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C348" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D348" t="s">
         <v>16</v>
@@ -8385,16 +8553,16 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>22969</v>
+        <v>19274</v>
       </c>
       <c r="B349" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C349" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D349" t="s">
-        <v>16</v>
+        <v>572</v>
       </c>
       <c r="E349" t="n">
         <v>1</v>
@@ -8402,16 +8570,16 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>23012</v>
+        <v>20081</v>
       </c>
       <c r="B350" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D350" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E350" t="n">
         <v>1</v>
@@ -8419,16 +8587,16 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>23063</v>
+        <v>20178</v>
       </c>
       <c r="B351" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C351" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D351" t="s">
-        <v>570</v>
+        <v>16</v>
       </c>
       <c r="E351" t="n">
         <v>1</v>
@@ -8436,16 +8604,16 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>23271</v>
+        <v>20279</v>
       </c>
       <c r="B352" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C352" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D352" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="E352" t="n">
         <v>1</v>
@@ -8453,13 +8621,13 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>23510</v>
+        <v>20283</v>
       </c>
       <c r="B353" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C353" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D353" t="s">
         <v>16</v>
@@ -8470,16 +8638,16 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>23601</v>
+        <v>20580</v>
       </c>
       <c r="B354" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C354" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D354" t="s">
-        <v>575</v>
+        <v>16</v>
       </c>
       <c r="E354" t="n">
         <v>1</v>
@@ -8487,16 +8655,16 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>23611</v>
+        <v>20860</v>
       </c>
       <c r="B355" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C355" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D355" t="s">
-        <v>16</v>
+        <v>581</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
@@ -8504,16 +8672,16 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>23688</v>
+        <v>20987</v>
       </c>
       <c r="B356" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C356" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D356" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="E356" t="n">
         <v>1</v>
@@ -8521,16 +8689,16 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>23709</v>
+        <v>20995</v>
       </c>
       <c r="B357" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C357" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D357" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E357" t="n">
         <v>1</v>
@@ -8538,16 +8706,16 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>23809</v>
+        <v>21077</v>
       </c>
       <c r="B358" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C358" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D358" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="E358" t="n">
         <v>1</v>
@@ -8555,16 +8723,16 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>23868</v>
+        <v>21137</v>
       </c>
       <c r="B359" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D359" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E359" t="n">
         <v>1</v>
@@ -8572,16 +8740,16 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>24151</v>
+        <v>21191</v>
       </c>
       <c r="B360" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D360" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E360" t="n">
         <v>1</v>
@@ -8589,16 +8757,16 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>24161</v>
+        <v>21216</v>
       </c>
       <c r="B361" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C361" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D361" t="s">
-        <v>587</v>
+        <v>16</v>
       </c>
       <c r="E361" t="n">
         <v>1</v>
@@ -8606,16 +8774,16 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>24321</v>
+        <v>21305</v>
       </c>
       <c r="B362" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D362" t="s">
-        <v>258</v>
+        <v>594</v>
       </c>
       <c r="E362" t="n">
         <v>1</v>
@@ -8623,16 +8791,16 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>24364</v>
+        <v>21431</v>
       </c>
       <c r="B363" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C363" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D363" t="s">
-        <v>16</v>
+        <v>596</v>
       </c>
       <c r="E363" t="n">
         <v>1</v>
@@ -8640,16 +8808,16 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>24506</v>
+        <v>21526</v>
       </c>
       <c r="B364" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C364" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D364" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E364" t="n">
         <v>1</v>
@@ -8657,10 +8825,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>24904</v>
+        <v>21625</v>
       </c>
       <c r="B365" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
@@ -8674,16 +8842,16 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>24914</v>
+        <v>21695</v>
       </c>
       <c r="B366" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
       </c>
       <c r="D366" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E366" t="n">
         <v>1</v>
@@ -8691,16 +8859,16 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>25135</v>
+        <v>21724</v>
       </c>
       <c r="B367" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
       </c>
       <c r="D367" t="s">
-        <v>596</v>
+        <v>16</v>
       </c>
       <c r="E367" t="n">
         <v>1</v>
@@ -8708,10 +8876,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>25214</v>
+        <v>21727</v>
       </c>
       <c r="B368" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -8725,16 +8893,16 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>25218</v>
+        <v>21792</v>
       </c>
       <c r="B369" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
       </c>
       <c r="D369" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E369" t="n">
         <v>1</v>
@@ -8742,16 +8910,16 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>25275</v>
+        <v>21793</v>
       </c>
       <c r="B370" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
       </c>
       <c r="D370" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E370" t="n">
         <v>1</v>
@@ -8759,10 +8927,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>25300</v>
+        <v>21823</v>
       </c>
       <c r="B371" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -8776,16 +8944,16 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>25460</v>
+        <v>21846</v>
       </c>
       <c r="B372" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D372" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E372" t="n">
         <v>1</v>
@@ -8793,16 +8961,16 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>25521</v>
+        <v>22017</v>
       </c>
       <c r="B373" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D373" t="s">
-        <v>16</v>
+        <v>611</v>
       </c>
       <c r="E373" t="n">
         <v>1</v>
@@ -8810,16 +8978,16 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>25714</v>
+        <v>22078</v>
       </c>
       <c r="B374" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C374" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D374" t="s">
-        <v>607</v>
+        <v>16</v>
       </c>
       <c r="E374" t="n">
         <v>1</v>
@@ -8827,16 +8995,16 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>25743</v>
+        <v>22162</v>
       </c>
       <c r="B375" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C375" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D375" t="s">
-        <v>585</v>
+        <v>16</v>
       </c>
       <c r="E375" t="n">
         <v>1</v>
@@ -8844,16 +9012,16 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>25818</v>
+        <v>22227</v>
       </c>
       <c r="B376" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D376" t="s">
-        <v>16</v>
+        <v>615</v>
       </c>
       <c r="E376" t="n">
         <v>1</v>
@@ -8861,16 +9029,16 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>25819</v>
+        <v>22255</v>
       </c>
       <c r="B377" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C377" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D377" t="s">
-        <v>611</v>
+        <v>16</v>
       </c>
       <c r="E377" t="n">
         <v>1</v>
@@ -8878,16 +9046,16 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>25855</v>
+        <v>22323</v>
       </c>
       <c r="B378" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D378" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E378" t="n">
         <v>1</v>
@@ -8895,16 +9063,16 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>25897</v>
+        <v>22326</v>
       </c>
       <c r="B379" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C379" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D379" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E379" t="n">
         <v>1</v>
@@ -8912,16 +9080,16 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>25904</v>
+        <v>22328</v>
       </c>
       <c r="B380" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D380" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="E380" t="n">
         <v>1</v>
@@ -8929,16 +9097,16 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>25913</v>
+        <v>22591</v>
       </c>
       <c r="B381" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D381" t="s">
-        <v>619</v>
+        <v>16</v>
       </c>
       <c r="E381" t="n">
         <v>1</v>
@@ -8946,16 +9114,16 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>25930</v>
+        <v>22846</v>
       </c>
       <c r="B382" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D382" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E382" t="n">
         <v>1</v>
@@ -8963,16 +9131,16 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>26233</v>
+        <v>22969</v>
       </c>
       <c r="B383" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C383" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D383" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E383" t="n">
         <v>1</v>
@@ -8980,16 +9148,16 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>26313</v>
+        <v>23012</v>
       </c>
       <c r="B384" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C384" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D384" t="s">
-        <v>16</v>
+        <v>628</v>
       </c>
       <c r="E384" t="n">
         <v>1</v>
@@ -8997,16 +9165,16 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>26333</v>
+        <v>23510</v>
       </c>
       <c r="B385" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C385" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D385" t="s">
-        <v>625</v>
+        <v>16</v>
       </c>
       <c r="E385" t="n">
         <v>1</v>
@@ -9014,16 +9182,16 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>26447</v>
+        <v>23601</v>
       </c>
       <c r="B386" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C386" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D386" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E386" t="n">
         <v>1</v>
@@ -9031,16 +9199,16 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>26459</v>
+        <v>23611</v>
       </c>
       <c r="B387" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C387" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D387" t="s">
-        <v>629</v>
+        <v>16</v>
       </c>
       <c r="E387" t="n">
         <v>1</v>
@@ -9048,16 +9216,16 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>26460</v>
+        <v>23688</v>
       </c>
       <c r="B388" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C388" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D388" t="s">
-        <v>16</v>
+        <v>634</v>
       </c>
       <c r="E388" t="n">
         <v>1</v>
@@ -9065,16 +9233,16 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>26461</v>
+        <v>23809</v>
       </c>
       <c r="B389" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C389" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D389" t="s">
-        <v>632</v>
+        <v>16</v>
       </c>
       <c r="E389" t="n">
         <v>1</v>
@@ -9082,16 +9250,16 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>26464</v>
+        <v>23868</v>
       </c>
       <c r="B390" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C390" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D390" t="s">
-        <v>16</v>
+        <v>637</v>
       </c>
       <c r="E390" t="n">
         <v>1</v>
@@ -9099,16 +9267,16 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>26542</v>
+        <v>24007</v>
       </c>
       <c r="B391" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C391" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D391" t="s">
-        <v>635</v>
+        <v>16</v>
       </c>
       <c r="E391" t="n">
         <v>1</v>
@@ -9116,16 +9284,16 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>26604</v>
+        <v>24138</v>
       </c>
       <c r="B392" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C392" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D392" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E392" t="n">
         <v>1</v>
@@ -9133,16 +9301,16 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>26622</v>
+        <v>24151</v>
       </c>
       <c r="B393" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C393" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D393" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E393" t="n">
         <v>1</v>
@@ -9150,16 +9318,16 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>26660</v>
+        <v>24161</v>
       </c>
       <c r="B394" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C394" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D394" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E394" t="n">
         <v>1</v>
@@ -9167,16 +9335,16 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>26681</v>
+        <v>24321</v>
       </c>
       <c r="B395" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C395" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D395" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="E395" t="n">
         <v>1</v>
@@ -9184,13 +9352,13 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>26690</v>
+        <v>24364</v>
       </c>
       <c r="B396" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C396" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D396" t="s">
         <v>16</v>
@@ -9201,13 +9369,13 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>26822</v>
+        <v>24904</v>
       </c>
       <c r="B397" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C397" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D397" t="s">
         <v>16</v>
@@ -9218,16 +9386,16 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>26842</v>
+        <v>25010</v>
       </c>
       <c r="B398" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C398" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D398" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E398" t="n">
         <v>1</v>
@@ -9235,16 +9403,16 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>26923</v>
+        <v>25135</v>
       </c>
       <c r="B399" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C399" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D399" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E399" t="n">
         <v>1</v>
@@ -9252,13 +9420,13 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>27041</v>
+        <v>25214</v>
       </c>
       <c r="B400" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C400" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D400" t="s">
         <v>16</v>
@@ -9269,16 +9437,16 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>27213</v>
+        <v>25218</v>
       </c>
       <c r="B401" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C401" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="D401" t="s">
-        <v>16</v>
+        <v>654</v>
       </c>
       <c r="E401" t="n">
         <v>1</v>
@@ -9286,16 +9454,16 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>27230</v>
+        <v>25275</v>
       </c>
       <c r="B402" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C402" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="D402" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E402" t="n">
         <v>1</v>
@@ -9303,16 +9471,16 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>27390</v>
+        <v>25300</v>
       </c>
       <c r="B403" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C403" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D403" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E403" t="n">
         <v>1</v>
@@ -9320,16 +9488,16 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>27434</v>
+        <v>25460</v>
       </c>
       <c r="B404" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C404" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="D404" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E404" t="n">
         <v>1</v>
@@ -9337,13 +9505,13 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>27513</v>
+        <v>25521</v>
       </c>
       <c r="B405" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C405" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="D405" t="s">
         <v>16</v>
@@ -9354,16 +9522,16 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>27725</v>
+        <v>25662</v>
       </c>
       <c r="B406" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C406" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="D406" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="E406" t="n">
         <v>1</v>
@@ -9371,16 +9539,16 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>27739</v>
+        <v>25714</v>
       </c>
       <c r="B407" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C407" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="D407" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E407" t="n">
         <v>1</v>
@@ -9388,16 +9556,16 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>27782</v>
+        <v>25743</v>
       </c>
       <c r="B408" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C408" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D408" t="s">
-        <v>10</v>
+        <v>642</v>
       </c>
       <c r="E408" t="n">
         <v>1</v>
@@ -9405,16 +9573,16 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>27792</v>
+        <v>25818</v>
       </c>
       <c r="B409" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C409" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D409" t="s">
-        <v>585</v>
+        <v>16</v>
       </c>
       <c r="E409" t="n">
         <v>1</v>
@@ -9422,16 +9590,16 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>27798</v>
+        <v>25819</v>
       </c>
       <c r="B410" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C410" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D410" t="s">
-        <v>10</v>
+        <v>667</v>
       </c>
       <c r="E410" t="n">
         <v>1</v>
@@ -9439,16 +9607,16 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>27972</v>
+        <v>25844</v>
       </c>
       <c r="B411" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C411" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D411" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E411" t="n">
         <v>1</v>
@@ -9456,16 +9624,16 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>27998</v>
+        <v>25855</v>
       </c>
       <c r="B412" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C412" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D412" t="s">
-        <v>16</v>
+        <v>671</v>
       </c>
       <c r="E412" t="n">
         <v>1</v>
@@ -9473,16 +9641,16 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>28005</v>
+        <v>25897</v>
       </c>
       <c r="B413" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C413" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D413" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="E413" t="n">
         <v>1</v>
@@ -9490,16 +9658,16 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>28048</v>
+        <v>25904</v>
       </c>
       <c r="B414" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C414" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D414" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E414" t="n">
         <v>1</v>
@@ -9507,16 +9675,16 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>28102</v>
+        <v>25913</v>
       </c>
       <c r="B415" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C415" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E415" t="n">
         <v>1</v>
@@ -9524,16 +9692,16 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>28111</v>
+        <v>25930</v>
       </c>
       <c r="B416" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C416" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D416" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="E416" t="n">
         <v>1</v>
@@ -9541,16 +9709,16 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>28280</v>
+        <v>26233</v>
       </c>
       <c r="B417" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C417" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D417" t="s">
-        <v>676</v>
+        <v>10</v>
       </c>
       <c r="E417" t="n">
         <v>1</v>
@@ -9558,16 +9726,16 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>28281</v>
+        <v>26313</v>
       </c>
       <c r="B418" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C418" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D418" t="s">
-        <v>676</v>
+        <v>16</v>
       </c>
       <c r="E418" t="n">
         <v>1</v>
@@ -9575,16 +9743,16 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>28282</v>
+        <v>26333</v>
       </c>
       <c r="B419" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C419" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D419" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="E419" t="n">
         <v>1</v>
@@ -9592,16 +9760,16 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>28376</v>
+        <v>26447</v>
       </c>
       <c r="B420" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C420" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D420" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E420" t="n">
         <v>1</v>
@@ -9609,16 +9777,16 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>28417</v>
+        <v>26459</v>
       </c>
       <c r="B421" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C421" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D421" t="s">
-        <v>16</v>
+        <v>687</v>
       </c>
       <c r="E421" t="n">
         <v>1</v>
@@ -9626,16 +9794,16 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>28520</v>
+        <v>26460</v>
       </c>
       <c r="B422" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C422" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D422" t="s">
-        <v>683</v>
+        <v>16</v>
       </c>
       <c r="E422" t="n">
         <v>1</v>
@@ -9643,16 +9811,16 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>28705</v>
+        <v>26461</v>
       </c>
       <c r="B423" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C423" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D423" t="s">
-        <v>16</v>
+        <v>690</v>
       </c>
       <c r="E423" t="n">
         <v>1</v>
@@ -9660,13 +9828,13 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>28744</v>
+        <v>26464</v>
       </c>
       <c r="B424" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C424" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D424" t="s">
         <v>16</v>
@@ -9677,16 +9845,16 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>28833</v>
+        <v>26526</v>
       </c>
       <c r="B425" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C425" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D425" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="E425" t="n">
         <v>1</v>
@@ -9694,16 +9862,16 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>28849</v>
+        <v>26542</v>
       </c>
       <c r="B426" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C426" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D426" t="s">
-        <v>16</v>
+        <v>695</v>
       </c>
       <c r="E426" t="n">
         <v>1</v>
@@ -9711,16 +9879,16 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>28866</v>
+        <v>26604</v>
       </c>
       <c r="B427" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C427" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D427" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="E427" t="n">
         <v>1</v>
@@ -9728,16 +9896,16 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>28887</v>
+        <v>26622</v>
       </c>
       <c r="B428" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C428" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D428" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="E428" t="n">
         <v>1</v>
@@ -9745,16 +9913,16 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>28905</v>
+        <v>26660</v>
       </c>
       <c r="B429" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C429" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D429" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="E429" t="n">
         <v>1</v>
@@ -9762,16 +9930,16 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>28957</v>
+        <v>26664</v>
       </c>
       <c r="B430" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C430" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D430" t="s">
-        <v>16</v>
+        <v>703</v>
       </c>
       <c r="E430" t="n">
         <v>1</v>
@@ -9779,16 +9947,16 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>28977</v>
+        <v>26681</v>
       </c>
       <c r="B431" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C431" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D431" t="s">
-        <v>697</v>
+        <v>16</v>
       </c>
       <c r="E431" t="n">
         <v>1</v>
@@ -9796,16 +9964,16 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>28985</v>
+        <v>26690</v>
       </c>
       <c r="B432" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="C432" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D432" t="s">
-        <v>699</v>
+        <v>16</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
@@ -9813,16 +9981,16 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>29439</v>
+        <v>26822</v>
       </c>
       <c r="B433" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C433" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D433" t="s">
-        <v>701</v>
+        <v>16</v>
       </c>
       <c r="E433" t="n">
         <v>1</v>
@@ -9830,16 +9998,16 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>29527</v>
+        <v>26842</v>
       </c>
       <c r="B434" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C434" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="D434" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
@@ -9847,16 +10015,16 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>29545</v>
+        <v>26923</v>
       </c>
       <c r="B435" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C435" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="D435" t="s">
-        <v>10</v>
+        <v>710</v>
       </c>
       <c r="E435" t="n">
         <v>1</v>
@@ -9864,16 +10032,16 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>29769</v>
+        <v>27041</v>
       </c>
       <c r="B436" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C436" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="D436" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="E436" t="n">
         <v>1</v>
@@ -9881,16 +10049,16 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>29825</v>
+        <v>27213</v>
       </c>
       <c r="B437" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C437" t="s">
-        <v>9</v>
+        <v>713</v>
       </c>
       <c r="D437" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -9898,18 +10066,579 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
+        <v>27230</v>
+      </c>
+      <c r="B438" t="s">
+        <v>714</v>
+      </c>
+      <c r="C438" t="s">
+        <v>713</v>
+      </c>
+      <c r="D438" t="s">
+        <v>715</v>
+      </c>
+      <c r="E438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>27390</v>
+      </c>
+      <c r="B439" t="s">
+        <v>716</v>
+      </c>
+      <c r="C439" t="s">
+        <v>9</v>
+      </c>
+      <c r="D439" t="s">
+        <v>10</v>
+      </c>
+      <c r="E439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>27434</v>
+      </c>
+      <c r="B440" t="s">
+        <v>717</v>
+      </c>
+      <c r="C440" t="s">
+        <v>293</v>
+      </c>
+      <c r="D440" t="s">
+        <v>718</v>
+      </c>
+      <c r="E440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B441" t="s">
+        <v>719</v>
+      </c>
+      <c r="C441" t="s">
+        <v>293</v>
+      </c>
+      <c r="D441" t="s">
+        <v>16</v>
+      </c>
+      <c r="E441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>27725</v>
+      </c>
+      <c r="B442" t="s">
+        <v>720</v>
+      </c>
+      <c r="C442" t="s">
+        <v>293</v>
+      </c>
+      <c r="D442" t="s">
+        <v>154</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>27739</v>
+      </c>
+      <c r="B443" t="s">
+        <v>721</v>
+      </c>
+      <c r="C443" t="s">
+        <v>293</v>
+      </c>
+      <c r="D443" t="s">
+        <v>722</v>
+      </c>
+      <c r="E443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>27782</v>
+      </c>
+      <c r="B444" t="s">
+        <v>723</v>
+      </c>
+      <c r="C444" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" t="s">
+        <v>10</v>
+      </c>
+      <c r="E444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>27792</v>
+      </c>
+      <c r="B445" t="s">
+        <v>724</v>
+      </c>
+      <c r="C445" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" t="s">
+        <v>642</v>
+      </c>
+      <c r="E445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>27798</v>
+      </c>
+      <c r="B446" t="s">
+        <v>725</v>
+      </c>
+      <c r="C446" t="s">
+        <v>9</v>
+      </c>
+      <c r="D446" t="s">
+        <v>10</v>
+      </c>
+      <c r="E446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>27998</v>
+      </c>
+      <c r="B447" t="s">
+        <v>726</v>
+      </c>
+      <c r="C447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" t="s">
+        <v>16</v>
+      </c>
+      <c r="E447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>28005</v>
+      </c>
+      <c r="B448" t="s">
+        <v>727</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" t="s">
+        <v>728</v>
+      </c>
+      <c r="E448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>28095</v>
+      </c>
+      <c r="B449" t="s">
+        <v>729</v>
+      </c>
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" t="s">
+        <v>730</v>
+      </c>
+      <c r="E449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>28102</v>
+      </c>
+      <c r="B450" t="s">
+        <v>731</v>
+      </c>
+      <c r="C450" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" t="s">
+        <v>732</v>
+      </c>
+      <c r="E450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>28376</v>
+      </c>
+      <c r="B451" t="s">
+        <v>733</v>
+      </c>
+      <c r="C451" t="s">
+        <v>27</v>
+      </c>
+      <c r="D451" t="s">
+        <v>734</v>
+      </c>
+      <c r="E451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>28386</v>
+      </c>
+      <c r="B452" t="s">
+        <v>735</v>
+      </c>
+      <c r="C452" t="s">
+        <v>27</v>
+      </c>
+      <c r="D452" t="s">
+        <v>736</v>
+      </c>
+      <c r="E452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>28417</v>
+      </c>
+      <c r="B453" t="s">
+        <v>737</v>
+      </c>
+      <c r="C453" t="s">
+        <v>27</v>
+      </c>
+      <c r="D453" t="s">
+        <v>16</v>
+      </c>
+      <c r="E453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>28444</v>
+      </c>
+      <c r="B454" t="s">
+        <v>738</v>
+      </c>
+      <c r="C454" t="s">
+        <v>27</v>
+      </c>
+      <c r="D454" t="s">
+        <v>16</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>28520</v>
+      </c>
+      <c r="B455" t="s">
+        <v>739</v>
+      </c>
+      <c r="C455" t="s">
+        <v>27</v>
+      </c>
+      <c r="D455" t="s">
+        <v>740</v>
+      </c>
+      <c r="E455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>28705</v>
+      </c>
+      <c r="B456" t="s">
+        <v>741</v>
+      </c>
+      <c r="C456" t="s">
+        <v>27</v>
+      </c>
+      <c r="D456" t="s">
+        <v>16</v>
+      </c>
+      <c r="E456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>28744</v>
+      </c>
+      <c r="B457" t="s">
+        <v>742</v>
+      </c>
+      <c r="C457" t="s">
+        <v>27</v>
+      </c>
+      <c r="D457" t="s">
+        <v>16</v>
+      </c>
+      <c r="E457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>28833</v>
+      </c>
+      <c r="B458" t="s">
+        <v>743</v>
+      </c>
+      <c r="C458" t="s">
+        <v>27</v>
+      </c>
+      <c r="D458" t="s">
+        <v>744</v>
+      </c>
+      <c r="E458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>28849</v>
+      </c>
+      <c r="B459" t="s">
+        <v>745</v>
+      </c>
+      <c r="C459" t="s">
+        <v>27</v>
+      </c>
+      <c r="D459" t="s">
+        <v>16</v>
+      </c>
+      <c r="E459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>28866</v>
+      </c>
+      <c r="B460" t="s">
+        <v>746</v>
+      </c>
+      <c r="C460" t="s">
+        <v>27</v>
+      </c>
+      <c r="D460" t="s">
+        <v>747</v>
+      </c>
+      <c r="E460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>28905</v>
+      </c>
+      <c r="B461" t="s">
+        <v>748</v>
+      </c>
+      <c r="C461" t="s">
+        <v>27</v>
+      </c>
+      <c r="D461" t="s">
+        <v>749</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>28957</v>
+      </c>
+      <c r="B462" t="s">
+        <v>750</v>
+      </c>
+      <c r="C462" t="s">
+        <v>27</v>
+      </c>
+      <c r="D462" t="s">
+        <v>16</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>28985</v>
+      </c>
+      <c r="B463" t="s">
+        <v>751</v>
+      </c>
+      <c r="C463" t="s">
+        <v>27</v>
+      </c>
+      <c r="D463" t="s">
+        <v>752</v>
+      </c>
+      <c r="E463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>29439</v>
+      </c>
+      <c r="B464" t="s">
+        <v>753</v>
+      </c>
+      <c r="C464" t="s">
+        <v>27</v>
+      </c>
+      <c r="D464" t="s">
+        <v>754</v>
+      </c>
+      <c r="E464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>29527</v>
+      </c>
+      <c r="B465" t="s">
+        <v>755</v>
+      </c>
+      <c r="C465" t="s">
+        <v>27</v>
+      </c>
+      <c r="D465" t="s">
+        <v>756</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>29545</v>
+      </c>
+      <c r="B466" t="s">
+        <v>757</v>
+      </c>
+      <c r="C466" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466" t="s">
+        <v>10</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>29648</v>
+      </c>
+      <c r="B467" t="s">
+        <v>758</v>
+      </c>
+      <c r="C467" t="s">
+        <v>222</v>
+      </c>
+      <c r="D467" t="s">
+        <v>759</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>29769</v>
+      </c>
+      <c r="B468" t="s">
+        <v>760</v>
+      </c>
+      <c r="C468" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" t="s">
+        <v>154</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>29774</v>
+      </c>
+      <c r="B469" t="s">
+        <v>761</v>
+      </c>
+      <c r="C469" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" t="s">
+        <v>10</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>29825</v>
+      </c>
+      <c r="B470" t="s">
+        <v>762</v>
+      </c>
+      <c r="C470" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" t="s">
+        <v>10</v>
+      </c>
+      <c r="E470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
         <v>29836</v>
       </c>
-      <c r="B438" t="s">
-        <v>707</v>
-      </c>
-      <c r="C438" t="s">
+      <c r="B471" t="s">
+        <v>763</v>
+      </c>
+      <c r="C471" t="s">
         <v>9</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D471" t="s">
         <v>10</v>
       </c>
-      <c r="E438" t="n">
+      <c r="E471" t="n">
         <v>1</v>
       </c>
     </row>
